--- a/data/pca/keyFactor/keyFactor_2014-05-23.xlsx
+++ b/data/pca/keyFactor/keyFactor_2014-05-23.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4286 +417,8570 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>41424</v>
+        <v>41065</v>
       </c>
       <c r="B2">
-        <v>0.9985530041910731</v>
+        <v>0.9999470242955183</v>
       </c>
       <c r="C2">
-        <v>0.9997936519921984</v>
+        <v>0.9991682397202951</v>
       </c>
       <c r="D2">
-        <v>0.9996504853435377</v>
+        <v>0.9990586004157673</v>
       </c>
       <c r="E2">
-        <v>0.9997488830448952</v>
+        <v>0.9999857091770213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>41425</v>
+        <v>41066</v>
       </c>
       <c r="B3">
-        <v>0.9988022166235453</v>
+        <v>0.9986737239377924</v>
       </c>
       <c r="C3">
-        <v>0.9991648469422356</v>
+        <v>0.9987310831692383</v>
       </c>
       <c r="D3">
-        <v>0.9994994263598806</v>
+        <v>0.9977943611953647</v>
       </c>
       <c r="E3">
-        <v>0.999066265941123</v>
+        <v>1.000158441325069</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>41428</v>
+        <v>41067</v>
       </c>
       <c r="B4">
-        <v>0.9985225472268785</v>
+        <v>1.000053769035908</v>
       </c>
       <c r="C4">
-        <v>0.9986256441685507</v>
+        <v>0.9996442800291987</v>
       </c>
       <c r="D4">
-        <v>0.9997645029762416</v>
+        <v>0.9971913727401607</v>
       </c>
       <c r="E4">
-        <v>0.9992416998835689</v>
+        <v>0.9998811412390309</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>41429</v>
+        <v>41068</v>
       </c>
       <c r="B5">
-        <v>0.9988375148294556</v>
+        <v>0.9987696079247737</v>
       </c>
       <c r="C5">
-        <v>0.9985111020180982</v>
+        <v>0.9997387353508402</v>
       </c>
       <c r="D5">
-        <v>0.9996866278538362</v>
+        <v>0.9979032070965396</v>
       </c>
       <c r="E5">
-        <v>0.9993558242784623</v>
+        <v>0.9995183242987646</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41430</v>
+        <v>41071</v>
       </c>
       <c r="B6">
-        <v>0.9987892776429999</v>
+        <v>0.9987713883864876</v>
       </c>
       <c r="C6">
-        <v>0.9974080905354048</v>
+        <v>1.000403879572989</v>
       </c>
       <c r="D6">
-        <v>0.9990690428780621</v>
+        <v>0.9987408744176574</v>
       </c>
       <c r="E6">
-        <v>0.9993783476974846</v>
+        <v>0.999652093410723</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41431</v>
+        <v>41072</v>
       </c>
       <c r="B7">
-        <v>0.9987246467207066</v>
+        <v>0.9987149158167797</v>
       </c>
       <c r="C7">
-        <v>0.9972092875696791</v>
+        <v>0.9993563694143793</v>
       </c>
       <c r="D7">
-        <v>0.9990299589063824</v>
+        <v>0.9983847899329553</v>
       </c>
       <c r="E7">
-        <v>0.9994419237056322</v>
+        <v>0.999644846428132</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41432</v>
+        <v>41073</v>
       </c>
       <c r="B8">
-        <v>1.000347182510075</v>
+        <v>0.9986527728286207</v>
       </c>
       <c r="C8">
-        <v>0.9976454539486742</v>
+        <v>0.999073363326151</v>
       </c>
       <c r="D8">
-        <v>0.9990907437749181</v>
+        <v>0.998562134917769</v>
       </c>
       <c r="E8">
-        <v>0.9993578822137327</v>
+        <v>0.9995011185154169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41435</v>
+        <v>41074</v>
       </c>
       <c r="B9">
-        <v>1.000237360932692</v>
+        <v>0.9972389554037687</v>
       </c>
       <c r="C9">
-        <v>0.9976104606656444</v>
+        <v>0.9990366141148564</v>
       </c>
       <c r="D9">
-        <v>0.9990863438631646</v>
+        <v>0.9988436222580938</v>
       </c>
       <c r="E9">
-        <v>0.9997143207139476</v>
+        <v>0.9997792172779356</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41436</v>
+        <v>41075</v>
       </c>
       <c r="B10">
-        <v>1.001685391056378</v>
+        <v>0.9988237248251622</v>
       </c>
       <c r="C10">
-        <v>0.9972449058070364</v>
+        <v>0.9985744248671763</v>
       </c>
       <c r="D10">
-        <v>0.9989093026544914</v>
+        <v>0.9980739745817484</v>
       </c>
       <c r="E10">
-        <v>0.9994644988717344</v>
+        <v>0.9995167693809627</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41437</v>
+        <v>41078</v>
       </c>
       <c r="B11">
-        <v>1.001471493174051</v>
+        <v>0.9986921331107355</v>
       </c>
       <c r="C11">
-        <v>0.9963705700693428</v>
+        <v>0.9976786653217816</v>
       </c>
       <c r="D11">
-        <v>0.9984794552610586</v>
+        <v>0.9978694845280385</v>
       </c>
       <c r="E11">
-        <v>0.9992388861723894</v>
+        <v>0.9998533155986086</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41438</v>
+        <v>41079</v>
       </c>
       <c r="B12">
-        <v>1.001111192737213</v>
+        <v>0.997247584596529</v>
       </c>
       <c r="C12">
-        <v>0.9976388736136296</v>
+        <v>0.9974447741911846</v>
       </c>
       <c r="D12">
-        <v>0.9983577282154904</v>
+        <v>0.9967801403735344</v>
       </c>
       <c r="E12">
-        <v>0.9994054534885698</v>
+        <v>1.000154202110925</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41439</v>
+        <v>41080</v>
       </c>
       <c r="B13">
-        <v>1.001742636585013</v>
+        <v>0.998839903546022</v>
       </c>
       <c r="C13">
-        <v>0.9970541936894787</v>
+        <v>0.9979702151830193</v>
       </c>
       <c r="D13">
-        <v>0.9982365408792444</v>
+        <v>0.9971792416511491</v>
       </c>
       <c r="E13">
-        <v>0.9995411960955247</v>
+        <v>1.000427492417635</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41442</v>
+        <v>41081</v>
       </c>
       <c r="B14">
-        <v>1.001424961886707</v>
+        <v>0.9974365798684772</v>
       </c>
       <c r="C14">
-        <v>0.9976688458071428</v>
+        <v>1.000184692756587</v>
       </c>
       <c r="D14">
-        <v>0.9986004903706232</v>
+        <v>0.9988723124061806</v>
       </c>
       <c r="E14">
-        <v>0.9996213287847751</v>
+        <v>0.9998574875808964</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41443</v>
+        <v>41082</v>
       </c>
       <c r="B15">
-        <v>1.002297180475694</v>
+        <v>0.9974003300628697</v>
       </c>
       <c r="C15">
-        <v>0.9984849262375196</v>
+        <v>1.000348271370511</v>
       </c>
       <c r="D15">
-        <v>0.998669235053686</v>
+        <v>0.9985639185234291</v>
       </c>
       <c r="E15">
-        <v>1.00004761880193</v>
+        <v>1.000167242166433</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41444</v>
+        <v>41085</v>
       </c>
       <c r="B16">
-        <v>1.003177731736193</v>
+        <v>0.9973248563318529</v>
       </c>
       <c r="C16">
-        <v>0.9981287244564541</v>
+        <v>1.00039784370843</v>
       </c>
       <c r="D16">
-        <v>0.998805616875883</v>
+        <v>1.000193604614566</v>
       </c>
       <c r="E16">
-        <v>0.9997387818864705</v>
+        <v>1.000445484206537</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>41445</v>
+        <v>41086</v>
       </c>
       <c r="B17">
-        <v>1.005951768629762</v>
+        <v>0.998994776329999</v>
       </c>
       <c r="C17">
-        <v>0.9969714962794822</v>
+        <v>1.000829276411418</v>
       </c>
       <c r="D17">
-        <v>0.9982939272075367</v>
+        <v>0.9998578704451209</v>
       </c>
       <c r="E17">
-        <v>0.9992996189227429</v>
+        <v>1.000705285228285</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>41446</v>
+        <v>41087</v>
       </c>
       <c r="B18">
-        <v>1.00533070662125</v>
+        <v>0.9975581699101319</v>
       </c>
       <c r="C18">
-        <v>0.996789693584424</v>
+        <v>1.000616106302467</v>
       </c>
       <c r="D18">
-        <v>0.9982929866922553</v>
+        <v>0.9992071734539666</v>
       </c>
       <c r="E18">
-        <v>0.9993672173086481</v>
+        <v>1.000650752856597</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41449</v>
+        <v>41088</v>
       </c>
       <c r="B19">
-        <v>1.00696666283105</v>
+        <v>0.9976269105432179</v>
       </c>
       <c r="C19">
-        <v>0.9958884667958331</v>
+        <v>1.001023674196382</v>
       </c>
       <c r="D19">
-        <v>0.9975531673943941</v>
+        <v>0.9985742295032964</v>
       </c>
       <c r="E19">
-        <v>0.9990900122609354</v>
+        <v>1.000853942186247</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41450</v>
+        <v>41089</v>
       </c>
       <c r="B20">
-        <v>1.006558544066882</v>
+        <v>0.9991486775976891</v>
       </c>
       <c r="C20">
-        <v>0.9971403229777978</v>
+        <v>0.9998035838430512</v>
       </c>
       <c r="D20">
-        <v>0.9976491080899637</v>
+        <v>0.9984273169556257</v>
       </c>
       <c r="E20">
-        <v>0.9991598907364554</v>
+        <v>1.003134423135084</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>41451</v>
+        <v>41092</v>
       </c>
       <c r="B21">
-        <v>1.00827392071105</v>
+        <v>0.9991067536001706</v>
       </c>
       <c r="C21">
-        <v>0.9974885881652787</v>
+        <v>0.9998028331719008</v>
       </c>
       <c r="D21">
-        <v>0.9975382056485068</v>
+        <v>0.998487246325132</v>
       </c>
       <c r="E21">
-        <v>0.9998290722895625</v>
+        <v>1.003118393289158</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>41452</v>
+        <v>41093</v>
       </c>
       <c r="B22">
-        <v>1.007497707204064</v>
+        <v>0.9990898802686459</v>
       </c>
       <c r="C22">
-        <v>0.997616927661804</v>
+        <v>0.9976966483930886</v>
       </c>
       <c r="D22">
-        <v>0.9979800667171299</v>
+        <v>0.9977275921653814</v>
       </c>
       <c r="E22">
-        <v>0.9999056370120516</v>
+        <v>1.00368265864807</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>41453</v>
+        <v>41094</v>
       </c>
       <c r="B23">
-        <v>1.004988048956946</v>
+        <v>0.9976273142924599</v>
       </c>
       <c r="C23">
-        <v>0.9966793415810213</v>
+        <v>0.9975720050666727</v>
       </c>
       <c r="D23">
-        <v>1.000394963187436</v>
+        <v>0.9970859140881704</v>
       </c>
       <c r="E23">
-        <v>0.9990438841694558</v>
+        <v>1.00388242610049</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>41456</v>
+        <v>41095</v>
       </c>
       <c r="B24">
-        <v>1.004989087089632</v>
+        <v>0.9975241587742212</v>
       </c>
       <c r="C24">
-        <v>0.9966362757669962</v>
+        <v>0.9981897945524625</v>
       </c>
       <c r="D24">
-        <v>1.00036384534947</v>
+        <v>0.9975743149611112</v>
       </c>
       <c r="E24">
-        <v>0.9990732524866562</v>
+        <v>1.003179115858919</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>41457</v>
+        <v>41096</v>
       </c>
       <c r="B25">
-        <v>1.005937828645928</v>
+        <v>0.9975312304594978</v>
       </c>
       <c r="C25">
-        <v>0.9970251035796449</v>
+        <v>0.9995593371729374</v>
       </c>
       <c r="D25">
-        <v>1.001463518759716</v>
+        <v>0.9982115525188077</v>
       </c>
       <c r="E25">
-        <v>0.9989612719307701</v>
+        <v>1.002331368854711</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>41458</v>
+        <v>41099</v>
       </c>
       <c r="B26">
-        <v>1.005520568215418</v>
+        <v>0.9974645053089916</v>
       </c>
       <c r="C26">
-        <v>0.996551928706999</v>
+        <v>0.9998657752534317</v>
       </c>
       <c r="D26">
-        <v>1.001285247625731</v>
+        <v>0.9987054694009536</v>
       </c>
       <c r="E26">
-        <v>0.9990743004886511</v>
+        <v>1.002689335809703</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>41459</v>
+        <v>41100</v>
       </c>
       <c r="B27">
-        <v>1.005554845392189</v>
+        <v>0.9974223210724167</v>
       </c>
       <c r="C27">
-        <v>0.9966703628028376</v>
+        <v>1.001216558985046</v>
       </c>
       <c r="D27">
-        <v>1.001282950315052</v>
+        <v>0.9992462217539673</v>
       </c>
       <c r="E27">
-        <v>0.9990199111614168</v>
+        <v>1.002932858239357</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>41460</v>
+        <v>41101</v>
       </c>
       <c r="B28">
-        <v>1.006418353757825</v>
+        <v>0.9974298318734668</v>
       </c>
       <c r="C28">
-        <v>0.9964424116157731</v>
+        <v>1.001621942803701</v>
       </c>
       <c r="D28">
-        <v>1.0013272900659</v>
+        <v>0.9984459805530917</v>
       </c>
       <c r="E28">
-        <v>0.9991289823655483</v>
+        <v>1.002998849153831</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>41463</v>
+        <v>41102</v>
       </c>
       <c r="B29">
-        <v>1.006619758931852</v>
+        <v>0.997376737575529</v>
       </c>
       <c r="C29">
-        <v>0.9970718570021606</v>
+        <v>1.002267489325138</v>
       </c>
       <c r="D29">
-        <v>1.001526937908215</v>
+        <v>0.9994418044712065</v>
       </c>
       <c r="E29">
-        <v>0.9990873388054193</v>
+        <v>1.002667276987287</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>41464</v>
+        <v>41103</v>
       </c>
       <c r="B30">
-        <v>1.006163409507555</v>
+        <v>0.9973277812695315</v>
       </c>
       <c r="C30">
-        <v>0.9975581086083793</v>
+        <v>1.001557595119603</v>
       </c>
       <c r="D30">
-        <v>1.001812008857334</v>
+        <v>0.9989883935035249</v>
       </c>
       <c r="E30">
-        <v>0.9999207890736062</v>
+        <v>1.003149282229649</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>41465</v>
+        <v>41106</v>
       </c>
       <c r="B31">
-        <v>1.006071091611461</v>
+        <v>0.9973481397439781</v>
       </c>
       <c r="C31">
-        <v>0.9974522574414316</v>
+        <v>1.001714800289406</v>
       </c>
       <c r="D31">
-        <v>1.002159987794532</v>
+        <v>0.9990678433090531</v>
       </c>
       <c r="E31">
-        <v>0.9995255312390867</v>
+        <v>1.003519858264408</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>41466</v>
+        <v>41107</v>
       </c>
       <c r="B32">
-        <v>1.003758871266899</v>
+        <v>0.9973680929802264</v>
       </c>
       <c r="C32">
-        <v>0.9978923044407627</v>
+        <v>1.002106023158275</v>
       </c>
       <c r="D32">
-        <v>1.00239964371773</v>
+        <v>0.998673272766282</v>
       </c>
       <c r="E32">
-        <v>0.9996716673465461</v>
+        <v>1.003752012997988</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>41467</v>
+        <v>41108</v>
       </c>
       <c r="B33">
-        <v>1.004498660859934</v>
+        <v>0.9973508196888952</v>
       </c>
       <c r="C33">
-        <v>0.997741347474803</v>
+        <v>1.002398003877546</v>
       </c>
       <c r="D33">
-        <v>1.00234168694318</v>
+        <v>0.9983792024035373</v>
       </c>
       <c r="E33">
-        <v>0.9994254486750233</v>
+        <v>1.003780384465942</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>41470</v>
+        <v>41109</v>
       </c>
       <c r="B34">
-        <v>1.004283942616551</v>
+        <v>0.9956395262409865</v>
       </c>
       <c r="C34">
-        <v>0.9982100761988085</v>
+        <v>1.001702262725975</v>
       </c>
       <c r="D34">
-        <v>1.002258715257345</v>
+        <v>0.9979548460701306</v>
       </c>
       <c r="E34">
-        <v>0.9994857322039784</v>
+        <v>1.003977871449604</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>41471</v>
+        <v>41110</v>
       </c>
       <c r="B35">
-        <v>1.002683032366227</v>
+        <v>0.9955873924738551</v>
       </c>
       <c r="C35">
-        <v>0.9973635953891544</v>
+        <v>1.001789616615349</v>
       </c>
       <c r="D35">
-        <v>1.00225148343424</v>
+        <v>0.9985859207343712</v>
       </c>
       <c r="E35">
-        <v>0.9997505761401317</v>
+        <v>1.00399615676782</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>41472</v>
+        <v>41113</v>
       </c>
       <c r="B36">
-        <v>1.003422764344658</v>
+        <v>1.020069110709009</v>
       </c>
       <c r="C36">
-        <v>0.9978867803316528</v>
+        <v>1.001901711819591</v>
       </c>
       <c r="D36">
-        <v>1.002305864367043</v>
+        <v>0.9988597938501262</v>
       </c>
       <c r="E36">
-        <v>1.000008141782845</v>
+        <v>1.00383119097439</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>41473</v>
+        <v>41114</v>
       </c>
       <c r="B37">
-        <v>1.003626147840203</v>
+        <v>1.01651251252851</v>
       </c>
       <c r="C37">
-        <v>0.9982971983109283</v>
+        <v>1.002222973466502</v>
       </c>
       <c r="D37">
-        <v>1.002607719159958</v>
+        <v>0.9995653015275394</v>
       </c>
       <c r="E37">
-        <v>0.9997399235388672</v>
+        <v>1.003400231190118</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>41474</v>
+        <v>41115</v>
       </c>
       <c r="B38">
-        <v>1.002371592828527</v>
+        <v>1.016433694352016</v>
       </c>
       <c r="C38">
-        <v>0.9980762112390064</v>
+        <v>1.001632809935261</v>
       </c>
       <c r="D38">
-        <v>1.002644043887343</v>
+        <v>1.000225436999262</v>
       </c>
       <c r="E38">
-        <v>0.9995144435113735</v>
+        <v>1.003445667255721</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>41477</v>
+        <v>41116</v>
       </c>
       <c r="B39">
-        <v>1.000147094120305</v>
+        <v>1.01903472957361</v>
       </c>
       <c r="C39">
-        <v>0.9978366236581725</v>
+        <v>1.000183948952883</v>
       </c>
       <c r="D39">
-        <v>1.002376161510006</v>
+        <v>0.9995155921129911</v>
       </c>
       <c r="E39">
-        <v>0.9995871246547955</v>
+        <v>1.00364142484833</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>41478</v>
+        <v>41117</v>
       </c>
       <c r="B40">
-        <v>0.9992777937789016</v>
+        <v>1.018957534073476</v>
       </c>
       <c r="C40">
-        <v>0.9976626797723199</v>
+        <v>0.9994302385806015</v>
       </c>
       <c r="D40">
-        <v>1.002473539359233</v>
+        <v>0.9985686552484863</v>
       </c>
       <c r="E40">
-        <v>0.9998151318594541</v>
+        <v>1.003415394468946</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>41479</v>
+        <v>41120</v>
       </c>
       <c r="B41">
-        <v>1.000795580501303</v>
+        <v>1.01959977027583</v>
       </c>
       <c r="C41">
-        <v>0.9978094402338048</v>
+        <v>0.9991382585178143</v>
       </c>
       <c r="D41">
-        <v>1.002482960442455</v>
+        <v>0.9989532597496548</v>
       </c>
       <c r="E41">
-        <v>0.9997173491922638</v>
+        <v>1.003528213334077</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>41480</v>
+        <v>41121</v>
       </c>
       <c r="B42">
-        <v>1.000585612421459</v>
+        <v>1.018904155540959</v>
       </c>
       <c r="C42">
-        <v>0.997750308487626</v>
+        <v>0.9999774450072177</v>
       </c>
       <c r="D42">
-        <v>1.002377543748137</v>
+        <v>0.9994670437836438</v>
       </c>
       <c r="E42">
-        <v>0.9996462969844346</v>
+        <v>1.003444792135326</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>41481</v>
+        <v>41122</v>
       </c>
       <c r="B43">
-        <v>1.00011970295221</v>
+        <v>1.019602426515192</v>
       </c>
       <c r="C43">
-        <v>0.9975669612886108</v>
+        <v>1.000349611464923</v>
       </c>
       <c r="D43">
-        <v>1.002432744891649</v>
+        <v>0.9993464876726801</v>
       </c>
       <c r="E43">
-        <v>0.9997124031102939</v>
+        <v>1.003507819283934</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>41484</v>
+        <v>41123</v>
       </c>
       <c r="B44">
-        <v>1.000324403353734</v>
+        <v>1.019572157982646</v>
       </c>
       <c r="C44">
-        <v>0.9974797324504113</v>
+        <v>1.001026890613873</v>
       </c>
       <c r="D44">
-        <v>1.00274916912117</v>
+        <v>1.000039524727868</v>
       </c>
       <c r="E44">
-        <v>0.9999083842861228</v>
+        <v>1.003446243247995</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>41485</v>
+        <v>41124</v>
       </c>
       <c r="B45">
-        <v>1.000668088160092</v>
+        <v>1.018830066828313</v>
       </c>
       <c r="C45">
-        <v>0.9972465508008963</v>
+        <v>1.000110049819612</v>
       </c>
       <c r="D45">
-        <v>1.002582764155778</v>
+        <v>0.9991730285249921</v>
       </c>
       <c r="E45">
-        <v>0.9996172340586462</v>
+        <v>1.003873713894145</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>41486</v>
+        <v>41127</v>
       </c>
       <c r="B46">
-        <v>1.001336966888872</v>
+        <v>1.018787092206285</v>
       </c>
       <c r="C46">
-        <v>0.9969283858849933</v>
+        <v>1.000112587107789</v>
       </c>
       <c r="D46">
-        <v>1.002109637742807</v>
+        <v>0.9992388269016312</v>
       </c>
       <c r="E46">
-        <v>0.9989235418614408</v>
+        <v>1.00385426054028</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>41487</v>
+        <v>41128</v>
       </c>
       <c r="B47">
-        <v>1.001906349510282</v>
+        <v>1.017245819596621</v>
       </c>
       <c r="C47">
-        <v>0.9983600970268991</v>
+        <v>0.9985625175902978</v>
       </c>
       <c r="D47">
-        <v>1.002260631766458</v>
+        <v>0.9981587575940355</v>
       </c>
       <c r="E47">
-        <v>0.9980694358048426</v>
+        <v>1.003793739277717</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>41488</v>
+        <v>41129</v>
       </c>
       <c r="B48">
-        <v>1.002291945981824</v>
+        <v>1.017207547824681</v>
       </c>
       <c r="C48">
-        <v>0.9985698969542396</v>
+        <v>0.9990695330005973</v>
       </c>
       <c r="D48">
-        <v>1.001969254080451</v>
+        <v>0.9983355338004219</v>
       </c>
       <c r="E48">
-        <v>0.9979007881536616</v>
+        <v>1.003352988242379</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>41491</v>
+        <v>41130</v>
       </c>
       <c r="B49">
-        <v>1.002295632236395</v>
+        <v>1.018790572127361</v>
       </c>
       <c r="C49">
-        <v>0.9985228015551808</v>
+        <v>0.9984699478739797</v>
       </c>
       <c r="D49">
-        <v>1.001934322366455</v>
+        <v>0.9979814243995139</v>
       </c>
       <c r="E49">
-        <v>0.9979229500267673</v>
+        <v>1.003296058035675</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>41492</v>
+        <v>41131</v>
       </c>
       <c r="B50">
-        <v>1.004083305127216</v>
+        <v>1.018736716397153</v>
       </c>
       <c r="C50">
-        <v>0.9985047071053424</v>
+        <v>0.9980689887765881</v>
       </c>
       <c r="D50">
-        <v>1.001194918064548</v>
+        <v>0.9977156747034496</v>
       </c>
       <c r="E50">
-        <v>0.9981839945011823</v>
+        <v>1.002719874232198</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>41493</v>
+        <v>41134</v>
       </c>
       <c r="B51">
-        <v>1.004111757984567</v>
+        <v>1.018703710270005</v>
       </c>
       <c r="C51">
-        <v>0.9980194770307523</v>
+        <v>0.9985477275193366</v>
       </c>
       <c r="D51">
-        <v>1.0012519847575</v>
+        <v>0.9979543351967219</v>
       </c>
       <c r="E51">
-        <v>0.997855021962244</v>
+        <v>1.002875372501499</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>41494</v>
+        <v>41135</v>
       </c>
       <c r="B52">
-        <v>1.001464861917107</v>
+        <v>1.017947660002839</v>
       </c>
       <c r="C52">
-        <v>0.9983130394382596</v>
+        <v>0.9988087211970356</v>
       </c>
       <c r="D52">
-        <v>1.001311017592976</v>
+        <v>0.9980453557776922</v>
       </c>
       <c r="E52">
-        <v>0.9977650513027273</v>
+        <v>1.003553507590306</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>41495</v>
+        <v>41136</v>
       </c>
       <c r="B53">
-        <v>1.000959618900826</v>
+        <v>1.017894229675429</v>
       </c>
       <c r="C53">
-        <v>0.9984111244209541</v>
+        <v>0.9986316429194841</v>
       </c>
       <c r="D53">
-        <v>1.000708529355673</v>
+        <v>0.9980062406196587</v>
       </c>
       <c r="E53">
-        <v>0.9978733944040726</v>
+        <v>1.003632438338609</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>41498</v>
+        <v>41137</v>
       </c>
       <c r="B54">
-        <v>0.9991429054160577</v>
+        <v>1.018558970950435</v>
       </c>
       <c r="C54">
-        <v>0.9985866595565533</v>
+        <v>0.997267365659672</v>
       </c>
       <c r="D54">
-        <v>0.9996882582876701</v>
+        <v>0.9978263400013255</v>
       </c>
       <c r="E54">
-        <v>0.9982844283954607</v>
+        <v>1.003708017982536</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>41499</v>
+        <v>41138</v>
       </c>
       <c r="B55">
-        <v>0.9995059681292254</v>
+        <v>1.017072490562761</v>
       </c>
       <c r="C55">
-        <v>0.9990309669931138</v>
+        <v>0.9970580748167134</v>
       </c>
       <c r="D55">
-        <v>0.9996553817351643</v>
+        <v>0.9976261221926933</v>
       </c>
       <c r="E55">
-        <v>0.998234179533552</v>
+        <v>1.003888735678302</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>41500</v>
+        <v>41141</v>
       </c>
       <c r="B56">
-        <v>0.9981779497804545</v>
+        <v>1.017862507166054</v>
       </c>
       <c r="C56">
-        <v>0.9985239452577359</v>
+        <v>0.9968806347098786</v>
       </c>
       <c r="D56">
-        <v>0.9992901895432146</v>
+        <v>0.9979732141209484</v>
       </c>
       <c r="E56">
-        <v>0.9981292220063119</v>
+        <v>1.00399602250833</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>41501</v>
+        <v>41142</v>
       </c>
       <c r="B57">
-        <v>0.9961275340451908</v>
+        <v>1.017027472260618</v>
       </c>
       <c r="C57">
-        <v>0.997944713426644</v>
+        <v>0.9962571168090451</v>
       </c>
       <c r="D57">
-        <v>0.9992374802237181</v>
+        <v>0.9980547963150151</v>
       </c>
       <c r="E57">
-        <v>0.998123399967852</v>
+        <v>1.004262035424689</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>41502</v>
+        <v>41143</v>
       </c>
       <c r="B58">
-        <v>0.9964827053552804</v>
+        <v>1.016970309384519</v>
       </c>
       <c r="C58">
-        <v>0.9980484498736381</v>
+        <v>0.9954476394664982</v>
       </c>
       <c r="D58">
-        <v>0.9996951332709149</v>
+        <v>0.9985639467993284</v>
       </c>
       <c r="E58">
-        <v>0.9980287684029137</v>
+        <v>1.00422670513524</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>41505</v>
+        <v>41144</v>
       </c>
       <c r="B59">
-        <v>0.997018359054242</v>
+        <v>1.016071548270545</v>
       </c>
       <c r="C59">
-        <v>0.9970102578349019</v>
+        <v>0.9955015550756374</v>
       </c>
       <c r="D59">
-        <v>0.999312994638085</v>
+        <v>0.9990900712108722</v>
       </c>
       <c r="E59">
-        <v>0.9976934956439387</v>
+        <v>1.004008264679499</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>41506</v>
+        <v>41145</v>
       </c>
       <c r="B60">
-        <v>0.9959287749998926</v>
+        <v>1.016029920289808</v>
       </c>
       <c r="C60">
-        <v>0.9971705140198704</v>
+        <v>0.9956061350451394</v>
       </c>
       <c r="D60">
-        <v>0.9991658640744137</v>
+        <v>0.9991850300198081</v>
       </c>
       <c r="E60">
-        <v>0.9975789940396251</v>
+        <v>1.004190920020335</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>41507</v>
+        <v>41148</v>
       </c>
       <c r="B61">
-        <v>0.9971413586651184</v>
+        <v>1.016028907082105</v>
       </c>
       <c r="C61">
-        <v>0.9967515861159452</v>
+        <v>0.9959829584769289</v>
       </c>
       <c r="D61">
-        <v>0.9990543910282694</v>
+        <v>0.9992264731123466</v>
       </c>
       <c r="E61">
-        <v>0.9973078405404323</v>
+        <v>1.003994493029212</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>41508</v>
+        <v>41149</v>
       </c>
       <c r="B62">
-        <v>0.9961825571855184</v>
+        <v>1.015973368693367</v>
       </c>
       <c r="C62">
-        <v>0.9974072531553752</v>
+        <v>0.9962101695720142</v>
       </c>
       <c r="D62">
-        <v>0.9992918404297333</v>
+        <v>0.9995930389950345</v>
       </c>
       <c r="E62">
-        <v>0.9976455007177025</v>
+        <v>1.003965804442888</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>41509</v>
+        <v>41150</v>
       </c>
       <c r="B63">
-        <v>0.9952345744656813</v>
+        <v>1.015034915109224</v>
       </c>
       <c r="C63">
-        <v>0.9975547779356565</v>
+        <v>0.9964649602822244</v>
       </c>
       <c r="D63">
-        <v>0.9992247942095239</v>
+        <v>0.9997059332492368</v>
       </c>
       <c r="E63">
-        <v>0.9976111235020646</v>
+        <v>1.004084661223892</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>41512</v>
+        <v>41151</v>
       </c>
       <c r="B64">
-        <v>0.9948228644899008</v>
+        <v>1.016011913811468</v>
       </c>
       <c r="C64">
-        <v>0.9973155425876679</v>
+        <v>0.9970179214487376</v>
       </c>
       <c r="D64">
-        <v>0.9990712024036504</v>
+        <v>1.000619524640183</v>
       </c>
       <c r="E64">
-        <v>0.9977609694690381</v>
+        <v>1.00399841852829</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>41513</v>
+        <v>41152</v>
       </c>
       <c r="B65">
-        <v>0.9963879286546705</v>
+        <v>1.016832490859452</v>
       </c>
       <c r="C65">
-        <v>0.9962329027871579</v>
+        <v>0.9959328259628262</v>
       </c>
       <c r="D65">
-        <v>0.9991478447426222</v>
+        <v>1.001023693589299</v>
       </c>
       <c r="E65">
-        <v>0.9980463090338829</v>
+        <v>1.004084777526999</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>41514</v>
+        <v>41156</v>
       </c>
       <c r="B66">
-        <v>0.9970161752022612</v>
+        <v>1.018438338969391</v>
       </c>
       <c r="C66">
-        <v>0.9966867384193473</v>
+        <v>0.9958164293156823</v>
       </c>
       <c r="D66">
-        <v>0.9989855526328627</v>
+        <v>1.001069423770306</v>
       </c>
       <c r="E66">
-        <v>0.997962336786949</v>
+        <v>1.004087283113744</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>41515</v>
+        <v>41157</v>
       </c>
       <c r="B67">
-        <v>0.9967780082079499</v>
+        <v>1.018396973792215</v>
       </c>
       <c r="C67">
-        <v>0.996893493932947</v>
+        <v>0.9955937050947056</v>
       </c>
       <c r="D67">
-        <v>0.9990109714697462</v>
+        <v>1.001067674698665</v>
       </c>
       <c r="E67">
-        <v>0.9976306645343919</v>
+        <v>1.004242169120134</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>41516</v>
+        <v>41158</v>
       </c>
       <c r="B68">
-        <v>0.997177568792899</v>
+        <v>1.020452413120958</v>
       </c>
       <c r="C68">
-        <v>0.9966634282309118</v>
+        <v>0.9946563271577371</v>
       </c>
       <c r="D68">
-        <v>0.999033261302489</v>
+        <v>1.000161007038542</v>
       </c>
       <c r="E68">
-        <v>0.9975198293638059</v>
+        <v>1.00438559737465</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>41520</v>
+        <v>41159</v>
       </c>
       <c r="B69">
-        <v>0.9966735699222851</v>
+        <v>1.01915987142371</v>
       </c>
       <c r="C69">
-        <v>0.9970038017706769</v>
+        <v>0.9931805324345577</v>
       </c>
       <c r="D69">
-        <v>0.9991062912073081</v>
+        <v>0.9993308014628212</v>
       </c>
       <c r="E69">
-        <v>0.9978706168852839</v>
+        <v>1.004060458850184</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>41521</v>
+        <v>41162</v>
       </c>
       <c r="B70">
-        <v>0.9966526816240562</v>
+        <v>1.017750188211801</v>
       </c>
       <c r="C70">
-        <v>0.9973681136852444</v>
+        <v>0.9940972444976729</v>
       </c>
       <c r="D70">
-        <v>0.9986968741052417</v>
+        <v>0.9994893576834295</v>
       </c>
       <c r="E70">
-        <v>0.9979264384732102</v>
+        <v>1.003859250628824</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>41522</v>
+        <v>41163</v>
       </c>
       <c r="B71">
-        <v>0.9975647746607806</v>
+        <v>1.017687748129739</v>
       </c>
       <c r="C71">
-        <v>0.9984448249969751</v>
+        <v>0.9939079559106764</v>
       </c>
       <c r="D71">
-        <v>0.9988383822287773</v>
+        <v>0.9992126012061461</v>
       </c>
       <c r="E71">
-        <v>0.9981878531669841</v>
+        <v>1.003489198007729</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>41523</v>
+        <v>41164</v>
       </c>
       <c r="B72">
-        <v>0.9973604966989111</v>
+        <v>1.018410013760106</v>
       </c>
       <c r="C72">
-        <v>0.9979229765774277</v>
+        <v>0.993511636303177</v>
       </c>
       <c r="D72">
-        <v>0.998934946292539</v>
+        <v>0.9992923930689481</v>
       </c>
       <c r="E72">
-        <v>0.9984316196107678</v>
+        <v>1.003569367264654</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>41526</v>
+        <v>41165</v>
       </c>
       <c r="B73">
-        <v>0.9976935899981196</v>
+        <v>1.018298084843134</v>
       </c>
       <c r="C73">
-        <v>0.9985288984150777</v>
+        <v>0.9921193369834864</v>
       </c>
       <c r="D73">
-        <v>0.9986442240224717</v>
+        <v>0.9991644111164626</v>
       </c>
       <c r="E73">
-        <v>0.9989735235141737</v>
+        <v>1.003793587961251</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>41527</v>
+        <v>41166</v>
       </c>
       <c r="B74">
-        <v>0.999010873004563</v>
+        <v>1.018181615561421</v>
       </c>
       <c r="C74">
-        <v>0.9987004500644543</v>
+        <v>0.9905801945193174</v>
       </c>
       <c r="D74">
-        <v>0.9992397100504266</v>
+        <v>0.9988675211886344</v>
       </c>
       <c r="E74">
-        <v>0.9989838060881743</v>
+        <v>1.003788603700877</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>41528</v>
+        <v>41169</v>
       </c>
       <c r="B75">
-        <v>0.9989302310112486</v>
+        <v>1.016725114320375</v>
       </c>
       <c r="C75">
-        <v>0.9986423709166737</v>
+        <v>0.9910272184209954</v>
       </c>
       <c r="D75">
-        <v>0.9998612568549454</v>
+        <v>0.9995772129372926</v>
       </c>
       <c r="E75">
-        <v>0.9985951622982261</v>
+        <v>1.00389869108203</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>41529</v>
+        <v>41170</v>
       </c>
       <c r="B76">
-        <v>1.000700124133185</v>
+        <v>1.016686950668606</v>
       </c>
       <c r="C76">
-        <v>0.9982818678028055</v>
+        <v>0.9910955146728312</v>
       </c>
       <c r="D76">
-        <v>0.9996482597743851</v>
+        <v>0.9999901646610367</v>
       </c>
       <c r="E76">
-        <v>0.9986248749351142</v>
+        <v>1.003503237490012</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>41530</v>
+        <v>41171</v>
       </c>
       <c r="B77">
-        <v>1.000057691843164</v>
+        <v>1.017451438026228</v>
       </c>
       <c r="C77">
-        <v>0.9980797555905311</v>
+        <v>0.9907747322056042</v>
       </c>
       <c r="D77">
-        <v>0.9997392953236633</v>
+        <v>1.000518225121593</v>
       </c>
       <c r="E77">
-        <v>0.9984543745144475</v>
+        <v>1.003621031328783</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>41533</v>
+        <v>41172</v>
       </c>
       <c r="B78">
-        <v>1.000136361234488</v>
+        <v>1.017429518388363</v>
       </c>
       <c r="C78">
-        <v>0.9988295612781618</v>
+        <v>0.9910597792912272</v>
       </c>
       <c r="D78">
-        <v>0.9999016951813301</v>
+        <v>1.000868123201569</v>
       </c>
       <c r="E78">
-        <v>0.9982256715057634</v>
+        <v>1.003928932290019</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>41534</v>
+        <v>41173</v>
       </c>
       <c r="B79">
-        <v>0.9996652595942614</v>
+        <v>1.017379908166006</v>
       </c>
       <c r="C79">
-        <v>0.9988423813615768</v>
+        <v>0.991056565828985</v>
       </c>
       <c r="D79">
-        <v>0.9996812915345137</v>
+        <v>1.001458752843165</v>
       </c>
       <c r="E79">
-        <v>0.998261160921917</v>
+        <v>1.004534895035796</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>41535</v>
+        <v>41176</v>
       </c>
       <c r="B80">
-        <v>0.9971749882273173</v>
+        <v>1.016615178359797</v>
       </c>
       <c r="C80">
-        <v>0.9980097849782675</v>
+        <v>0.992229597681196</v>
       </c>
       <c r="D80">
-        <v>0.9999120485147586</v>
+        <v>1.001273218224496</v>
       </c>
       <c r="E80">
-        <v>0.998817389623199</v>
+        <v>1.004649803920963</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>41536</v>
+        <v>41177</v>
       </c>
       <c r="B81">
-        <v>0.9978949009637003</v>
+        <v>1.016582981042773</v>
       </c>
       <c r="C81">
-        <v>0.9983080811034684</v>
+        <v>0.9926830642687081</v>
       </c>
       <c r="D81">
-        <v>0.9997196939608556</v>
+        <v>1.00131812311251</v>
       </c>
       <c r="E81">
-        <v>0.9986442437827527</v>
+        <v>1.004048019518023</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>41537</v>
+        <v>41178</v>
       </c>
       <c r="B82">
-        <v>0.9999032035550907</v>
+        <v>1.017404716955513</v>
       </c>
       <c r="C82">
-        <v>0.9974453850537681</v>
+        <v>0.9926758411904004</v>
       </c>
       <c r="D82">
-        <v>1.001173125003603</v>
+        <v>1.001725252719908</v>
       </c>
       <c r="E82">
-        <v>0.9985892462647333</v>
+        <v>1.003324273036927</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>41540</v>
+        <v>41179</v>
       </c>
       <c r="B83">
-        <v>1.000532716082322</v>
+        <v>1.01730403550787</v>
       </c>
       <c r="C83">
-        <v>0.9973941434078528</v>
+        <v>0.9916374270848659</v>
       </c>
       <c r="D83">
-        <v>1.001306107931802</v>
+        <v>1.001464292686845</v>
       </c>
       <c r="E83">
-        <v>0.9987663559859981</v>
+        <v>1.003373799794659</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>41541</v>
+        <v>41180</v>
       </c>
       <c r="B84">
-        <v>1.000507937364992</v>
+        <v>1.017260309804464</v>
       </c>
       <c r="C84">
-        <v>0.9974643514458588</v>
+        <v>0.9915486006048357</v>
       </c>
       <c r="D84">
-        <v>1.001725795735405</v>
+        <v>1.001586234910032</v>
       </c>
       <c r="E84">
-        <v>0.9988637296758716</v>
+        <v>1.002470239668958</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>41542</v>
+        <v>41183</v>
       </c>
       <c r="B85">
-        <v>0.9999302925426362</v>
+        <v>1.016435270059483</v>
       </c>
       <c r="C85">
-        <v>0.9969713316884145</v>
+        <v>0.9911535028266224</v>
       </c>
       <c r="D85">
-        <v>1.002048371082705</v>
+        <v>1.001358361585495</v>
       </c>
       <c r="E85">
-        <v>0.9986614133543761</v>
+        <v>1.002318792044199</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>41543</v>
+        <v>41184</v>
       </c>
       <c r="B86">
-        <v>1.000468613587998</v>
+        <v>1.016396925325694</v>
       </c>
       <c r="C86">
-        <v>0.997242021311741</v>
+        <v>0.991119293648431</v>
       </c>
       <c r="D86">
-        <v>1.002213573989115</v>
+        <v>1.000999175284677</v>
       </c>
       <c r="E86">
-        <v>0.9988668773720377</v>
+        <v>1.00184714911116</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>41544</v>
+        <v>41185</v>
       </c>
       <c r="B87">
-        <v>1.00049181563644</v>
+        <v>1.016362787601294</v>
       </c>
       <c r="C87">
-        <v>0.9970959736463872</v>
+        <v>0.9913664439953246</v>
       </c>
       <c r="D87">
-        <v>1.002151969082068</v>
+        <v>1.000974070792827</v>
       </c>
       <c r="E87">
-        <v>0.9990604315505178</v>
+        <v>1.002086125376806</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>41547</v>
+        <v>41186</v>
       </c>
       <c r="B88">
-        <v>1.000456664329959</v>
+        <v>1.016274003903656</v>
       </c>
       <c r="C88">
-        <v>0.9963656723435855</v>
+        <v>0.9905847320812553</v>
       </c>
       <c r="D88">
-        <v>1.002196388586908</v>
+        <v>1.001056806922658</v>
       </c>
       <c r="E88">
-        <v>0.9992591354036687</v>
+        <v>1.001990564959762</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>41548</v>
+        <v>41187</v>
       </c>
       <c r="B89">
-        <v>1.001207601181205</v>
+        <v>1.016228372403522</v>
       </c>
       <c r="C89">
-        <v>0.9972828329596806</v>
+        <v>0.9909959927946321</v>
       </c>
       <c r="D89">
-        <v>1.002341589196515</v>
+        <v>1.0011392138404</v>
       </c>
       <c r="E89">
-        <v>0.9990919601304026</v>
+        <v>1.001919655260477</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>41549</v>
+        <v>41190</v>
       </c>
       <c r="B90">
-        <v>1.001075359987705</v>
+        <v>1.016185473132774</v>
       </c>
       <c r="C90">
-        <v>0.9971473136933762</v>
+        <v>0.9909990066707206</v>
       </c>
       <c r="D90">
-        <v>1.002140920334548</v>
+        <v>1.001206036712222</v>
       </c>
       <c r="E90">
-        <v>0.9990237120390657</v>
+        <v>1.001899717543507</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>41550</v>
+        <v>41191</v>
       </c>
       <c r="B91">
-        <v>1.001674019159846</v>
+        <v>1.01537641005213</v>
       </c>
       <c r="C91">
-        <v>0.9963895780421551</v>
+        <v>0.9923431851458334</v>
       </c>
       <c r="D91">
-        <v>1.002231006914869</v>
+        <v>1.001734166201367</v>
       </c>
       <c r="E91">
-        <v>0.9990939287989934</v>
+        <v>1.002231627638013</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>41551</v>
+        <v>41192</v>
       </c>
       <c r="B92">
-        <v>1.001916997918904</v>
+        <v>1.016256348808093</v>
       </c>
       <c r="C92">
-        <v>0.9967513211971225</v>
+        <v>0.9923345001078001</v>
       </c>
       <c r="D92">
-        <v>1.002357153563312</v>
+        <v>1.002230740676132</v>
       </c>
       <c r="E92">
-        <v>0.9988943678491198</v>
+        <v>1.002081633438808</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>41554</v>
+        <v>41193</v>
       </c>
       <c r="B93">
-        <v>1.001391490615261</v>
+        <v>1.017042706145922</v>
       </c>
       <c r="C93">
-        <v>0.9966802658330155</v>
+        <v>0.9920959000599004</v>
       </c>
       <c r="D93">
-        <v>1.001917023400611</v>
+        <v>1.001854819496998</v>
       </c>
       <c r="E93">
-        <v>0.9989586147565117</v>
+        <v>1.002051694807894</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>41555</v>
+        <v>41194</v>
       </c>
       <c r="B94">
-        <v>1.002478551578347</v>
+        <v>1.017021374215366</v>
       </c>
       <c r="C94">
-        <v>0.9963710172239745</v>
+        <v>0.9924923262369209</v>
       </c>
       <c r="D94">
-        <v>1.001764682388656</v>
+        <v>1.001920863310667</v>
       </c>
       <c r="E94">
-        <v>0.9989712564522449</v>
+        <v>1.002127546507317</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>41556</v>
+        <v>41197</v>
       </c>
       <c r="B95">
-        <v>1.002257964145607</v>
+        <v>1.016959480048013</v>
       </c>
       <c r="C95">
-        <v>0.9965427178424545</v>
+        <v>0.9923562783551941</v>
       </c>
       <c r="D95">
-        <v>1.001694875970973</v>
+        <v>1.001712580983308</v>
       </c>
       <c r="E95">
-        <v>0.9992634996031008</v>
+        <v>1.002212150976493</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>41557</v>
+        <v>41198</v>
       </c>
       <c r="B96">
-        <v>1.002337785393314</v>
+        <v>1.016857109006164</v>
       </c>
       <c r="C96">
-        <v>0.9978027951280215</v>
+        <v>0.9911508051736159</v>
       </c>
       <c r="D96">
-        <v>1.001969374806433</v>
+        <v>1.000809752379413</v>
       </c>
       <c r="E96">
-        <v>0.9989629494185351</v>
+        <v>1.002458542611558</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>41558</v>
+        <v>41199</v>
       </c>
       <c r="B97">
-        <v>1.003140784652559</v>
+        <v>1.01755695318517</v>
       </c>
       <c r="C97">
-        <v>0.9979405122033116</v>
+        <v>0.9906746052335267</v>
       </c>
       <c r="D97">
-        <v>1.002239432820131</v>
+        <v>1.000570243314489</v>
       </c>
       <c r="E97">
-        <v>0.9990029103708776</v>
+        <v>1.002507712961363</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>41561</v>
+        <v>41200</v>
       </c>
       <c r="B98">
-        <v>1.003144226807914</v>
+        <v>1.018257934044062</v>
       </c>
       <c r="C98">
-        <v>0.9978938141214588</v>
+        <v>0.9911446562908345</v>
       </c>
       <c r="D98">
-        <v>1.002204842596056</v>
+        <v>1.00011131520969</v>
       </c>
       <c r="E98">
-        <v>0.9990257658250409</v>
+        <v>1.002697678103424</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>41562</v>
+        <v>41201</v>
       </c>
       <c r="B99">
-        <v>1.002295630999835</v>
+        <v>1.016881070122132</v>
       </c>
       <c r="C99">
-        <v>0.9978758440106396</v>
+        <v>0.9910977999959942</v>
       </c>
       <c r="D99">
-        <v>1.001893469520013</v>
+        <v>1.00092901392929</v>
       </c>
       <c r="E99">
-        <v>0.9989477259330932</v>
+        <v>1.002550255950256</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>41563</v>
+        <v>41204</v>
       </c>
       <c r="B100">
-        <v>1.003008971488548</v>
+        <v>1.016725940306169</v>
       </c>
       <c r="C100">
-        <v>0.9982356858187498</v>
+        <v>0.9908661318883694</v>
       </c>
       <c r="D100">
-        <v>1.002093646687075</v>
+        <v>1.001320219365452</v>
       </c>
       <c r="E100">
-        <v>0.9988380614113331</v>
+        <v>1.002478255038166</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>41564</v>
+        <v>41205</v>
       </c>
       <c r="B101">
-        <v>1.001469839993256</v>
+        <v>1.016695032068017</v>
       </c>
       <c r="C101">
-        <v>0.998173889233285</v>
+        <v>0.9920658224004562</v>
       </c>
       <c r="D101">
-        <v>1.002035435611028</v>
+        <v>1.002037466359205</v>
       </c>
       <c r="E101">
-        <v>0.9988796925178444</v>
+        <v>1.002251447205413</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>41565</v>
+        <v>41206</v>
       </c>
       <c r="B102">
-        <v>1.001633458579416</v>
+        <v>1.016660541708155</v>
       </c>
       <c r="C102">
-        <v>0.9988371433101104</v>
+        <v>0.9924459336161738</v>
       </c>
       <c r="D102">
-        <v>1.001990788352252</v>
+        <v>1.001907342577482</v>
       </c>
       <c r="E102">
-        <v>0.9986928098240375</v>
+        <v>1.002452447230371</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>41568</v>
+        <v>41207</v>
       </c>
       <c r="B103">
-        <v>1.000721225057738</v>
+        <v>1.01657874145119</v>
       </c>
       <c r="C103">
-        <v>0.9987612577643749</v>
+        <v>0.9914800465386795</v>
       </c>
       <c r="D103">
-        <v>1.002056761783451</v>
+        <v>1.001787341736271</v>
       </c>
       <c r="E103">
-        <v>0.998497156214296</v>
+        <v>1.002279689846311</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>41569</v>
+        <v>41208</v>
       </c>
       <c r="B104">
-        <v>0.999363408201191</v>
+        <v>1.016505338096948</v>
       </c>
       <c r="C104">
-        <v>0.9987067107141467</v>
+        <v>0.9915683471508894</v>
       </c>
       <c r="D104">
-        <v>1.002154147586475</v>
+        <v>1.002026061489196</v>
       </c>
       <c r="E104">
-        <v>0.9988832751830157</v>
+        <v>1.002400119006632</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>41570</v>
+        <v>41211</v>
       </c>
       <c r="B105">
-        <v>0.9999260233836644</v>
+        <v>1.017340193983833</v>
       </c>
       <c r="C105">
-        <v>0.9989231055719872</v>
+        <v>0.991411988897223</v>
       </c>
       <c r="D105">
-        <v>1.002168077427974</v>
+        <v>1.002172966342745</v>
       </c>
       <c r="E105">
-        <v>0.9984072745409122</v>
+        <v>1.002298123486293</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>41571</v>
+        <v>41212</v>
       </c>
       <c r="B106">
-        <v>0.9979657794414121</v>
+        <v>1.017256760379665</v>
       </c>
       <c r="C106">
-        <v>0.9990501067698179</v>
+        <v>0.9909465581704437</v>
       </c>
       <c r="D106">
-        <v>1.001938924744962</v>
+        <v>1.001949694804299</v>
       </c>
       <c r="E106">
-        <v>0.9984975086704183</v>
+        <v>1.002411222493106</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>41572</v>
+        <v>41213</v>
       </c>
       <c r="B107">
-        <v>0.9976025222431477</v>
+        <v>1.018553308574947</v>
       </c>
       <c r="C107">
-        <v>0.9992330217836958</v>
+        <v>0.9903511842445744</v>
       </c>
       <c r="D107">
-        <v>1.002125419271367</v>
+        <v>1.001987212031844</v>
       </c>
       <c r="E107">
-        <v>0.9987193575448865</v>
+        <v>1.002022994268452</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>41575</v>
+        <v>41214</v>
       </c>
       <c r="B108">
-        <v>0.9974590318016966</v>
+        <v>1.018498985709023</v>
       </c>
       <c r="C108">
-        <v>0.9988000560456713</v>
+        <v>0.990087269809073</v>
       </c>
       <c r="D108">
-        <v>1.001968665028966</v>
+        <v>1.000679636699033</v>
       </c>
       <c r="E108">
-        <v>0.9987573927594775</v>
+        <v>1.001382722766788</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>41576</v>
+        <v>41215</v>
       </c>
       <c r="B109">
-        <v>0.9982416035093762</v>
+        <v>1.017892179323266</v>
       </c>
       <c r="C109">
-        <v>0.9993829246108682</v>
+        <v>0.9915718295428796</v>
       </c>
       <c r="D109">
-        <v>1.001934261239574</v>
+        <v>1.000742304503251</v>
       </c>
       <c r="E109">
-        <v>0.998855601369771</v>
+        <v>1.001234572020399</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>41577</v>
+        <v>41218</v>
       </c>
       <c r="B110">
-        <v>0.9975667539245274</v>
+        <v>1.01783650884415</v>
       </c>
       <c r="C110">
-        <v>0.9990821763385295</v>
+        <v>0.9917780331472145</v>
       </c>
       <c r="D110">
-        <v>1.002010482977799</v>
+        <v>1.001008896846231</v>
       </c>
       <c r="E110">
-        <v>0.9988653170659302</v>
+        <v>1.000969577089067</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>41578</v>
+        <v>41219</v>
       </c>
       <c r="B111">
-        <v>0.9990106648371427</v>
+        <v>1.017746853612166</v>
       </c>
       <c r="C111">
-        <v>0.9983537104965898</v>
+        <v>0.9913070881219043</v>
       </c>
       <c r="D111">
-        <v>1.002420609360229</v>
+        <v>1.001330063255268</v>
       </c>
       <c r="E111">
-        <v>0.9991944905593568</v>
+        <v>1.000768035692394</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>41579</v>
+        <v>41220</v>
       </c>
       <c r="B112">
-        <v>1.000190025739745</v>
+        <v>1.017026407162113</v>
       </c>
       <c r="C112">
-        <v>0.9985877731494834</v>
+        <v>0.9913931101067683</v>
       </c>
       <c r="D112">
-        <v>1.002639929936539</v>
+        <v>1.003006253113911</v>
       </c>
       <c r="E112">
-        <v>0.9992423028325098</v>
+        <v>1.001054889434848</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>41582</v>
+        <v>41221</v>
       </c>
       <c r="B113">
-        <v>0.9992702170113913</v>
+        <v>1.01695995385823</v>
       </c>
       <c r="C113">
-        <v>0.9981355788526166</v>
+        <v>0.9909345014467269</v>
       </c>
       <c r="D113">
-        <v>1.004043014933983</v>
+        <v>1.00388594137489</v>
       </c>
       <c r="E113">
-        <v>0.9986792714481868</v>
+        <v>1.000781264516855</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>41583</v>
+        <v>41222</v>
       </c>
       <c r="B114">
-        <v>0.9996278092628045</v>
+        <v>1.01697579845795</v>
       </c>
       <c r="C114">
-        <v>0.9985302343912377</v>
+        <v>0.9912313024844777</v>
       </c>
       <c r="D114">
-        <v>1.003700951861397</v>
+        <v>1.003675173507046</v>
       </c>
       <c r="E114">
-        <v>0.998737478659072</v>
+        <v>1.000373616383082</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>41584</v>
+        <v>41225</v>
       </c>
       <c r="B115">
-        <v>0.9994207043815183</v>
+        <v>1.016244602790774</v>
       </c>
       <c r="C115">
-        <v>0.9981116417607715</v>
+        <v>0.9916234240801883</v>
       </c>
       <c r="D115">
-        <v>1.003634003527861</v>
+        <v>1.003451051303219</v>
       </c>
       <c r="E115">
-        <v>0.9989527470056528</v>
+        <v>1.000094056244975</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>41585</v>
+        <v>41226</v>
       </c>
       <c r="B116">
-        <v>1.000528890374622</v>
+        <v>1.016229820008686</v>
       </c>
       <c r="C116">
-        <v>0.997542851729036</v>
+        <v>0.9920116118782482</v>
       </c>
       <c r="D116">
-        <v>1.00364670411443</v>
+        <v>1.003884336935322</v>
       </c>
       <c r="E116">
-        <v>0.998947164973587</v>
+        <v>1.000411354348545</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>41586</v>
+        <v>41227</v>
       </c>
       <c r="B117">
-        <v>1.000293758978225</v>
+        <v>1.016315779874603</v>
       </c>
       <c r="C117">
-        <v>0.9980435981100833</v>
+        <v>0.9939713531697743</v>
       </c>
       <c r="D117">
-        <v>1.003713870240729</v>
+        <v>1.004365021477731</v>
       </c>
       <c r="E117">
-        <v>0.9988144781458541</v>
+        <v>1.000000357015558</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>41589</v>
+        <v>41228</v>
       </c>
       <c r="B118">
-        <v>1.000203331999485</v>
+        <v>1.015593912905915</v>
       </c>
       <c r="C118">
-        <v>0.9979579706204614</v>
+        <v>0.9949704052739728</v>
       </c>
       <c r="D118">
-        <v>1.003763992599387</v>
+        <v>1.00440902911638</v>
       </c>
       <c r="E118">
-        <v>0.9987500756752531</v>
+        <v>0.9995376000317453</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>41590</v>
+        <v>41229</v>
       </c>
       <c r="B119">
-        <v>1.000679777952608</v>
+        <v>1.015571126469352</v>
       </c>
       <c r="C119">
-        <v>0.997861032115865</v>
+        <v>0.9946081239696914</v>
       </c>
       <c r="D119">
-        <v>1.003637739684444</v>
+        <v>1.004005941781367</v>
       </c>
       <c r="E119">
-        <v>0.9986089226326487</v>
+        <v>0.999210718858806</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>41591</v>
+        <v>41232</v>
       </c>
       <c r="B120">
-        <v>1.000718802114664</v>
+        <v>1.015439205797563</v>
       </c>
       <c r="C120">
-        <v>0.9977551867736303</v>
+        <v>0.9935345544880861</v>
       </c>
       <c r="D120">
-        <v>1.003447810211295</v>
+        <v>1.003241709768184</v>
       </c>
       <c r="E120">
-        <v>0.9985574256153807</v>
+        <v>0.9990850778929131</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>41592</v>
+        <v>41233</v>
       </c>
       <c r="B121">
-        <v>0.9999585166810112</v>
+        <v>1.017035135315048</v>
       </c>
       <c r="C121">
-        <v>0.9977146892153944</v>
+        <v>0.9936347065057871</v>
       </c>
       <c r="D121">
-        <v>1.003440578852053</v>
+        <v>1.003177672624593</v>
       </c>
       <c r="E121">
-        <v>0.9983319121948998</v>
+        <v>0.9989804167429716</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>41593</v>
+        <v>41234</v>
       </c>
       <c r="B122">
-        <v>1.000313385954695</v>
+        <v>1.01626571110385</v>
       </c>
       <c r="C122">
-        <v>0.9979826996437005</v>
+        <v>0.9932056337773106</v>
       </c>
       <c r="D122">
-        <v>1.003658788506093</v>
+        <v>1.003204827662751</v>
       </c>
       <c r="E122">
-        <v>0.9987041169421133</v>
+        <v>0.998447119803709</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>41596</v>
+        <v>41235</v>
       </c>
       <c r="B123">
-        <v>1.001098416301833</v>
+        <v>1.016217074532829</v>
       </c>
       <c r="C123">
-        <v>0.9977363282671247</v>
+        <v>0.99294483570295</v>
       </c>
       <c r="D123">
-        <v>1.004080014817091</v>
+        <v>1.002322290658324</v>
       </c>
       <c r="E123">
-        <v>0.9986736171704277</v>
+        <v>0.9969374511734176</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>41597</v>
+        <v>41236</v>
       </c>
       <c r="B124">
-        <v>1.000977082567614</v>
+        <v>1.01692309637486</v>
       </c>
       <c r="C124">
-        <v>0.9974117545735245</v>
+        <v>0.9924859299672465</v>
       </c>
       <c r="D124">
-        <v>1.004131575665479</v>
+        <v>1.002261922026394</v>
       </c>
       <c r="E124">
-        <v>0.9987088928661688</v>
+        <v>0.9973124255180896</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>41598</v>
+        <v>41239</v>
       </c>
       <c r="B125">
-        <v>1.001976040624471</v>
+        <v>1.016869802888659</v>
       </c>
       <c r="C125">
-        <v>0.9975337824732362</v>
+        <v>0.9925282487598769</v>
       </c>
       <c r="D125">
-        <v>1.00410416833866</v>
+        <v>1.002715484656528</v>
       </c>
       <c r="E125">
-        <v>0.99879916100308</v>
+        <v>0.9969110284390316</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>41599</v>
+        <v>41240</v>
       </c>
       <c r="B126">
-        <v>1.002111482506838</v>
+        <v>1.01608148620515</v>
       </c>
       <c r="C126">
-        <v>0.9979515767986014</v>
+        <v>0.9932389552410587</v>
       </c>
       <c r="D126">
-        <v>1.004302726003357</v>
+        <v>1.002952679706104</v>
       </c>
       <c r="E126">
-        <v>0.9987964740978034</v>
+        <v>0.9978549605030466</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>41600</v>
+        <v>41241</v>
       </c>
       <c r="B127">
-        <v>1.002451087263434</v>
+        <v>1.015994889832941</v>
       </c>
       <c r="C127">
-        <v>0.9980662892722628</v>
+        <v>0.9929310209116488</v>
       </c>
       <c r="D127">
-        <v>1.004084653204023</v>
+        <v>1.002697447399819</v>
       </c>
       <c r="E127">
-        <v>0.9989469877492014</v>
+        <v>0.9977234043519104</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>41603</v>
+        <v>41242</v>
       </c>
       <c r="B128">
-        <v>1.002260279249239</v>
+        <v>1.015891446860074</v>
       </c>
       <c r="C128">
-        <v>0.9979470134937127</v>
+        <v>0.9928811839679906</v>
       </c>
       <c r="D128">
-        <v>1.003906319500641</v>
+        <v>1.001927999514358</v>
       </c>
       <c r="E128">
-        <v>0.9989537401731995</v>
+        <v>0.9975268827475238</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>41604</v>
+        <v>41243</v>
       </c>
       <c r="B129">
-        <v>1.003036039972355</v>
+        <v>1.015149168119788</v>
       </c>
       <c r="C129">
-        <v>0.9975174368836615</v>
+        <v>0.9929992375389792</v>
       </c>
       <c r="D129">
-        <v>1.003021916707303</v>
+        <v>1.001628253749414</v>
       </c>
       <c r="E129">
-        <v>0.9971848152949356</v>
+        <v>0.9975191072263502</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>41605</v>
+        <v>41246</v>
       </c>
       <c r="B130">
-        <v>1.002645081963847</v>
+        <v>1.01598891529011</v>
       </c>
       <c r="C130">
-        <v>0.9974079326805741</v>
+        <v>0.9936662036940268</v>
       </c>
       <c r="D130">
-        <v>1.002928215132567</v>
+        <v>1.00174825135333</v>
       </c>
       <c r="E130">
-        <v>0.9969448223081249</v>
+        <v>0.9974872898563831</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>41606</v>
+        <v>41247</v>
       </c>
       <c r="B131">
-        <v>1.002311472411219</v>
+        <v>1.015147625780291</v>
       </c>
       <c r="C131">
-        <v>0.9974954259015931</v>
+        <v>0.9939232691021086</v>
       </c>
       <c r="D131">
-        <v>1.002954202394665</v>
+        <v>1.00204363534229</v>
       </c>
       <c r="E131">
-        <v>0.9968522851873038</v>
+        <v>0.9973870259377041</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>41607</v>
+        <v>41248</v>
       </c>
       <c r="B132">
-        <v>1.001986172131811</v>
+        <v>1.01514284337185</v>
       </c>
       <c r="C132">
-        <v>0.9973455257376203</v>
+        <v>0.9945762068604036</v>
       </c>
       <c r="D132">
-        <v>1.002840311120156</v>
+        <v>1.001125723918876</v>
       </c>
       <c r="E132">
-        <v>0.9966093509351773</v>
+        <v>0.9973595733722657</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>41610</v>
+        <v>41249</v>
       </c>
       <c r="B133">
-        <v>1.003498324959143</v>
+        <v>1.015122830081489</v>
       </c>
       <c r="C133">
-        <v>0.9980762223569244</v>
+        <v>0.9944508426916211</v>
       </c>
       <c r="D133">
-        <v>1.00304662325154</v>
+        <v>1.000970331993508</v>
       </c>
       <c r="E133">
-        <v>0.9966168687669683</v>
+        <v>0.9974190777077228</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>41611</v>
+        <v>41250</v>
       </c>
       <c r="B134">
-        <v>1.003902302403663</v>
+        <v>1.014958612654593</v>
       </c>
       <c r="C134">
-        <v>0.9976849188573375</v>
+        <v>0.9943797315348976</v>
       </c>
       <c r="D134">
-        <v>1.003048626072754</v>
+        <v>1.001196378277264</v>
       </c>
       <c r="E134">
-        <v>0.9967844978955808</v>
+        <v>0.9972819668183085</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>41612</v>
+        <v>41253</v>
       </c>
       <c r="B135">
-        <v>1.003045810374374</v>
+        <v>1.014301686731479</v>
       </c>
       <c r="C135">
-        <v>0.9973853081308026</v>
+        <v>0.9940323309753513</v>
       </c>
       <c r="D135">
-        <v>1.003161176438139</v>
+        <v>1.000951596257092</v>
       </c>
       <c r="E135">
-        <v>0.9964545377183907</v>
+        <v>0.9974812254864479</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>41613</v>
+        <v>41254</v>
       </c>
       <c r="B136">
-        <v>1.00398335356084</v>
+        <v>1.016055079680773</v>
       </c>
       <c r="C136">
-        <v>0.9968886332800208</v>
+        <v>0.9938061946741326</v>
       </c>
       <c r="D136">
-        <v>1.003482487444411</v>
+        <v>1.000320743956747</v>
       </c>
       <c r="E136">
-        <v>0.9965080015184874</v>
+        <v>0.9970957803161024</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>41614</v>
+        <v>41255</v>
       </c>
       <c r="B137">
-        <v>1.003961687923744</v>
+        <v>1.015977420397619</v>
       </c>
       <c r="C137">
-        <v>0.9971986853910386</v>
+        <v>0.9929702816978174</v>
       </c>
       <c r="D137">
-        <v>1.00356319490466</v>
+        <v>1.000390439812889</v>
       </c>
       <c r="E137">
-        <v>0.996537775312007</v>
+        <v>0.9965078238480298</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>41617</v>
+        <v>41256</v>
       </c>
       <c r="B138">
-        <v>1.003346083847098</v>
+        <v>1.015196837530989</v>
       </c>
       <c r="C138">
-        <v>0.9969376210580611</v>
+        <v>0.993823659871972</v>
       </c>
       <c r="D138">
-        <v>1.003746189785791</v>
+        <v>1.000363495857038</v>
       </c>
       <c r="E138">
-        <v>0.9965746921805314</v>
+        <v>0.9960644041107914</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>41618</v>
+        <v>41257</v>
       </c>
       <c r="B139">
-        <v>1.002203925158025</v>
+        <v>1.015105667974564</v>
       </c>
       <c r="C139">
-        <v>0.9966886525146004</v>
+        <v>0.9934547035476675</v>
       </c>
       <c r="D139">
-        <v>1.0031521610968</v>
+        <v>1.000348694084918</v>
       </c>
       <c r="E139">
-        <v>0.9960519664219849</v>
+        <v>0.9958541739129803</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>41619</v>
+        <v>41260</v>
       </c>
       <c r="B140">
-        <v>1.00356771562967</v>
+        <v>1.015060492684875</v>
       </c>
       <c r="C140">
-        <v>0.995740167405797</v>
+        <v>0.9936603335100289</v>
       </c>
       <c r="D140">
-        <v>1.002761945426081</v>
+        <v>1.000369432499051</v>
       </c>
       <c r="E140">
-        <v>0.9960889539786604</v>
+        <v>0.9959931878745342</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>41620</v>
+        <v>41261</v>
       </c>
       <c r="B141">
-        <v>1.003977078186551</v>
+        <v>1.015030647384177</v>
       </c>
       <c r="C141">
-        <v>0.9957117354634896</v>
+        <v>0.9939176809454495</v>
       </c>
       <c r="D141">
-        <v>1.002750572322058</v>
+        <v>0.9997189739904075</v>
       </c>
       <c r="E141">
-        <v>0.9961773181908091</v>
+        <v>0.9963798445188367</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>41621</v>
+        <v>41262</v>
       </c>
       <c r="B142">
-        <v>1.003934256316364</v>
+        <v>1.014980757115176</v>
       </c>
       <c r="C142">
-        <v>0.995879904103053</v>
+        <v>0.9937703270245299</v>
       </c>
       <c r="D142">
-        <v>1.002457319282188</v>
+        <v>0.9991117583273714</v>
       </c>
       <c r="E142">
-        <v>0.9959931354239696</v>
+        <v>0.9965886608391435</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>41624</v>
+        <v>41263</v>
       </c>
       <c r="B143">
-        <v>1.003685207674833</v>
+        <v>1.014939842789637</v>
       </c>
       <c r="C143">
-        <v>0.9962727316681247</v>
+        <v>0.9941756442699414</v>
       </c>
       <c r="D143">
-        <v>1.002289312743041</v>
+        <v>0.9988344397335925</v>
       </c>
       <c r="E143">
-        <v>0.995582855693583</v>
+        <v>0.9962765919158391</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>41625</v>
+        <v>41264</v>
       </c>
       <c r="B144">
-        <v>1.003751400479261</v>
+        <v>1.014911463417633</v>
       </c>
       <c r="C144">
-        <v>0.996261537089283</v>
+        <v>0.9939476766957416</v>
       </c>
       <c r="D144">
-        <v>1.002398764843098</v>
+        <v>0.9998487105161817</v>
       </c>
       <c r="E144">
-        <v>0.9953827383617632</v>
+        <v>0.9983245463734643</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>41626</v>
+        <v>41267</v>
       </c>
       <c r="B145">
-        <v>1.003879668739688</v>
+        <v>1.014858235599508</v>
       </c>
       <c r="C145">
-        <v>0.9971451632117858</v>
+        <v>0.9941402441767409</v>
       </c>
       <c r="D145">
-        <v>1.002726167641298</v>
+        <v>1.000091148295566</v>
       </c>
       <c r="E145">
-        <v>0.9955061736283816</v>
+        <v>0.9985687851722577</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>41627</v>
+        <v>41269</v>
       </c>
       <c r="B146">
-        <v>1.004276822336331</v>
+        <v>1.014815360156587</v>
       </c>
       <c r="C146">
-        <v>0.9976999954143696</v>
+        <v>0.9941437640742814</v>
       </c>
       <c r="D146">
-        <v>1.002644560035316</v>
+        <v>1.00015878666492</v>
       </c>
       <c r="E146">
-        <v>0.9959745799527521</v>
+        <v>0.9985483986751462</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>41628</v>
+        <v>41270</v>
       </c>
       <c r="B147">
-        <v>1.00425129054671</v>
+        <v>1.014789782853892</v>
       </c>
       <c r="C147">
-        <v>0.9983107980804431</v>
+        <v>0.9938869774513316</v>
       </c>
       <c r="D147">
-        <v>1.001188665360456</v>
+        <v>1.000260839968117</v>
       </c>
       <c r="E147">
-        <v>0.9963438368879567</v>
+        <v>0.9973418354354476</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>41631</v>
+        <v>41271</v>
       </c>
       <c r="B148">
-        <v>1.004354600143403</v>
+        <v>1.01477533565758</v>
       </c>
       <c r="C148">
-        <v>0.9986818534153666</v>
+        <v>0.9943123776465481</v>
       </c>
       <c r="D148">
-        <v>1.001026701848277</v>
+        <v>1.000499788818447</v>
       </c>
       <c r="E148">
-        <v>0.996454006911539</v>
+        <v>0.9972226219507784</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>41632</v>
+        <v>41274</v>
       </c>
       <c r="B149">
-        <v>1.003332880390094</v>
+        <v>1.014675028690256</v>
       </c>
       <c r="C149">
-        <v>0.9988527900442232</v>
+        <v>0.9931660492302997</v>
       </c>
       <c r="D149">
-        <v>1.000742909838171</v>
+        <v>1.000180756059768</v>
       </c>
       <c r="E149">
-        <v>0.9966270115280923</v>
+        <v>0.9973453499256809</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>41634</v>
+        <v>41276</v>
       </c>
       <c r="B150">
-        <v>1.003333263179943</v>
+        <v>1.014583512024499</v>
       </c>
       <c r="C150">
-        <v>0.9988106030136336</v>
+        <v>0.9925003397520907</v>
       </c>
       <c r="D150">
-        <v>1.000712707390628</v>
+        <v>0.9997619811619306</v>
       </c>
       <c r="E150">
-        <v>0.9966580733124349</v>
+        <v>0.9976811381878542</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>41635</v>
+        <v>41277</v>
       </c>
       <c r="B151">
-        <v>1.002611602307652</v>
+        <v>1.014593015796397</v>
       </c>
       <c r="C151">
-        <v>0.9988958872148052</v>
+        <v>0.9936325158584052</v>
       </c>
       <c r="D151">
-        <v>1.001264215587995</v>
+        <v>0.9993841265779603</v>
       </c>
       <c r="E151">
-        <v>0.9966539608022753</v>
+        <v>0.9979610450374725</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>41638</v>
+        <v>41278</v>
       </c>
       <c r="B152">
-        <v>1.003641720867787</v>
+        <v>1.014546376664372</v>
       </c>
       <c r="C152">
-        <v>0.9990194401133214</v>
+        <v>0.9934503236270411</v>
       </c>
       <c r="D152">
-        <v>1.001465498871569</v>
+        <v>0.9988469555984055</v>
       </c>
       <c r="E152">
-        <v>0.9966913264043997</v>
+        <v>0.9976998406691737</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>41639</v>
+        <v>41281</v>
       </c>
       <c r="B153">
-        <v>1.003051908211332</v>
+        <v>1.014496348097146</v>
       </c>
       <c r="C153">
-        <v>0.9989271803004123</v>
+        <v>0.9940762955652054</v>
       </c>
       <c r="D153">
-        <v>1.001210755688151</v>
+        <v>0.9988083434692078</v>
       </c>
       <c r="E153">
-        <v>0.9968886334979242</v>
+        <v>0.997715715220286</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>41641</v>
+        <v>41282</v>
       </c>
       <c r="B154">
-        <v>1.001679916778373</v>
+        <v>1.014455164280176</v>
       </c>
       <c r="C154">
-        <v>0.9985948258343008</v>
+        <v>0.9938794074525593</v>
       </c>
       <c r="D154">
-        <v>1.00057398086439</v>
+        <v>0.9989549265048682</v>
       </c>
       <c r="E154">
-        <v>0.9967152318261027</v>
+        <v>0.9976647467857016</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>41642</v>
+        <v>41283</v>
       </c>
       <c r="B155">
-        <v>1.002136498556701</v>
+        <v>1.014416169280217</v>
       </c>
       <c r="C155">
-        <v>0.9982672879203409</v>
+        <v>0.9940433914698499</v>
       </c>
       <c r="D155">
-        <v>1.000578117716149</v>
+        <v>0.9989716337525677</v>
       </c>
       <c r="E155">
-        <v>0.9967685143445386</v>
+        <v>0.9979532762834906</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>41645</v>
+        <v>41284</v>
       </c>
       <c r="B156">
-        <v>1.001902351620787</v>
+        <v>1.014309834788139</v>
       </c>
       <c r="C156">
-        <v>0.9980114218410009</v>
+        <v>0.9931621246604005</v>
       </c>
       <c r="D156">
-        <v>1.000032031337826</v>
+        <v>0.9989098151236339</v>
       </c>
       <c r="E156">
-        <v>0.9970123186404256</v>
+        <v>0.9976321901724355</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>41646</v>
+        <v>41285</v>
       </c>
       <c r="B157">
-        <v>1.001636383372718</v>
+        <v>1.014294015579282</v>
       </c>
       <c r="C157">
-        <v>0.9989826839007845</v>
+        <v>0.9930792601855145</v>
       </c>
       <c r="D157">
-        <v>0.9993843331360704</v>
+        <v>0.9985909969513348</v>
       </c>
       <c r="E157">
-        <v>0.9965674592502097</v>
+        <v>0.996409476197558</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>41647</v>
+        <v>41288</v>
       </c>
       <c r="B158">
-        <v>1.001699738885971</v>
+        <v>1.014226279359252</v>
       </c>
       <c r="C158">
-        <v>0.999318517835752</v>
+        <v>0.9930748224235915</v>
       </c>
       <c r="D158">
-        <v>0.9994153121001393</v>
+        <v>0.9982130417583122</v>
       </c>
       <c r="E158">
-        <v>0.9966362003119934</v>
+        <v>0.9954109476569393</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>41648</v>
+        <v>41289</v>
       </c>
       <c r="B159">
-        <v>1.002120505731347</v>
+        <v>1.014177776053399</v>
       </c>
       <c r="C159">
-        <v>0.9996708907469837</v>
+        <v>0.9927574468094249</v>
       </c>
       <c r="D159">
-        <v>0.9990655114977142</v>
+        <v>0.9983141541565398</v>
       </c>
       <c r="E159">
-        <v>0.9963689143290987</v>
+        <v>0.9957252516507855</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>41649</v>
+        <v>41290</v>
       </c>
       <c r="B160">
-        <v>1.0009795636888</v>
+        <v>1.014159733666728</v>
       </c>
       <c r="C160">
-        <v>1.000132510834899</v>
+        <v>0.9930392442707866</v>
       </c>
       <c r="D160">
-        <v>0.9990778424519202</v>
+        <v>0.99849600186969</v>
       </c>
       <c r="E160">
-        <v>0.9962261461270141</v>
+        <v>0.9954463940571893</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>41652</v>
+        <v>41291</v>
       </c>
       <c r="B161">
-        <v>1.000218095078134</v>
+        <v>1.014090870975537</v>
       </c>
       <c r="C161">
-        <v>0.9993001763296737</v>
+        <v>0.9929274462489773</v>
       </c>
       <c r="D161">
-        <v>0.9992323446142857</v>
+        <v>0.9979628559147193</v>
       </c>
       <c r="E161">
-        <v>0.9962624012804561</v>
+        <v>0.9955236447241785</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>41653</v>
+        <v>41292</v>
       </c>
       <c r="B162">
-        <v>1.000553567971331</v>
+        <v>1.014047896492229</v>
       </c>
       <c r="C162">
-        <v>0.9995987838428981</v>
+        <v>0.9926472517713569</v>
       </c>
       <c r="D162">
-        <v>0.9992988093763698</v>
+        <v>0.9975580502266629</v>
       </c>
       <c r="E162">
-        <v>0.996178584290058</v>
+        <v>0.9949518493249583</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>41654</v>
+        <v>41295</v>
       </c>
       <c r="B163">
-        <v>1.000008480782211</v>
+        <v>1.01398442344425</v>
       </c>
       <c r="C163">
-        <v>1.000236227373162</v>
+        <v>0.9921796722884545</v>
       </c>
       <c r="D163">
-        <v>0.9992801409348097</v>
+        <v>0.9970345937923402</v>
       </c>
       <c r="E163">
-        <v>0.9965598852937734</v>
+        <v>0.9940575842608235</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>41655</v>
+        <v>41296</v>
       </c>
       <c r="B164">
-        <v>0.9995561653106053</v>
+        <v>1.013929926393651</v>
       </c>
       <c r="C164">
-        <v>1.000577408537427</v>
+        <v>0.9918851944236947</v>
       </c>
       <c r="D164">
-        <v>0.9993315288039616</v>
+        <v>0.9970813053582261</v>
       </c>
       <c r="E164">
-        <v>0.9967789134261705</v>
+        <v>0.9938507188240862</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>41656</v>
+        <v>41297</v>
       </c>
       <c r="B165">
-        <v>0.9983837040884723</v>
+        <v>1.013942393374371</v>
       </c>
       <c r="C165">
-        <v>1.000618412184567</v>
+        <v>0.9929189563855763</v>
       </c>
       <c r="D165">
-        <v>0.9986689485771082</v>
+        <v>0.9968779785550128</v>
       </c>
       <c r="E165">
-        <v>0.9967062254236072</v>
+        <v>0.9941545608402065</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>41659</v>
+        <v>41298</v>
       </c>
       <c r="B166">
-        <v>0.9976107337415974</v>
+        <v>1.013931157821622</v>
       </c>
       <c r="C166">
-        <v>1.001158769262995</v>
+        <v>0.9936350834496562</v>
       </c>
       <c r="D166">
-        <v>0.99800730085686</v>
+        <v>0.9959267381384689</v>
       </c>
       <c r="E166">
-        <v>0.9969514116753845</v>
+        <v>0.9941286338297757</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>41660</v>
+        <v>41299</v>
       </c>
       <c r="B167">
-        <v>0.9979675807267265</v>
+        <v>1.013916968804261</v>
       </c>
       <c r="C167">
-        <v>1.000858995771763</v>
+        <v>0.9944402792812423</v>
       </c>
       <c r="D167">
-        <v>0.9979103700378282</v>
+        <v>0.9955464695122156</v>
       </c>
       <c r="E167">
-        <v>0.9971310389219687</v>
+        <v>0.9943128656956746</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>41661</v>
+        <v>41302</v>
       </c>
       <c r="B168">
-        <v>0.9988325013369876</v>
+        <v>1.013872550411203</v>
       </c>
       <c r="C168">
-        <v>1.001431621573161</v>
+        <v>0.9945993329936053</v>
       </c>
       <c r="D168">
-        <v>0.9970111022015147</v>
+        <v>0.9958469055535942</v>
       </c>
       <c r="E168">
-        <v>0.9972249294130706</v>
+        <v>0.99506358390431</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>41662</v>
+        <v>41303</v>
       </c>
       <c r="B169">
-        <v>0.998122128944085</v>
+        <v>1.013833436038658</v>
       </c>
       <c r="C169">
-        <v>1.000728965583283</v>
+        <v>0.994410009107069</v>
       </c>
       <c r="D169">
-        <v>0.9969526889789401</v>
+        <v>0.9961732185552241</v>
       </c>
       <c r="E169">
-        <v>0.9969497622647177</v>
+        <v>0.9953480502301462</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>41663</v>
+        <v>41304</v>
       </c>
       <c r="B170">
-        <v>0.9984846911019895</v>
+        <v>1.013787013461299</v>
       </c>
       <c r="C170">
-        <v>0.9994211178992368</v>
+        <v>0.9946247209416531</v>
       </c>
       <c r="D170">
-        <v>0.9970191934644783</v>
+        <v>0.9965431278855269</v>
       </c>
       <c r="E170">
-        <v>0.997005780549503</v>
+        <v>0.9964578293195929</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>41666</v>
+        <v>41305</v>
       </c>
       <c r="B171">
-        <v>0.999304048192965</v>
+        <v>1.013789498051756</v>
       </c>
       <c r="C171">
-        <v>0.9992401920934326</v>
+        <v>0.9954818348411881</v>
       </c>
       <c r="D171">
-        <v>0.9970228051165846</v>
+        <v>0.9972879098329881</v>
       </c>
       <c r="E171">
-        <v>0.9970172715330011</v>
+        <v>0.9968696263326394</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>41667</v>
+        <v>41306</v>
       </c>
       <c r="B172">
-        <v>0.9985785896391755</v>
+        <v>1.013706455859029</v>
       </c>
       <c r="C172">
-        <v>0.9998411580478745</v>
+        <v>0.9948796231175703</v>
       </c>
       <c r="D172">
-        <v>0.9969311197297032</v>
+        <v>0.9970893715021466</v>
       </c>
       <c r="E172">
-        <v>0.9972561571586248</v>
+        <v>0.9968567257941057</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>41668</v>
+        <v>41309</v>
       </c>
       <c r="B173">
-        <v>0.9976611533283258</v>
+        <v>1.013681159874505</v>
       </c>
       <c r="C173">
-        <v>0.9991507886462259</v>
+        <v>0.9948749230195008</v>
       </c>
       <c r="D173">
-        <v>0.9967574101923683</v>
+        <v>0.9970604522428578</v>
       </c>
       <c r="E173">
-        <v>0.9974374264889974</v>
+        <v>0.9952804046647435</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>41669</v>
+        <v>41310</v>
       </c>
       <c r="B174">
-        <v>0.9982601424182618</v>
+        <v>1.013618550986753</v>
       </c>
       <c r="C174">
-        <v>0.9998804713600422</v>
+        <v>0.9946888559901285</v>
       </c>
       <c r="D174">
-        <v>0.9971954333673626</v>
+        <v>0.9965094687202742</v>
       </c>
       <c r="E174">
-        <v>0.9971648758981616</v>
+        <v>0.9948104267817345</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>41670</v>
+        <v>41311</v>
       </c>
       <c r="B175">
-        <v>0.9982727415308515</v>
+        <v>1.013576419175057</v>
       </c>
       <c r="C175">
-        <v>0.9994803478446356</v>
+        <v>0.9946161754213411</v>
       </c>
       <c r="D175">
-        <v>0.9975753708887994</v>
+        <v>0.996452984800443</v>
       </c>
       <c r="E175">
-        <v>0.9969741351483322</v>
+        <v>0.9948135383096842</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>41673</v>
+        <v>41312</v>
       </c>
       <c r="B176">
-        <v>0.9988040603690554</v>
+        <v>1.013544753871884</v>
       </c>
       <c r="C176">
-        <v>0.9978919767276366</v>
+        <v>0.9944874077618073</v>
       </c>
       <c r="D176">
-        <v>0.997417393131055</v>
+        <v>0.9965604068150491</v>
       </c>
       <c r="E176">
-        <v>0.9972189940858215</v>
+        <v>0.994200832388468</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>41674</v>
+        <v>41313</v>
       </c>
       <c r="B177">
-        <v>0.9985288458261545</v>
+        <v>1.013530598113029</v>
       </c>
       <c r="C177">
-        <v>0.9983004056117477</v>
+        <v>0.99453141026916</v>
       </c>
       <c r="D177">
-        <v>0.9969021271433491</v>
+        <v>0.9964763785183054</v>
       </c>
       <c r="E177">
-        <v>0.9971964168225458</v>
+        <v>0.9944695287435887</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>41675</v>
+        <v>41316</v>
       </c>
       <c r="B178">
-        <v>0.9990176022195515</v>
+        <v>1.013500662137141</v>
       </c>
       <c r="C178">
-        <v>0.9987407559879763</v>
+        <v>0.9952896588749758</v>
       </c>
       <c r="D178">
-        <v>0.9969920757749018</v>
+        <v>0.9966069969743127</v>
       </c>
       <c r="E178">
-        <v>0.9973967261047402</v>
+        <v>0.9948620012415226</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>41676</v>
+        <v>41317</v>
       </c>
       <c r="B179">
-        <v>0.9990117460764054</v>
+        <v>1.013485312728944</v>
       </c>
       <c r="C179">
-        <v>0.9996019902062975</v>
+        <v>0.9950593314342538</v>
       </c>
       <c r="D179">
-        <v>0.9971999801712039</v>
+        <v>0.9964966407212862</v>
       </c>
       <c r="E179">
-        <v>0.9978781864022205</v>
+        <v>0.9952446533990202</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>41677</v>
+        <v>41318</v>
       </c>
       <c r="B180">
-        <v>0.9978990691445451</v>
+        <v>1.01345194248931</v>
       </c>
       <c r="C180">
-        <v>0.9995903059944971</v>
+        <v>0.9954796013222897</v>
       </c>
       <c r="D180">
-        <v>0.9972720701590598</v>
+        <v>0.996520031910955</v>
       </c>
       <c r="E180">
-        <v>0.9978584640053432</v>
+        <v>0.9961108389875805</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>41680</v>
+        <v>41319</v>
       </c>
       <c r="B181">
-        <v>0.9966630118786826</v>
+        <v>1.013401928093171</v>
       </c>
       <c r="C181">
-        <v>0.9992188193381524</v>
+        <v>0.9955322096592901</v>
       </c>
       <c r="D181">
-        <v>0.9969768082162676</v>
+        <v>0.9968399597713314</v>
       </c>
       <c r="E181">
-        <v>0.9975895355156064</v>
+        <v>0.9951978178135925</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>41681</v>
+        <v>41320</v>
       </c>
       <c r="B182">
-        <v>0.9957629010947626</v>
+        <v>1.013396369024976</v>
       </c>
       <c r="C182">
-        <v>0.9994727145988862</v>
+        <v>0.9965916691036424</v>
       </c>
       <c r="D182">
-        <v>0.9971319701583192</v>
+        <v>0.9966376423999611</v>
       </c>
       <c r="E182">
-        <v>0.9973095803759724</v>
+        <v>0.9957974933688539</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>41682</v>
+        <v>41324</v>
       </c>
       <c r="B183">
-        <v>0.9966937891089734</v>
+        <v>1.013349008487965</v>
       </c>
       <c r="C183">
-        <v>0.9999882412994751</v>
+        <v>0.9963183076966318</v>
       </c>
       <c r="D183">
-        <v>0.9973045615479237</v>
+        <v>0.9959304075992613</v>
       </c>
       <c r="E183">
-        <v>0.9974389796910481</v>
+        <v>0.9958382803708674</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>41683</v>
+        <v>41325</v>
       </c>
       <c r="B184">
-        <v>0.9957720434832635</v>
+        <v>1.013358523057911</v>
       </c>
       <c r="C184">
-        <v>0.9998329535045416</v>
+        <v>0.9978437339841838</v>
       </c>
       <c r="D184">
-        <v>0.997636799874198</v>
+        <v>0.9959712800422368</v>
       </c>
       <c r="E184">
-        <v>0.9970629142603267</v>
+        <v>0.9961511333883308</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>41684</v>
+        <v>41326</v>
       </c>
       <c r="B185">
-        <v>0.9952587315465394</v>
+        <v>1.013331229076829</v>
       </c>
       <c r="C185">
-        <v>0.9997935328158879</v>
+        <v>0.9976090902276523</v>
       </c>
       <c r="D185">
-        <v>0.9979373561494759</v>
+        <v>0.9970323837326209</v>
       </c>
       <c r="E185">
-        <v>0.9967553783195511</v>
+        <v>0.9956638320899019</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>41688</v>
+        <v>41327</v>
       </c>
       <c r="B186">
-        <v>0.9952319646734185</v>
+        <v>1.013288816928643</v>
       </c>
       <c r="C186">
-        <v>0.9999218470585181</v>
+        <v>0.9975068291092825</v>
       </c>
       <c r="D186">
-        <v>0.9974148402598659</v>
+        <v>0.996531056876774</v>
       </c>
       <c r="E186">
-        <v>0.9969314018662527</v>
+        <v>0.9964030733592991</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>41689</v>
+        <v>41330</v>
       </c>
       <c r="B187">
-        <v>0.9958391422837829</v>
+        <v>1.01324173355796</v>
       </c>
       <c r="C187">
-        <v>1.000122657408965</v>
+        <v>0.9971141228707607</v>
       </c>
       <c r="D187">
-        <v>0.9978196652454183</v>
+        <v>0.9973888666962551</v>
       </c>
       <c r="E187">
-        <v>0.9967860290909716</v>
+        <v>0.996082778973104</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>41690</v>
+        <v>41331</v>
       </c>
       <c r="B188">
-        <v>0.9946172570785962</v>
+        <v>1.013187874026227</v>
       </c>
       <c r="C188">
-        <v>1.00040841980325</v>
+        <v>0.9967529323359441</v>
       </c>
       <c r="D188">
-        <v>0.9973556362414276</v>
+        <v>0.9976698926309268</v>
       </c>
       <c r="E188">
-        <v>0.9962521643913522</v>
+        <v>0.9960354609794252</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>41691</v>
+        <v>41332</v>
       </c>
       <c r="B189">
-        <v>0.9948552975071897</v>
+        <v>1.013144919179225</v>
       </c>
       <c r="C189">
-        <v>1.000233554422076</v>
+        <v>0.9970726571431392</v>
       </c>
       <c r="D189">
-        <v>0.9975529261335108</v>
+        <v>0.9967765229093223</v>
       </c>
       <c r="E189">
-        <v>0.9961243506452023</v>
+        <v>0.9962226765401684</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>41694</v>
+        <v>41333</v>
       </c>
       <c r="B190">
-        <v>0.9950199379071422</v>
+        <v>1.013133774916415</v>
       </c>
       <c r="C190">
-        <v>1.000546865033949</v>
+        <v>0.9973052862274192</v>
       </c>
       <c r="D190">
-        <v>0.9970400190622143</v>
+        <v>0.9959931741127327</v>
       </c>
       <c r="E190">
-        <v>0.9964826478525738</v>
+        <v>0.9962190670874251</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>41695</v>
+        <v>41334</v>
       </c>
       <c r="B191">
-        <v>0.9953929021392022</v>
+        <v>1.013092596552336</v>
       </c>
       <c r="C191">
-        <v>1.000725752862739</v>
+        <v>0.9977787785213529</v>
       </c>
       <c r="D191">
-        <v>0.9962048779438921</v>
+        <v>0.9961544428137831</v>
       </c>
       <c r="E191">
-        <v>0.9967842909325267</v>
+        <v>0.9963930230487892</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>41696</v>
+        <v>41337</v>
       </c>
       <c r="B192">
-        <v>0.9956504823170678</v>
+        <v>1.013075432777693</v>
       </c>
       <c r="C192">
-        <v>1.000967863612975</v>
+        <v>0.9990631414179683</v>
       </c>
       <c r="D192">
-        <v>0.9965170888909991</v>
+        <v>0.9961294551899146</v>
       </c>
       <c r="E192">
-        <v>0.9965281495919909</v>
+        <v>0.996690288550525</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>41697</v>
+        <v>41338</v>
       </c>
       <c r="B193">
-        <v>0.9957456628900376</v>
+        <v>1.013026511893678</v>
       </c>
       <c r="C193">
-        <v>1.000638964260051</v>
+        <v>0.999004974265436</v>
       </c>
       <c r="D193">
-        <v>0.9965982236393568</v>
+        <v>0.9959856886143549</v>
       </c>
       <c r="E193">
-        <v>0.9973141109925222</v>
+        <v>0.9969412018762928</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>41698</v>
+        <v>41339</v>
       </c>
       <c r="B194">
-        <v>0.9960963908600275</v>
+        <v>1.012946093154926</v>
       </c>
       <c r="C194">
-        <v>1.000442798027649</v>
+        <v>0.9975996534155633</v>
       </c>
       <c r="D194">
-        <v>0.9972480209603664</v>
+        <v>0.9958222597445388</v>
       </c>
       <c r="E194">
-        <v>0.9974049472062542</v>
+        <v>0.9963261023495706</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>41701</v>
+        <v>41340</v>
       </c>
       <c r="B195">
-        <v>0.9957225986417695</v>
+        <v>1.012920972262549</v>
       </c>
       <c r="C195">
-        <v>1.000301687671165</v>
+        <v>0.9978555307287647</v>
       </c>
       <c r="D195">
-        <v>0.9967440527913498</v>
+        <v>0.995427752244742</v>
       </c>
       <c r="E195">
-        <v>0.9974825302239776</v>
+        <v>0.9966911115063052</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>41702</v>
+        <v>41341</v>
       </c>
       <c r="B196">
-        <v>0.9958407340616182</v>
+        <v>1.01286469302504</v>
       </c>
       <c r="C196">
-        <v>1.000858611463751</v>
+        <v>0.9974684252043129</v>
       </c>
       <c r="D196">
-        <v>0.9969729440967674</v>
+        <v>0.9953299381152468</v>
       </c>
       <c r="E196">
-        <v>0.9975154807038109</v>
+        <v>0.9968658365751207</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>41703</v>
+        <v>41344</v>
       </c>
       <c r="B197">
-        <v>0.9956742535237039</v>
+        <v>1.01282756340545</v>
       </c>
       <c r="C197">
-        <v>1.000420074720347</v>
+        <v>0.9975481352161406</v>
       </c>
       <c r="D197">
-        <v>0.9970885045555686</v>
+        <v>0.9947420517099597</v>
       </c>
       <c r="E197">
-        <v>0.9975588637378522</v>
+        <v>0.9956182070998691</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>41704</v>
+        <v>41345</v>
       </c>
       <c r="B198">
-        <v>0.9956196504964787</v>
+        <v>1.012745165145875</v>
       </c>
       <c r="C198">
-        <v>1.000036903812152</v>
+        <v>0.9966515516746488</v>
       </c>
       <c r="D198">
-        <v>0.9970982547279311</v>
+        <v>0.9954477214961519</v>
       </c>
       <c r="E198">
-        <v>0.9977443464955779</v>
+        <v>0.9957232925206121</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>41705</v>
+        <v>41346</v>
       </c>
       <c r="B199">
-        <v>0.9961208971161251</v>
+        <v>1.012752599278884</v>
       </c>
       <c r="C199">
-        <v>1.000532941609739</v>
+        <v>0.9977159746481792</v>
       </c>
       <c r="D199">
-        <v>0.9973107515746665</v>
+        <v>0.9953846507571272</v>
       </c>
       <c r="E199">
-        <v>0.9970822723877604</v>
+        <v>0.9948510093830275</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>41708</v>
+        <v>41347</v>
       </c>
       <c r="B200">
-        <v>0.9963790645609754</v>
+        <v>1.01271143376245</v>
       </c>
       <c r="C200">
-        <v>1.000586993841594</v>
+        <v>0.9973651199178574</v>
       </c>
       <c r="D200">
-        <v>0.9974520437375538</v>
+        <v>0.9952761633957105</v>
       </c>
       <c r="E200">
-        <v>0.9969299700575914</v>
+        <v>0.9953255980738362</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>41709</v>
+        <v>41348</v>
       </c>
       <c r="B201">
-        <v>0.9965732237345843</v>
+        <v>1.012669503661616</v>
       </c>
       <c r="C201">
-        <v>0.9998659882792418</v>
+        <v>0.9973012277929171</v>
       </c>
       <c r="D201">
-        <v>0.9974266399974284</v>
+        <v>0.9951836756769169</v>
       </c>
       <c r="E201">
-        <v>0.9966629077388512</v>
+        <v>0.9954470543837503</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2">
-        <v>41710</v>
+        <v>41351</v>
       </c>
       <c r="B202">
-        <v>0.9954403675107547</v>
+        <v>1.012623694617251</v>
       </c>
       <c r="C202">
-        <v>0.9998501292402061</v>
+        <v>0.9972385946953604</v>
       </c>
       <c r="D202">
-        <v>0.9973949943876594</v>
+        <v>0.9957703780786757</v>
       </c>
       <c r="E202">
-        <v>0.99664520797969</v>
+        <v>0.9952035296345766</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2">
-        <v>41711</v>
+        <v>41352</v>
       </c>
       <c r="B203">
-        <v>0.9947748709532438</v>
+        <v>1.012589691393697</v>
       </c>
       <c r="C203">
-        <v>0.9989364274196876</v>
+        <v>0.9972279325496363</v>
       </c>
       <c r="D203">
-        <v>0.997311113159786</v>
+        <v>0.9959988353900334</v>
       </c>
       <c r="E203">
-        <v>0.9966425450214567</v>
+        <v>0.9952039985938564</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2">
-        <v>41712</v>
+        <v>41353</v>
       </c>
       <c r="B204">
-        <v>0.9946744031439938</v>
+        <v>1.012522017674717</v>
       </c>
       <c r="C204">
-        <v>0.9989797603561859</v>
+        <v>0.9971463986811876</v>
       </c>
       <c r="D204">
-        <v>0.9969941859486132</v>
+        <v>0.9952848601850797</v>
       </c>
       <c r="E204">
-        <v>0.9967153125256315</v>
+        <v>0.994664962823413</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2">
-        <v>41715</v>
+        <v>41354</v>
       </c>
       <c r="B205">
-        <v>0.9957433094909673</v>
+        <v>1.012480104911443</v>
       </c>
       <c r="C205">
-        <v>0.9993712558865444</v>
+        <v>0.9968986432452241</v>
       </c>
       <c r="D205">
-        <v>0.9973765198920618</v>
+        <v>0.9962971290096063</v>
       </c>
       <c r="E205">
-        <v>0.9968778661887721</v>
+        <v>0.9943332964638911</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2">
-        <v>41716</v>
+        <v>41355</v>
       </c>
       <c r="B206">
-        <v>0.9956774901861333</v>
+        <v>1.012435032986321</v>
       </c>
       <c r="C206">
-        <v>1.000363621946085</v>
+        <v>0.9969067319554384</v>
       </c>
       <c r="D206">
-        <v>0.9976171480360713</v>
+        <v>0.996680811451093</v>
       </c>
       <c r="E206">
-        <v>0.9969316098180043</v>
+        <v>0.9950272299863955</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2">
-        <v>41717</v>
+        <v>41358</v>
       </c>
       <c r="B207">
-        <v>0.9966399345344549</v>
+        <v>1.012417010628686</v>
       </c>
       <c r="C207">
-        <v>1.000593408518623</v>
+        <v>0.9975566870451199</v>
       </c>
       <c r="D207">
-        <v>0.997202322845797</v>
+        <v>0.9971691756149783</v>
       </c>
       <c r="E207">
-        <v>0.9968877215158618</v>
+        <v>0.9952914581585551</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2">
-        <v>41718</v>
+        <v>41359</v>
       </c>
       <c r="B208">
-        <v>0.9966721967612947</v>
+        <v>1.012385199311847</v>
       </c>
       <c r="C208">
-        <v>1.000635093613276</v>
+        <v>0.9978301934097982</v>
       </c>
       <c r="D208">
-        <v>0.9973374329750646</v>
+        <v>0.9968263065809821</v>
       </c>
       <c r="E208">
-        <v>0.9969047071668791</v>
+        <v>0.995293824476983</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2">
-        <v>41719</v>
+        <v>41360</v>
       </c>
       <c r="B209">
-        <v>0.9966369842296579</v>
+        <v>1.012335668320193</v>
       </c>
       <c r="C209">
-        <v>1.000527983902546</v>
+        <v>0.997436983793778</v>
       </c>
       <c r="D209">
-        <v>0.9977579809360216</v>
+        <v>0.9971963230894607</v>
       </c>
       <c r="E209">
-        <v>0.9971740628233554</v>
+        <v>0.9950988704361816</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2">
-        <v>41722</v>
+        <v>41361</v>
       </c>
       <c r="B210">
-        <v>0.998088550286248</v>
+        <v>1.012283700899952</v>
       </c>
       <c r="C210">
-        <v>1.000540109750498</v>
+        <v>0.9974361594426689</v>
       </c>
       <c r="D210">
-        <v>0.9975798583768919</v>
+        <v>0.9968326784035205</v>
       </c>
       <c r="E210">
-        <v>0.9976125964810595</v>
+        <v>0.9950343274324785</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2">
-        <v>41723</v>
+        <v>41365</v>
       </c>
       <c r="B211">
-        <v>0.998006784607167</v>
+        <v>1.012275896165116</v>
       </c>
       <c r="C211">
-        <v>1.000660895201305</v>
+        <v>0.9980124354330792</v>
       </c>
       <c r="D211">
-        <v>0.997706013135378</v>
+        <v>0.9971077414109011</v>
       </c>
       <c r="E211">
-        <v>0.9976436395053748</v>
+        <v>0.9947145288807421</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2">
-        <v>41724</v>
+        <v>41366</v>
       </c>
       <c r="B212">
-        <v>0.9994400700635103</v>
+        <v>1.012260315374698</v>
       </c>
       <c r="C212">
-        <v>1.00015801377273</v>
+        <v>0.9992451409230587</v>
       </c>
       <c r="D212">
-        <v>0.9979188834280462</v>
+        <v>0.9964069968075476</v>
       </c>
       <c r="E212">
-        <v>0.9978510808448765</v>
+        <v>0.9949123245013693</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2">
-        <v>41725</v>
+        <v>41367</v>
       </c>
       <c r="B213">
-        <v>0.9993895261255842</v>
+        <v>1.012302188845527</v>
       </c>
       <c r="C213">
-        <v>0.9999743167886354</v>
+        <v>1.001169099350969</v>
       </c>
       <c r="D213">
-        <v>0.9981523352784465</v>
+        <v>0.9973020611984386</v>
       </c>
       <c r="E213">
-        <v>0.9981398849188186</v>
+        <v>0.9946105995840635</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2">
-        <v>41726</v>
+        <v>41368</v>
       </c>
       <c r="B214">
-        <v>0.9986861318096311</v>
+        <v>1.012243453105702</v>
       </c>
       <c r="C214">
-        <v>1.000036385271264</v>
+        <v>1.000716575525135</v>
       </c>
       <c r="D214">
-        <v>0.9989357023616934</v>
+        <v>0.9979258103147675</v>
       </c>
       <c r="E214">
-        <v>0.9982442700481771</v>
+        <v>0.9944144995318822</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2">
-        <v>41729</v>
+        <v>41369</v>
       </c>
       <c r="B215">
-        <v>0.9993799818849993</v>
+        <v>1.012207696809469</v>
       </c>
       <c r="C215">
-        <v>1.000567123784044</v>
+        <v>1.000614167202208</v>
       </c>
       <c r="D215">
-        <v>0.9994389901245211</v>
+        <v>0.9979856933825026</v>
       </c>
       <c r="E215">
-        <v>0.9980321193858821</v>
+        <v>0.9945975917630583</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2">
-        <v>41730</v>
+        <v>41372</v>
       </c>
       <c r="B216">
-        <v>0.9994094565273177</v>
+        <v>1.012164925350016</v>
       </c>
       <c r="C216">
-        <v>1.000818852960431</v>
+        <v>1.000824955464964</v>
       </c>
       <c r="D216">
-        <v>0.9994701830341085</v>
+        <v>0.997656854691447</v>
       </c>
       <c r="E216">
-        <v>0.9979585599688933</v>
+        <v>0.9947198832569375</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2">
-        <v>41731</v>
+        <v>41373</v>
       </c>
       <c r="B217">
-        <v>0.9988253548941004</v>
+        <v>1.012074888323626</v>
       </c>
       <c r="C217">
-        <v>1.001057737342487</v>
+        <v>0.999276426327573</v>
       </c>
       <c r="D217">
-        <v>0.9993943668185012</v>
+        <v>0.9973219120667888</v>
       </c>
       <c r="E217">
-        <v>0.9978256321176155</v>
+        <v>0.9947929134149346</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2">
-        <v>41732</v>
+        <v>41374</v>
       </c>
       <c r="B218">
-        <v>0.9991238476182492</v>
+        <v>1.012053054988631</v>
       </c>
       <c r="C218">
-        <v>1.000670100471723</v>
+        <v>1.000401597305373</v>
       </c>
       <c r="D218">
-        <v>0.9992910937698927</v>
+        <v>0.996345631654395</v>
       </c>
       <c r="E218">
-        <v>0.9980623471176421</v>
+        <v>0.9951902117344921</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2">
-        <v>41733</v>
+        <v>41375</v>
       </c>
       <c r="B219">
-        <v>0.9989115913820762</v>
+        <v>1.012026141902878</v>
       </c>
       <c r="C219">
-        <v>1.00013540157562</v>
+        <v>1.001075725874636</v>
       </c>
       <c r="D219">
-        <v>0.9995629049157885</v>
+        <v>0.9967067359511672</v>
       </c>
       <c r="E219">
-        <v>0.9983363650782862</v>
+        <v>0.99577505448158</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2">
-        <v>41736</v>
+        <v>41376</v>
       </c>
       <c r="B220">
-        <v>0.9991981138487666</v>
+        <v>1.012065291251986</v>
       </c>
       <c r="C220">
-        <v>0.9992320967462497</v>
+        <v>1.003013123153389</v>
       </c>
       <c r="D220">
-        <v>0.9994939002881317</v>
+        <v>0.9966980163477872</v>
       </c>
       <c r="E220">
-        <v>0.9988415595755722</v>
+        <v>0.995692012350575</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2">
-        <v>41737</v>
+        <v>41379</v>
       </c>
       <c r="B221">
-        <v>0.998719327078372</v>
+        <v>1.012155943208711</v>
       </c>
       <c r="C221">
-        <v>0.9994455204267237</v>
+        <v>1.006531001379159</v>
       </c>
       <c r="D221">
-        <v>0.9994753885645822</v>
+        <v>0.9973618151798537</v>
       </c>
       <c r="E221">
-        <v>0.9992298055636142</v>
+        <v>0.9951356879203366</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2">
-        <v>41738</v>
+        <v>41380</v>
       </c>
       <c r="B222">
-        <v>0.9986226482419419</v>
+        <v>1.012095731453693</v>
       </c>
       <c r="C222">
-        <v>0.9999083947844419</v>
+        <v>1.006511471743493</v>
       </c>
       <c r="D222">
-        <v>0.9995876112407449</v>
+        <v>0.9963109143210404</v>
       </c>
       <c r="E222">
-        <v>0.9988829771149503</v>
+        <v>0.9953525700848826</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2">
-        <v>41739</v>
+        <v>41381</v>
       </c>
       <c r="B223">
-        <v>0.998968345047207</v>
+        <v>1.012134353132343</v>
       </c>
       <c r="C223">
-        <v>0.9989209181191518</v>
+        <v>1.008471707993992</v>
       </c>
       <c r="D223">
-        <v>0.999758399164862</v>
+        <v>0.9969900644822112</v>
       </c>
       <c r="E223">
-        <v>0.9994767983650832</v>
+        <v>0.994949335552435</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2">
-        <v>41740</v>
+        <v>41382</v>
       </c>
       <c r="B224">
-        <v>0.9992627628358608</v>
+        <v>1.01205953804091</v>
       </c>
       <c r="C224">
-        <v>0.998411616670816</v>
+        <v>1.007168004642842</v>
       </c>
       <c r="D224">
-        <v>1.000058452197444</v>
+        <v>0.9973807622867705</v>
       </c>
       <c r="E224">
-        <v>0.9997057960376632</v>
+        <v>0.9952749936300733</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2">
-        <v>41743</v>
+        <v>41383</v>
       </c>
       <c r="B225">
-        <v>0.9988080334550568</v>
+        <v>1.011985717581103</v>
       </c>
       <c r="C225">
-        <v>0.9984719901526564</v>
+        <v>1.006923006453241</v>
       </c>
       <c r="D225">
-        <v>1.000270537642267</v>
+        <v>0.9970346328879999</v>
       </c>
       <c r="E225">
-        <v>0.9998385030295835</v>
+        <v>0.995078773540632</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2">
-        <v>41744</v>
+        <v>41386</v>
       </c>
       <c r="B226">
-        <v>0.9994891238760339</v>
+        <v>1.011945346089238</v>
       </c>
       <c r="C226">
-        <v>0.9989058424134288</v>
+        <v>1.006172029495166</v>
       </c>
       <c r="D226">
-        <v>1.000180806312165</v>
+        <v>0.9973353786681839</v>
       </c>
       <c r="E226">
-        <v>0.9997422256416767</v>
+        <v>0.9949201951750383</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2">
-        <v>41745</v>
+        <v>41387</v>
       </c>
       <c r="B227">
-        <v>0.999755897846846</v>
+        <v>1.011905904671289</v>
       </c>
       <c r="C227">
-        <v>0.9996613371243694</v>
+        <v>1.006679449511037</v>
       </c>
       <c r="D227">
-        <v>1.000674621728597</v>
+        <v>0.9968097995995613</v>
       </c>
       <c r="E227">
-        <v>0.999773858845288</v>
+        <v>0.9947713944270797</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2">
-        <v>41746</v>
+        <v>41388</v>
       </c>
       <c r="B228">
-        <v>0.999895838534464</v>
+        <v>1.011771599241826</v>
       </c>
       <c r="C228">
-        <v>0.9997803715996391</v>
+        <v>1.004468480939249</v>
       </c>
       <c r="D228">
-        <v>1.000769037653162</v>
+        <v>0.9965503429498322</v>
       </c>
       <c r="E228">
-        <v>0.9999138098145898</v>
+        <v>0.9945829312499708</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2">
-        <v>41750</v>
+        <v>41389</v>
       </c>
       <c r="B229">
-        <v>1.000307102964522</v>
+        <v>1.011698010487097</v>
       </c>
       <c r="C229">
-        <v>0.9998437994088148</v>
+        <v>1.004053453653794</v>
       </c>
       <c r="D229">
-        <v>1.000704665053811</v>
+        <v>0.9961699359505649</v>
       </c>
       <c r="E229">
-        <v>0.9997788570772453</v>
+        <v>0.9948078067488317</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2">
-        <v>41751</v>
+        <v>41390</v>
       </c>
       <c r="B230">
-        <v>0.9997306245881671</v>
+        <v>1.011714917820988</v>
       </c>
       <c r="C230">
-        <v>1.000315322749926</v>
+        <v>1.005519343865157</v>
       </c>
       <c r="D230">
-        <v>1.000448184529218</v>
+        <v>0.9963812844195928</v>
       </c>
       <c r="E230">
-        <v>0.9995970437620779</v>
+        <v>0.9946109288164563</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2">
-        <v>41752</v>
+        <v>41393</v>
       </c>
       <c r="B231">
-        <v>0.9992675001714014</v>
+        <v>1.011652322274063</v>
       </c>
       <c r="C231">
-        <v>1.000077526755201</v>
+        <v>1.005194373428324</v>
       </c>
       <c r="D231">
-        <v>1.000340006014273</v>
+        <v>0.9959511934881415</v>
       </c>
       <c r="E231">
-        <v>0.999681093439835</v>
+        <v>0.9943924793028742</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2">
-        <v>41753</v>
+        <v>41394</v>
       </c>
       <c r="B232">
-        <v>0.9996785588430095</v>
+        <v>1.011554792074964</v>
       </c>
       <c r="C232">
-        <v>1.000371038418122</v>
+        <v>1.004147762455221</v>
       </c>
       <c r="D232">
-        <v>1.000463348859395</v>
+        <v>0.9952847004995744</v>
       </c>
       <c r="E232">
-        <v>0.9998647181335488</v>
+        <v>0.9941690890671974</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2">
-        <v>41754</v>
+        <v>41395</v>
       </c>
       <c r="B233">
-        <v>0.9991727643982143</v>
+        <v>1.011540918259853</v>
       </c>
       <c r="C233">
-        <v>0.999909359385283</v>
+        <v>1.005080632576886</v>
       </c>
       <c r="D233">
-        <v>1.00025957356038</v>
+        <v>0.9957929048796341</v>
       </c>
       <c r="E233">
-        <v>0.9999506130754938</v>
+        <v>0.9943617410588925</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2">
-        <v>41757</v>
+        <v>41396</v>
       </c>
       <c r="B234">
-        <v>0.9997116610529835</v>
+        <v>1.011500029854226</v>
       </c>
       <c r="C234">
-        <v>0.9998931440403614</v>
+        <v>1.004744048706884</v>
       </c>
       <c r="D234">
-        <v>0.9999856117541601</v>
+        <v>0.9958287001173285</v>
       </c>
       <c r="E234">
-        <v>1.000224453978121</v>
+        <v>0.9944817439122221</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2">
-        <v>41758</v>
+        <v>41397</v>
       </c>
       <c r="B235">
-        <v>0.9992104865872464</v>
+        <v>1.011433189320567</v>
       </c>
       <c r="C235">
-        <v>0.9998319453280964</v>
+        <v>1.004301010114355</v>
       </c>
       <c r="D235">
-        <v>0.999920568161252</v>
+        <v>0.9955576503876254</v>
       </c>
       <c r="E235">
-        <v>1.000673362494045</v>
+        <v>0.9946299233631469</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2">
-        <v>41759</v>
+        <v>41400</v>
       </c>
       <c r="B236">
-        <v>0.999404949722998</v>
+        <v>1.011403495518761</v>
       </c>
       <c r="C236">
-        <v>1.000301225447633</v>
+        <v>1.004439899014943</v>
       </c>
       <c r="D236">
-        <v>1.000307977663883</v>
+        <v>0.9953645520993324</v>
       </c>
       <c r="E236">
-        <v>1.001320765456671</v>
+        <v>0.9947200222975168</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2">
-        <v>41760</v>
+        <v>41401</v>
       </c>
       <c r="B237">
-        <v>0.9996315382426119</v>
+        <v>1.011375004039268</v>
       </c>
       <c r="C237">
-        <v>1.001104640720438</v>
+        <v>1.005041955733117</v>
       </c>
       <c r="D237">
-        <v>0.9995620101041189</v>
+        <v>0.9951781612489015</v>
       </c>
       <c r="E237">
-        <v>0.9998808650286607</v>
+        <v>0.9952901070263285</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2">
-        <v>41761</v>
+        <v>41402</v>
       </c>
       <c r="B238">
-        <v>0.998688590985003</v>
+        <v>1.011237223145823</v>
       </c>
       <c r="C238">
-        <v>1.001491771299759</v>
+        <v>1.00292693035388</v>
       </c>
       <c r="D238">
-        <v>0.999530126658481</v>
+        <v>0.9955345901710156</v>
       </c>
       <c r="E238">
-        <v>0.999890267320853</v>
+        <v>0.9952701937859895</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2">
-        <v>41764</v>
+        <v>41403</v>
       </c>
       <c r="B239">
-        <v>0.999001021542726</v>
+        <v>1.011224848508017</v>
       </c>
       <c r="C239">
-        <v>1.000828413360535</v>
+        <v>1.003225552734161</v>
       </c>
       <c r="D239">
-        <v>0.9996335850423477</v>
+        <v>0.9953259357024307</v>
       </c>
       <c r="E239">
-        <v>1.000033070765687</v>
+        <v>0.9949518171130518</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2">
-        <v>41765</v>
+        <v>41404</v>
       </c>
       <c r="B240">
-        <v>0.9992368784239691</v>
+        <v>1.011179677772408</v>
       </c>
       <c r="C240">
-        <v>0.9999865789276234</v>
+        <v>1.003105503544179</v>
       </c>
       <c r="D240">
-        <v>0.9997700003059683</v>
+        <v>0.99465812990733</v>
       </c>
       <c r="E240">
-        <v>1.000270439839294</v>
+        <v>0.9951138292491255</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="2">
-        <v>41766</v>
+        <v>41407</v>
       </c>
       <c r="B241">
-        <v>0.9998146480127565</v>
+        <v>1.011169457114542</v>
       </c>
       <c r="C241">
-        <v>1.00007088162963</v>
+        <v>1.003974972244471</v>
       </c>
       <c r="D241">
-        <v>1.000360831079584</v>
+        <v>0.9944503360264361</v>
       </c>
       <c r="E241">
-        <v>1.000290392462038</v>
+        <v>0.9949672047137097</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2">
-        <v>41767</v>
+        <v>41408</v>
       </c>
       <c r="B242">
-        <v>1.000038051565733</v>
+        <v>1.011112849147432</v>
       </c>
       <c r="C242">
-        <v>0.9993882713438118</v>
+        <v>1.003949737367575</v>
       </c>
       <c r="D242">
-        <v>1.00016806574014</v>
+        <v>0.9941569242989263</v>
       </c>
       <c r="E242">
-        <v>1.000578390417769</v>
+        <v>0.9954057365979919</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2">
-        <v>41768</v>
+        <v>41409</v>
       </c>
       <c r="B243">
-        <v>0.9998636944301498</v>
+        <v>1.011106880148737</v>
       </c>
       <c r="C243">
-        <v>0.9994429985576038</v>
+        <v>1.005252045920286</v>
       </c>
       <c r="D243">
-        <v>1.000016225683133</v>
+        <v>0.9939428397653181</v>
       </c>
       <c r="E243">
-        <v>1.000215679255356</v>
+        <v>0.9955296638129991</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2">
-        <v>41771</v>
+        <v>41410</v>
       </c>
       <c r="B244">
-        <v>0.9993701413421034</v>
+        <v>1.011055750299287</v>
       </c>
       <c r="C244">
-        <v>1.000332402075911</v>
+        <v>1.004969421402363</v>
       </c>
       <c r="D244">
-        <v>1.000168250148321</v>
+        <v>0.9939737226211921</v>
       </c>
       <c r="E244">
-        <v>1.000378010526853</v>
+        <v>0.9957348295688747</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2">
-        <v>41772</v>
+        <v>41411</v>
       </c>
       <c r="B245">
-        <v>0.9995527903169636</v>
+        <v>1.011039020614256</v>
       </c>
       <c r="C245">
-        <v>1.000544257779841</v>
+        <v>1.00551627955874</v>
       </c>
       <c r="D245">
-        <v>1.000160627453739</v>
+        <v>0.9927435246209966</v>
       </c>
       <c r="E245">
-        <v>1.000281829686809</v>
+        <v>0.9961306142857577</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2">
-        <v>41773</v>
+        <v>41414</v>
       </c>
       <c r="B246">
-        <v>0.9990961094475878</v>
+        <v>1.010996561333716</v>
       </c>
       <c r="C246">
-        <v>1.000235175597041</v>
+        <v>1.00551606355277</v>
       </c>
       <c r="D246">
-        <v>1.000304491190452</v>
+        <v>0.9928040562150841</v>
       </c>
       <c r="E246">
-        <v>1.000501163005596</v>
+        <v>0.9961141444580206</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="2">
-        <v>41774</v>
+        <v>41415</v>
       </c>
       <c r="B247">
-        <v>0.9997605360503266</v>
+        <v>1.010914961380274</v>
       </c>
       <c r="C247">
-        <v>0.9996478247698722</v>
+        <v>1.004277301563791</v>
       </c>
       <c r="D247">
-        <v>0.9999967452231185</v>
+        <v>0.9927625140135674</v>
       </c>
       <c r="E247">
-        <v>1.000382342293627</v>
+        <v>0.9961551314576337</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="2">
-        <v>41775</v>
+        <v>41416</v>
       </c>
       <c r="B248">
-        <v>1.000207936394025</v>
+        <v>1.01084518487697</v>
       </c>
       <c r="C248">
-        <v>0.9994047283337174</v>
+        <v>1.003285955391802</v>
       </c>
       <c r="D248">
-        <v>0.9999811355704321</v>
+        <v>0.9932418064220672</v>
       </c>
       <c r="E248">
-        <v>1.000144972795221</v>
+        <v>0.9961572010582495</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2">
-        <v>41778</v>
+        <v>41417</v>
       </c>
       <c r="B249">
-        <v>1.00021030732858</v>
+        <v>1.010848988719536</v>
       </c>
       <c r="C249">
-        <v>0.9993595466925381</v>
+        <v>1.003558664832349</v>
       </c>
       <c r="D249">
-        <v>0.9999481305212113</v>
+        <v>0.9939533196683258</v>
       </c>
       <c r="E249">
-        <v>1.000170738116797</v>
+        <v>0.9960626865511054</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2">
-        <v>41779</v>
+        <v>41418</v>
       </c>
       <c r="B250">
-        <v>1.000016938651936</v>
+        <v>1.01079910637646</v>
       </c>
       <c r="C250">
-        <v>0.9993082454760319</v>
+        <v>1.003740864943393</v>
       </c>
       <c r="D250">
-        <v>0.9997716383255254</v>
+        <v>0.9937832744753125</v>
       </c>
       <c r="E250">
-        <v>1.000070807889012</v>
+        <v>0.9960481835140751</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2">
-        <v>41780</v>
+        <v>41421</v>
       </c>
       <c r="B251">
-        <v>0.9997783584980676</v>
+        <v>1.010728575230005</v>
       </c>
       <c r="C251">
-        <v>0.9999864126259959</v>
+        <v>1.003505506117797</v>
       </c>
       <c r="D251">
-        <v>0.9999010089537761</v>
+        <v>0.9937741136698544</v>
       </c>
       <c r="E251">
-        <v>1.000070560288296</v>
+        <v>0.9960289277872743</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="2">
-        <v>41781</v>
+        <v>41422</v>
       </c>
       <c r="B252">
-        <v>0.9996584346607217</v>
+        <v>1.010693122383669</v>
       </c>
       <c r="C252">
-        <v>0.9999432444805635</v>
+        <v>1.003571580109228</v>
       </c>
       <c r="D252">
-        <v>0.9999443042071702</v>
+        <v>0.9932183788937933</v>
       </c>
       <c r="E252">
-        <v>0.9999735633479445</v>
+        <v>0.9962584087587474</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2">
+        <v>41423</v>
+      </c>
+      <c r="B253">
+        <v>1.010614498710295</v>
+      </c>
+      <c r="C253">
+        <v>1.002515001457439</v>
+      </c>
+      <c r="D253">
+        <v>0.9940299936355452</v>
+      </c>
+      <c r="E253">
+        <v>0.9961808948660718</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>41424</v>
+      </c>
+      <c r="B254">
+        <v>1.010519232597204</v>
+      </c>
+      <c r="C254">
+        <v>1.001157714454063</v>
+      </c>
+      <c r="D254">
+        <v>0.9946610480314051</v>
+      </c>
+      <c r="E254">
+        <v>0.9958622070872768</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>41425</v>
+      </c>
+      <c r="B255">
+        <v>1.010496490356422</v>
+      </c>
+      <c r="C255">
+        <v>1.001568135504936</v>
+      </c>
+      <c r="D255">
+        <v>0.9953308825018472</v>
+      </c>
+      <c r="E255">
+        <v>0.9958904387609604</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>41428</v>
+      </c>
+      <c r="B256">
+        <v>1.010447974065647</v>
+      </c>
+      <c r="C256">
+        <v>1.001383304260618</v>
+      </c>
+      <c r="D256">
+        <v>0.9958939758441623</v>
+      </c>
+      <c r="E256">
+        <v>0.9960622699517679</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>41429</v>
+      </c>
+      <c r="B257">
+        <v>1.010418027160783</v>
+      </c>
+      <c r="C257">
+        <v>1.001666486355754</v>
+      </c>
+      <c r="D257">
+        <v>0.9958870842589177</v>
+      </c>
+      <c r="E257">
+        <v>0.9960612996382358</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>41430</v>
+      </c>
+      <c r="B258">
+        <v>1.010392584874646</v>
+      </c>
+      <c r="C258">
+        <v>1.001864579839092</v>
+      </c>
+      <c r="D258">
+        <v>0.9969925481149018</v>
+      </c>
+      <c r="E258">
+        <v>0.9955502417485953</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>41431</v>
+      </c>
+      <c r="B259">
+        <v>1.010347622626678</v>
+      </c>
+      <c r="C259">
+        <v>1.001835625495822</v>
+      </c>
+      <c r="D259">
+        <v>0.997200563353156</v>
+      </c>
+      <c r="E259">
+        <v>0.9955313975212087</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>41432</v>
+      </c>
+      <c r="B260">
+        <v>1.010337931632646</v>
+      </c>
+      <c r="C260">
+        <v>1.003313296399783</v>
+      </c>
+      <c r="D260">
+        <v>0.9964685189800379</v>
+      </c>
+      <c r="E260">
+        <v>0.9956687920470485</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>41435</v>
+      </c>
+      <c r="B261">
+        <v>1.010297423645092</v>
+      </c>
+      <c r="C261">
+        <v>1.003191030292703</v>
+      </c>
+      <c r="D261">
+        <v>0.9965354891774212</v>
+      </c>
+      <c r="E261">
+        <v>0.9955911292946725</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>41436</v>
+      </c>
+      <c r="B262">
+        <v>1.010296445880036</v>
+      </c>
+      <c r="C262">
+        <v>1.00467774986339</v>
+      </c>
+      <c r="D262">
+        <v>0.9966351966587927</v>
+      </c>
+      <c r="E262">
+        <v>0.9956832077081369</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>41437</v>
+      </c>
+      <c r="B263">
+        <v>1.010262586666902</v>
+      </c>
+      <c r="C263">
+        <v>1.004660860660875</v>
+      </c>
+      <c r="D263">
+        <v>0.9975945867459745</v>
+      </c>
+      <c r="E263">
+        <v>0.9953877007628763</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>41438</v>
+      </c>
+      <c r="B264">
+        <v>1.010173687683645</v>
+      </c>
+      <c r="C264">
+        <v>1.004026244331861</v>
+      </c>
+      <c r="D264">
+        <v>0.9964853401281006</v>
+      </c>
+      <c r="E264">
+        <v>0.9951862790147676</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>41439</v>
+      </c>
+      <c r="B265">
+        <v>1.010171959070335</v>
+      </c>
+      <c r="C265">
+        <v>1.004754958250285</v>
+      </c>
+      <c r="D265">
+        <v>0.9969099763692664</v>
+      </c>
+      <c r="E265">
+        <v>0.9950579983216071</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>41442</v>
+      </c>
+      <c r="B266">
+        <v>1.010116499404918</v>
+      </c>
+      <c r="C266">
+        <v>1.004276259890002</v>
+      </c>
+      <c r="D266">
+        <v>0.9963969607832293</v>
+      </c>
+      <c r="E266">
+        <v>0.9953330890486364</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>41443</v>
+      </c>
+      <c r="B267">
+        <v>1.010102451329783</v>
+      </c>
+      <c r="C267">
+        <v>1.004928696927327</v>
+      </c>
+      <c r="D267">
+        <v>0.9953921441649914</v>
+      </c>
+      <c r="E267">
+        <v>0.9952912783189105</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>41444</v>
+      </c>
+      <c r="B268">
+        <v>1.010093494413914</v>
+      </c>
+      <c r="C268">
+        <v>1.005835838490454</v>
+      </c>
+      <c r="D268">
+        <v>0.9955448973490575</v>
+      </c>
+      <c r="E268">
+        <v>0.9955591558386656</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>41445</v>
+      </c>
+      <c r="B269">
+        <v>1.010164303696643</v>
+      </c>
+      <c r="C269">
+        <v>1.008770299667052</v>
+      </c>
+      <c r="D269">
+        <v>0.996044869956457</v>
+      </c>
+      <c r="E269">
+        <v>0.9952686718352176</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>41446</v>
+      </c>
+      <c r="B270">
+        <v>1.010106478096287</v>
+      </c>
+      <c r="C270">
+        <v>1.008209177693857</v>
+      </c>
+      <c r="D270">
+        <v>0.9964185737039327</v>
+      </c>
+      <c r="E270">
+        <v>0.995257277548742</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>41449</v>
+      </c>
+      <c r="B271">
+        <v>1.010151543378393</v>
+      </c>
+      <c r="C271">
+        <v>1.01002674894142</v>
+      </c>
+      <c r="D271">
+        <v>0.9969735846671056</v>
+      </c>
+      <c r="E271">
+        <v>0.9946942505180948</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>41450</v>
+      </c>
+      <c r="B272">
+        <v>1.010072689096625</v>
+      </c>
+      <c r="C272">
+        <v>1.009353458913576</v>
+      </c>
+      <c r="D272">
+        <v>0.9959108786356076</v>
+      </c>
+      <c r="E272">
+        <v>0.9947005441904325</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>41451</v>
+      </c>
+      <c r="B273">
+        <v>1.010082858526466</v>
+      </c>
+      <c r="C273">
+        <v>1.010920895906759</v>
+      </c>
+      <c r="D273">
+        <v>0.9951484986943608</v>
+      </c>
+      <c r="E273">
+        <v>0.9946373105611651</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>41452</v>
+      </c>
+      <c r="B274">
+        <v>1.009985628857033</v>
+      </c>
+      <c r="C274">
+        <v>1.010093358913165</v>
+      </c>
+      <c r="D274">
+        <v>0.9951642675952519</v>
+      </c>
+      <c r="E274">
+        <v>0.9950614891019081</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>41453</v>
+      </c>
+      <c r="B275">
+        <v>1.009855300099535</v>
+      </c>
+      <c r="C275">
+        <v>1.007803671006197</v>
+      </c>
+      <c r="D275">
+        <v>0.9966717108295242</v>
+      </c>
+      <c r="E275">
+        <v>0.9974818456843342</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B276">
+        <v>1.009812816330185</v>
+      </c>
+      <c r="C276">
+        <v>1.007804557919118</v>
+      </c>
+      <c r="D276">
+        <v>0.9967344165947495</v>
+      </c>
+      <c r="E276">
+        <v>0.9974642246348467</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>41457</v>
+      </c>
+      <c r="B277">
+        <v>1.009807788902916</v>
+      </c>
+      <c r="C277">
+        <v>1.008593173643665</v>
+      </c>
+      <c r="D277">
+        <v>0.9961584700988241</v>
+      </c>
+      <c r="E277">
+        <v>0.9985164884331024</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>41458</v>
+      </c>
+      <c r="B278">
+        <v>1.009750657418422</v>
+      </c>
+      <c r="C278">
+        <v>1.008273733009949</v>
+      </c>
+      <c r="D278">
+        <v>0.9966975983362343</v>
+      </c>
+      <c r="E278">
+        <v>0.998390166912363</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>41459</v>
+      </c>
+      <c r="B279">
+        <v>1.00970377258154</v>
+      </c>
+      <c r="C279">
+        <v>1.008262109244978</v>
+      </c>
+      <c r="D279">
+        <v>0.9965948220011057</v>
+      </c>
+      <c r="E279">
+        <v>0.9984304803955435</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>41460</v>
+      </c>
+      <c r="B280">
+        <v>1.009700017579716</v>
+      </c>
+      <c r="C280">
+        <v>1.00913297064815</v>
+      </c>
+      <c r="D280">
+        <v>0.9966251341880616</v>
+      </c>
+      <c r="E280">
+        <v>0.9984742683088559</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>41463</v>
+      </c>
+      <c r="B281">
+        <v>1.00964296141044</v>
+      </c>
+      <c r="C281">
+        <v>1.009161165594254</v>
+      </c>
+      <c r="D281">
+        <v>0.9959725409989485</v>
+      </c>
+      <c r="E281">
+        <v>0.9986958933868414</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>41464</v>
+      </c>
+      <c r="B282">
+        <v>1.009576348751715</v>
+      </c>
+      <c r="C282">
+        <v>1.008557582927592</v>
+      </c>
+      <c r="D282">
+        <v>0.9955799902480673</v>
+      </c>
+      <c r="E282">
+        <v>0.998803001302129</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>41465</v>
+      </c>
+      <c r="B283">
+        <v>1.00953037701168</v>
+      </c>
+      <c r="C283">
+        <v>1.008459550960796</v>
+      </c>
+      <c r="D283">
+        <v>0.9956901559905161</v>
+      </c>
+      <c r="E283">
+        <v>0.9991860748254401</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>41466</v>
+      </c>
+      <c r="B284">
+        <v>1.009378011615844</v>
+      </c>
+      <c r="C284">
+        <v>1.006108174420981</v>
+      </c>
+      <c r="D284">
+        <v>0.9958173982524904</v>
+      </c>
+      <c r="E284">
+        <v>0.9993623088462854</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>41467</v>
+      </c>
+      <c r="B285">
+        <v>1.009356431646471</v>
+      </c>
+      <c r="C285">
+        <v>1.006876593736992</v>
+      </c>
+      <c r="D285">
+        <v>0.9958529404257154</v>
+      </c>
+      <c r="E285">
+        <v>0.9994228898270934</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>41470</v>
+      </c>
+      <c r="B286">
+        <v>1.009297986912977</v>
+      </c>
+      <c r="C286">
+        <v>1.006605299997247</v>
+      </c>
+      <c r="D286">
+        <v>0.9955751458259556</v>
+      </c>
+      <c r="E286">
+        <v>0.999341745931258</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>41471</v>
+      </c>
+      <c r="B287">
+        <v>1.009209562143524</v>
+      </c>
+      <c r="C287">
+        <v>1.005206221066336</v>
+      </c>
+      <c r="D287">
+        <v>0.9967498521165152</v>
+      </c>
+      <c r="E287">
+        <v>0.9993387337278129</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>41472</v>
+      </c>
+      <c r="B288">
+        <v>1.009175101256871</v>
+      </c>
+      <c r="C288">
+        <v>1.005787175739401</v>
+      </c>
+      <c r="D288">
+        <v>0.9960473731753822</v>
+      </c>
+      <c r="E288">
+        <v>0.9993857701586837</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>41473</v>
+      </c>
+      <c r="B289">
+        <v>1.009109769588989</v>
+      </c>
+      <c r="C289">
+        <v>1.005847967105013</v>
+      </c>
+      <c r="D289">
+        <v>0.9956028945713288</v>
+      </c>
+      <c r="E289">
+        <v>0.9997507921445945</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>41474</v>
+      </c>
+      <c r="B290">
+        <v>1.009041605675838</v>
+      </c>
+      <c r="C290">
+        <v>1.004647343846666</v>
+      </c>
+      <c r="D290">
+        <v>0.9961524852714566</v>
+      </c>
+      <c r="E290">
+        <v>0.9997910766758107</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>41477</v>
+      </c>
+      <c r="B291">
+        <v>1.00891849308186</v>
+      </c>
+      <c r="C291">
+        <v>1.002519330335217</v>
+      </c>
+      <c r="D291">
+        <v>0.9969095854009637</v>
+      </c>
+      <c r="E291">
+        <v>0.9994999074906991</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>41478</v>
+      </c>
+      <c r="B292">
+        <v>1.008845519326282</v>
+      </c>
+      <c r="C292">
+        <v>1.001676063154371</v>
+      </c>
+      <c r="D292">
+        <v>0.9972493360492417</v>
+      </c>
+      <c r="E292">
+        <v>0.999560675615473</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>41479</v>
+      </c>
+      <c r="B293">
+        <v>1.008833092938713</v>
+      </c>
+      <c r="C293">
+        <v>1.003164687344825</v>
+      </c>
+      <c r="D293">
+        <v>0.9968805614795173</v>
+      </c>
+      <c r="E293">
+        <v>0.999584098916159</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>41480</v>
+      </c>
+      <c r="B294">
+        <v>1.008780679182749</v>
+      </c>
+      <c r="C294">
+        <v>1.002970331621087</v>
+      </c>
+      <c r="D294">
+        <v>0.9970077561915158</v>
+      </c>
+      <c r="E294">
+        <v>0.9995524811773767</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>41481</v>
+      </c>
+      <c r="B295">
+        <v>1.008712753485417</v>
+      </c>
+      <c r="C295">
+        <v>1.002581251217713</v>
+      </c>
+      <c r="D295">
+        <v>0.9973315244748874</v>
+      </c>
+      <c r="E295">
+        <v>0.9995665760884346</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>41484</v>
+      </c>
+      <c r="B296">
+        <v>1.008677334757464</v>
+      </c>
+      <c r="C296">
+        <v>1.00282741251594</v>
+      </c>
+      <c r="D296">
+        <v>0.9974224120508444</v>
+      </c>
+      <c r="E296">
+        <v>0.9998234116228305</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>41485</v>
+      </c>
+      <c r="B297">
+        <v>1.008653972469702</v>
+      </c>
+      <c r="C297">
+        <v>1.003199916532234</v>
+      </c>
+      <c r="D297">
+        <v>0.9975948597058418</v>
+      </c>
+      <c r="E297">
+        <v>0.9997427458432725</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>41486</v>
+      </c>
+      <c r="B298">
+        <v>1.00863346610867</v>
+      </c>
+      <c r="C298">
+        <v>1.003936334386092</v>
+      </c>
+      <c r="D298">
+        <v>0.9978198718265266</v>
+      </c>
+      <c r="E298">
+        <v>0.9995151510604298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B299">
+        <v>1.008561825551581</v>
+      </c>
+      <c r="C299">
+        <v>1.004190605085078</v>
+      </c>
+      <c r="D299">
+        <v>0.9964839455449956</v>
+      </c>
+      <c r="E299">
+        <v>0.9998576270780425</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>41488</v>
+      </c>
+      <c r="B300">
+        <v>1.008530234038086</v>
+      </c>
+      <c r="C300">
+        <v>1.004520991614544</v>
+      </c>
+      <c r="D300">
+        <v>0.9962383231992413</v>
+      </c>
+      <c r="E300">
+        <v>0.9996807780505318</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>41491</v>
+      </c>
+      <c r="B301">
+        <v>1.008487628864353</v>
+      </c>
+      <c r="C301">
+        <v>1.004524504845863</v>
+      </c>
+      <c r="D301">
+        <v>0.9963056246465909</v>
+      </c>
+      <c r="E301">
+        <v>0.9996604135177707</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>41492</v>
+      </c>
+      <c r="B302">
+        <v>1.008516533537112</v>
+      </c>
+      <c r="C302">
+        <v>1.006278184024822</v>
+      </c>
+      <c r="D302">
+        <v>0.9959348417208734</v>
+      </c>
+      <c r="E302">
+        <v>0.9989841316762909</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>41493</v>
+      </c>
+      <c r="B303">
+        <v>1.008480051429795</v>
+      </c>
+      <c r="C303">
+        <v>1.006426720417026</v>
+      </c>
+      <c r="D303">
+        <v>0.9964884812076723</v>
+      </c>
+      <c r="E303">
+        <v>0.9991181689207801</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>41494</v>
+      </c>
+      <c r="B304">
+        <v>1.008311709028381</v>
+      </c>
+      <c r="C304">
+        <v>1.003794195892247</v>
+      </c>
+      <c r="D304">
+        <v>0.9968611352966827</v>
+      </c>
+      <c r="E304">
+        <v>0.9990879472741001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>41495</v>
+      </c>
+      <c r="B305">
+        <v>1.008256332575615</v>
+      </c>
+      <c r="C305">
+        <v>1.003237901875322</v>
+      </c>
+      <c r="D305">
+        <v>0.9968244492306895</v>
+      </c>
+      <c r="E305">
+        <v>0.9985198064497713</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>41498</v>
+      </c>
+      <c r="B306">
+        <v>1.008157838501409</v>
+      </c>
+      <c r="C306">
+        <v>1.001483223123907</v>
+      </c>
+      <c r="D306">
+        <v>0.9971416726806274</v>
+      </c>
+      <c r="E306">
+        <v>0.9973641293528797</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>41499</v>
+      </c>
+      <c r="B307">
+        <v>1.008095334149987</v>
+      </c>
+      <c r="C307">
+        <v>1.001738054521587</v>
+      </c>
+      <c r="D307">
+        <v>0.9966724990303469</v>
+      </c>
+      <c r="E307">
+        <v>0.9973418173344608</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>41500</v>
+      </c>
+      <c r="B308">
+        <v>1.00801160105244</v>
+      </c>
+      <c r="C308">
+        <v>1.000541217408297</v>
+      </c>
+      <c r="D308">
+        <v>0.9974595831168337</v>
+      </c>
+      <c r="E308">
+        <v>0.9970216398720053</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>41501</v>
+      </c>
+      <c r="B309">
+        <v>1.007914379641684</v>
+      </c>
+      <c r="C309">
+        <v>0.9986463101071372</v>
+      </c>
+      <c r="D309">
+        <v>0.9984675107030079</v>
+      </c>
+      <c r="E309">
+        <v>0.9969143049824551</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>41502</v>
+      </c>
+      <c r="B310">
+        <v>1.00787993188355</v>
+      </c>
+      <c r="C310">
+        <v>0.9989105357917615</v>
+      </c>
+      <c r="D310">
+        <v>0.9982591052977712</v>
+      </c>
+      <c r="E310">
+        <v>0.9973942547918426</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>41505</v>
+      </c>
+      <c r="B311">
+        <v>1.007876404238272</v>
+      </c>
+      <c r="C311">
+        <v>0.9996977574409445</v>
+      </c>
+      <c r="D311">
+        <v>0.9992087366142176</v>
+      </c>
+      <c r="E311">
+        <v>0.9971699823086118</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>41506</v>
+      </c>
+      <c r="B312">
+        <v>1.007798676471577</v>
+      </c>
+      <c r="C312">
+        <v>0.9985871750417825</v>
+      </c>
+      <c r="D312">
+        <v>0.9993840237847486</v>
+      </c>
+      <c r="E312">
+        <v>0.9970330207868845</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>41507</v>
+      </c>
+      <c r="B313">
+        <v>1.0078093364304</v>
+      </c>
+      <c r="C313">
+        <v>0.9998586841456848</v>
+      </c>
+      <c r="D313">
+        <v>0.9995663442815625</v>
+      </c>
+      <c r="E313">
+        <v>0.9970470335401852</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>41508</v>
+      </c>
+      <c r="B314">
+        <v>1.007715543971045</v>
+      </c>
+      <c r="C314">
+        <v>0.9987513803285402</v>
+      </c>
+      <c r="D314">
+        <v>0.9991438576192583</v>
+      </c>
+      <c r="E314">
+        <v>0.9972337120820699</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>41509</v>
+      </c>
+      <c r="B315">
+        <v>1.007629937409265</v>
+      </c>
+      <c r="C315">
+        <v>0.997786008915706</v>
+      </c>
+      <c r="D315">
+        <v>0.9992438427453307</v>
+      </c>
+      <c r="E315">
+        <v>0.9971441776884643</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>41512</v>
+      </c>
+      <c r="B316">
+        <v>1.007580885763921</v>
+      </c>
+      <c r="C316">
+        <v>0.9974300351409831</v>
+      </c>
+      <c r="D316">
+        <v>0.999584909619575</v>
+      </c>
+      <c r="E316">
+        <v>0.9969563908994219</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>41513</v>
+      </c>
+      <c r="B317">
+        <v>1.007632773947985</v>
+      </c>
+      <c r="C317">
+        <v>0.9991346461827737</v>
+      </c>
+      <c r="D317">
+        <v>1.000210187096098</v>
+      </c>
+      <c r="E317">
+        <v>0.9971361580174029</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>41514</v>
+      </c>
+      <c r="B318">
+        <v>1.007623335221912</v>
+      </c>
+      <c r="C318">
+        <v>0.9996233471090328</v>
+      </c>
+      <c r="D318">
+        <v>0.9996443579467579</v>
+      </c>
+      <c r="E318">
+        <v>0.9970119299759824</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>41515</v>
+      </c>
+      <c r="B319">
+        <v>1.007548162900956</v>
+      </c>
+      <c r="C319">
+        <v>0.9993923683489233</v>
+      </c>
+      <c r="D319">
+        <v>0.9996117053121139</v>
+      </c>
+      <c r="E319">
+        <v>0.9970693426597859</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>41516</v>
+      </c>
+      <c r="B320">
+        <v>1.007524793346524</v>
+      </c>
+      <c r="C320">
+        <v>0.9998222611982104</v>
+      </c>
+      <c r="D320">
+        <v>0.9997380229716367</v>
+      </c>
+      <c r="E320">
+        <v>0.9971350883498423</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>41520</v>
+      </c>
+      <c r="B321">
+        <v>1.007445836182068</v>
+      </c>
+      <c r="C321">
+        <v>0.9992446295508728</v>
+      </c>
+      <c r="D321">
+        <v>0.999497092113008</v>
+      </c>
+      <c r="E321">
+        <v>0.9971528817807247</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>41521</v>
+      </c>
+      <c r="B322">
+        <v>1.007395872631495</v>
+      </c>
+      <c r="C322">
+        <v>0.9991489071608539</v>
+      </c>
+      <c r="D322">
+        <v>0.9991938175228867</v>
+      </c>
+      <c r="E322">
+        <v>0.9967322041819908</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>41522</v>
+      </c>
+      <c r="B323">
+        <v>1.007381378081876</v>
+      </c>
+      <c r="C323">
+        <v>0.9997531001514306</v>
+      </c>
+      <c r="D323">
+        <v>0.9979432462038067</v>
+      </c>
+      <c r="E323">
+        <v>0.9968613387041912</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>41523</v>
+      </c>
+      <c r="B324">
+        <v>1.007338803727496</v>
+      </c>
+      <c r="C324">
+        <v>0.9996379493233772</v>
+      </c>
+      <c r="D324">
+        <v>0.9984773527767522</v>
+      </c>
+      <c r="E324">
+        <v>0.996962275412824</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>41526</v>
+      </c>
+      <c r="B325">
+        <v>1.007303464716604</v>
+      </c>
+      <c r="C325">
+        <v>0.9998345898385238</v>
+      </c>
+      <c r="D325">
+        <v>0.9978063618982131</v>
+      </c>
+      <c r="E325">
+        <v>0.9965473009142004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>41527</v>
+      </c>
+      <c r="B326">
+        <v>1.007284662576061</v>
+      </c>
+      <c r="C326">
+        <v>1.001044382403674</v>
+      </c>
+      <c r="D326">
+        <v>0.9973262970045431</v>
+      </c>
+      <c r="E326">
+        <v>0.997170543764733</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>41528</v>
+      </c>
+      <c r="B327">
+        <v>1.007240679161623</v>
+      </c>
+      <c r="C327">
+        <v>1.000955280539605</v>
+      </c>
+      <c r="D327">
+        <v>0.9974463942328115</v>
+      </c>
+      <c r="E327">
+        <v>0.99773799880214</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>41529</v>
+      </c>
+      <c r="B328">
+        <v>1.007282187508239</v>
+      </c>
+      <c r="C328">
+        <v>1.002716451197873</v>
+      </c>
+      <c r="D328">
+        <v>0.9973734468756325</v>
+      </c>
+      <c r="E328">
+        <v>0.9976618693079402</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>41530</v>
+      </c>
+      <c r="B329">
+        <v>1.007228265098133</v>
+      </c>
+      <c r="C329">
+        <v>1.002139803382603</v>
+      </c>
+      <c r="D329">
+        <v>0.9977707743337436</v>
+      </c>
+      <c r="E329">
+        <v>0.9977373530910963</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>41533</v>
+      </c>
+      <c r="B330">
+        <v>1.007174445725431</v>
+      </c>
+      <c r="C330">
+        <v>1.00208664816119</v>
+      </c>
+      <c r="D330">
+        <v>0.9971369895998607</v>
+      </c>
+      <c r="E330">
+        <v>0.9978941523013776</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>41534</v>
+      </c>
+      <c r="B331">
+        <v>1.007113199697637</v>
+      </c>
+      <c r="C331">
+        <v>1.001634014505876</v>
+      </c>
+      <c r="D331">
+        <v>0.9972616115599329</v>
+      </c>
+      <c r="E331">
+        <v>0.99767834443231</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>41535</v>
+      </c>
+      <c r="B332">
+        <v>1.007027567166882</v>
+      </c>
+      <c r="C332">
+        <v>0.9993828258920683</v>
+      </c>
+      <c r="D332">
+        <v>0.9985976398169756</v>
+      </c>
+      <c r="E332">
+        <v>0.9976419576488538</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>41536</v>
+      </c>
+      <c r="B333">
+        <v>1.007003747619567</v>
+      </c>
+      <c r="C333">
+        <v>1.000048548137782</v>
+      </c>
+      <c r="D333">
+        <v>0.9982298346564417</v>
+      </c>
+      <c r="E333">
+        <v>0.9975537602714247</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>41537</v>
+      </c>
+      <c r="B334">
+        <v>1.00704681719736</v>
+      </c>
+      <c r="C334">
+        <v>1.00211885711297</v>
+      </c>
+      <c r="D334">
+        <v>0.9985513097978329</v>
+      </c>
+      <c r="E334">
+        <v>0.9990764440814419</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>41540</v>
+      </c>
+      <c r="B335">
+        <v>1.007037851018352</v>
+      </c>
+      <c r="C335">
+        <v>1.002731318067192</v>
+      </c>
+      <c r="D335">
+        <v>0.9984299779572039</v>
+      </c>
+      <c r="E335">
+        <v>0.9991348564899811</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>41541</v>
+      </c>
+      <c r="B336">
+        <v>1.006995279686826</v>
+      </c>
+      <c r="C336">
+        <v>1.002697618400407</v>
+      </c>
+      <c r="D336">
+        <v>0.9984103628601144</v>
+      </c>
+      <c r="E336">
+        <v>0.9995208018723853</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>41542</v>
+      </c>
+      <c r="B337">
+        <v>1.006944021553488</v>
+      </c>
+      <c r="C337">
+        <v>1.002190328136039</v>
+      </c>
+      <c r="D337">
+        <v>0.999012942447715</v>
+      </c>
+      <c r="E337">
+        <v>0.999948944959244</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>41543</v>
+      </c>
+      <c r="B338">
+        <v>1.006905802585856</v>
+      </c>
+      <c r="C338">
+        <v>1.002624257174312</v>
+      </c>
+      <c r="D338">
+        <v>0.9986032951183121</v>
+      </c>
+      <c r="E338">
+        <v>1.000101629156893</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>41544</v>
+      </c>
+      <c r="B339">
+        <v>1.006878880902099</v>
+      </c>
+      <c r="C339">
+        <v>1.002682852011723</v>
+      </c>
+      <c r="D339">
+        <v>0.9987827770952123</v>
+      </c>
+      <c r="E339">
+        <v>0.9999997533684156</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B340">
+        <v>1.006859471868992</v>
+      </c>
+      <c r="C340">
+        <v>1.00279551845577</v>
+      </c>
+      <c r="D340">
+        <v>0.9995097659951636</v>
+      </c>
+      <c r="E340">
+        <v>1.000006737860549</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B341">
+        <v>1.0068393650725</v>
+      </c>
+      <c r="C341">
+        <v>1.003311333613222</v>
+      </c>
+      <c r="D341">
+        <v>0.9985524803140016</v>
+      </c>
+      <c r="E341">
+        <v>1.000190428295114</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>41549</v>
+      </c>
+      <c r="B342">
+        <v>1.006806327360571</v>
+      </c>
+      <c r="C342">
+        <v>1.003225984998047</v>
+      </c>
+      <c r="D342">
+        <v>0.998764235502673</v>
+      </c>
+      <c r="E342">
+        <v>0.9999795605235258</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>41550</v>
+      </c>
+      <c r="B343">
+        <v>1.006796644657517</v>
+      </c>
+      <c r="C343">
+        <v>1.003972757560182</v>
+      </c>
+      <c r="D343">
+        <v>0.9993987360840803</v>
+      </c>
+      <c r="E343">
+        <v>1.000111540874152</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>41551</v>
+      </c>
+      <c r="B344">
+        <v>1.006737941458879</v>
+      </c>
+      <c r="C344">
+        <v>1.004093371632718</v>
+      </c>
+      <c r="D344">
+        <v>0.9989971155326381</v>
+      </c>
+      <c r="E344">
+        <v>1.000324760916315</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>41554</v>
+      </c>
+      <c r="B345">
+        <v>1.00670148419317</v>
+      </c>
+      <c r="C345">
+        <v>1.003619921820033</v>
+      </c>
+      <c r="D345">
+        <v>0.99924566662998</v>
+      </c>
+      <c r="E345">
+        <v>0.9998574900106141</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>41555</v>
+      </c>
+      <c r="B346">
+        <v>1.006702691668447</v>
+      </c>
+      <c r="C346">
+        <v>1.004747590088273</v>
+      </c>
+      <c r="D346">
+        <v>0.9993233931784715</v>
+      </c>
+      <c r="E346">
+        <v>0.9997484549358241</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>41556</v>
+      </c>
+      <c r="B347">
+        <v>1.006645119822679</v>
+      </c>
+      <c r="C347">
+        <v>1.004500872423767</v>
+      </c>
+      <c r="D347">
+        <v>0.9992259081776006</v>
+      </c>
+      <c r="E347">
+        <v>0.9995541916972606</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>41557</v>
+      </c>
+      <c r="B348">
+        <v>1.006563269854724</v>
+      </c>
+      <c r="C348">
+        <v>1.004272351834187</v>
+      </c>
+      <c r="D348">
+        <v>0.9980038270060034</v>
+      </c>
+      <c r="E348">
+        <v>0.999919638010663</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>41558</v>
+      </c>
+      <c r="B349">
+        <v>1.006543363548371</v>
+      </c>
+      <c r="C349">
+        <v>1.004969246668359</v>
+      </c>
+      <c r="D349">
+        <v>0.9976242019261314</v>
+      </c>
+      <c r="E349">
+        <v>1.000201399318003</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>41561</v>
+      </c>
+      <c r="B350">
+        <v>1.006500858783848</v>
+      </c>
+      <c r="C350">
+        <v>1.00497251636816</v>
+      </c>
+      <c r="D350">
+        <v>0.9976911656310038</v>
+      </c>
+      <c r="E350">
+        <v>1.000181276329465</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>41562</v>
+      </c>
+      <c r="B351">
+        <v>1.0064220970719</v>
+      </c>
+      <c r="C351">
+        <v>1.004164303552964</v>
+      </c>
+      <c r="D351">
+        <v>0.9979613951382725</v>
+      </c>
+      <c r="E351">
+        <v>0.9999150710362532</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>41563</v>
+      </c>
+      <c r="B352">
+        <v>1.006397094875052</v>
+      </c>
+      <c r="C352">
+        <v>1.004771272436187</v>
+      </c>
+      <c r="D352">
+        <v>0.9974834696664396</v>
+      </c>
+      <c r="E352">
+        <v>1.000159314366591</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>41564</v>
+      </c>
+      <c r="B353">
+        <v>1.006287808601085</v>
+      </c>
+      <c r="C353">
+        <v>1.003295751889026</v>
+      </c>
+      <c r="D353">
+        <v>0.9979180333625478</v>
+      </c>
+      <c r="E353">
+        <v>1.000044358231081</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>41565</v>
+      </c>
+      <c r="B354">
+        <v>1.00622706142751</v>
+      </c>
+      <c r="C354">
+        <v>1.003298918763006</v>
+      </c>
+      <c r="D354">
+        <v>0.9972673694596904</v>
+      </c>
+      <c r="E354">
+        <v>1.000002788155003</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>41568</v>
+      </c>
+      <c r="B355">
+        <v>1.006142155501992</v>
+      </c>
+      <c r="C355">
+        <v>1.002428300851949</v>
+      </c>
+      <c r="D355">
+        <v>0.9975758571706667</v>
+      </c>
+      <c r="E355">
+        <v>1.000090042511773</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>41569</v>
+      </c>
+      <c r="B356">
+        <v>1.006057370231768</v>
+      </c>
+      <c r="C356">
+        <v>1.001134835163895</v>
+      </c>
+      <c r="D356">
+        <v>0.9979795125634969</v>
+      </c>
+      <c r="E356">
+        <v>1.000105212060622</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>41570</v>
+      </c>
+      <c r="B357">
+        <v>1.006021233205671</v>
+      </c>
+      <c r="C357">
+        <v>1.001696835502704</v>
+      </c>
+      <c r="D357">
+        <v>0.997782106030062</v>
+      </c>
+      <c r="E357">
+        <v>1.000120466907748</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>41571</v>
+      </c>
+      <c r="B358">
+        <v>1.005903925742454</v>
+      </c>
+      <c r="C358">
+        <v>0.9997425595258338</v>
+      </c>
+      <c r="D358">
+        <v>0.9980800411231381</v>
+      </c>
+      <c r="E358">
+        <v>0.9999135263214527</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>41572</v>
+      </c>
+      <c r="B359">
+        <v>1.005849587330933</v>
+      </c>
+      <c r="C359">
+        <v>0.9993167881341124</v>
+      </c>
+      <c r="D359">
+        <v>0.997955569810819</v>
+      </c>
+      <c r="E359">
+        <v>1.000012336551314</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>41575</v>
+      </c>
+      <c r="B360">
+        <v>1.005802034929307</v>
+      </c>
+      <c r="C360">
+        <v>0.9992667925163419</v>
+      </c>
+      <c r="D360">
+        <v>0.9984361404797174</v>
+      </c>
+      <c r="E360">
+        <v>0.9999043847969258</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>41576</v>
+      </c>
+      <c r="B361">
+        <v>1.005790396873498</v>
+      </c>
+      <c r="C361">
+        <v>0.9998889137073019</v>
+      </c>
+      <c r="D361">
+        <v>0.9977229352754302</v>
+      </c>
+      <c r="E361">
+        <v>0.9998668128356668</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>41577</v>
+      </c>
+      <c r="B362">
+        <v>1.005715295393304</v>
+      </c>
+      <c r="C362">
+        <v>0.9992854255575853</v>
+      </c>
+      <c r="D362">
+        <v>0.9982046610237454</v>
+      </c>
+      <c r="E362">
+        <v>0.9999475261307268</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>41578</v>
+      </c>
+      <c r="B363">
+        <v>1.005749791134857</v>
+      </c>
+      <c r="C363">
+        <v>1.000779756211251</v>
+      </c>
+      <c r="D363">
+        <v>0.9985082697138361</v>
+      </c>
+      <c r="E363">
+        <v>1.000264737636733</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B364">
+        <v>1.005732197933426</v>
+      </c>
+      <c r="C364">
+        <v>1.001905762491034</v>
+      </c>
+      <c r="D364">
+        <v>0.9980892286939482</v>
+      </c>
+      <c r="E364">
+        <v>1.000491717491665</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>41582</v>
+      </c>
+      <c r="B365">
+        <v>1.005643776980917</v>
+      </c>
+      <c r="C365">
+        <v>1.001060777325994</v>
+      </c>
+      <c r="D365">
+        <v>0.9987859653754404</v>
+      </c>
+      <c r="E365">
+        <v>1.002006759709901</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>41583</v>
+      </c>
+      <c r="B366">
+        <v>1.00559412003599</v>
+      </c>
+      <c r="C366">
+        <v>1.001315226465494</v>
+      </c>
+      <c r="D366">
+        <v>0.9983339057215417</v>
+      </c>
+      <c r="E366">
+        <v>1.001788493339657</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>41584</v>
+      </c>
+      <c r="B367">
+        <v>1.005535115922387</v>
+      </c>
+      <c r="C367">
+        <v>1.001236812203031</v>
+      </c>
+      <c r="D367">
+        <v>0.9987541438452793</v>
+      </c>
+      <c r="E367">
+        <v>1.001712788803002</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>41585</v>
+      </c>
+      <c r="B368">
+        <v>1.005531983226315</v>
+      </c>
+      <c r="C368">
+        <v>1.002452900390977</v>
+      </c>
+      <c r="D368">
+        <v>0.9990708684217977</v>
+      </c>
+      <c r="E368">
+        <v>1.001776182590561</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>41586</v>
+      </c>
+      <c r="B369">
+        <v>1.00547911311711</v>
+      </c>
+      <c r="C369">
+        <v>1.002073683129686</v>
+      </c>
+      <c r="D369">
+        <v>0.9986402371449832</v>
+      </c>
+      <c r="E369">
+        <v>1.001848004957049</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>41589</v>
+      </c>
+      <c r="B370">
+        <v>1.005432714695418</v>
+      </c>
+      <c r="C370">
+        <v>1.002004537667873</v>
+      </c>
+      <c r="D370">
+        <v>0.9988199158074484</v>
+      </c>
+      <c r="E370">
+        <v>1.001925515862671</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>41590</v>
+      </c>
+      <c r="B371">
+        <v>1.005399760614469</v>
+      </c>
+      <c r="C371">
+        <v>1.002513074897725</v>
+      </c>
+      <c r="D371">
+        <v>0.9988885502499214</v>
+      </c>
+      <c r="E371">
+        <v>1.001849664434666</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>41591</v>
+      </c>
+      <c r="B372">
+        <v>1.00536716595679</v>
+      </c>
+      <c r="C372">
+        <v>1.002555167474615</v>
+      </c>
+      <c r="D372">
+        <v>0.9989655239019178</v>
+      </c>
+      <c r="E372">
+        <v>1.001807674605005</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>41592</v>
+      </c>
+      <c r="B373">
+        <v>1.00530567074445</v>
+      </c>
+      <c r="C373">
+        <v>1.001788377914185</v>
+      </c>
+      <c r="D373">
+        <v>0.9991639194655253</v>
+      </c>
+      <c r="E373">
+        <v>1.00184915679331</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>41593</v>
+      </c>
+      <c r="B374">
+        <v>1.005283484641165</v>
+      </c>
+      <c r="C374">
+        <v>1.002046120758627</v>
+      </c>
+      <c r="D374">
+        <v>0.99880381512665</v>
+      </c>
+      <c r="E374">
+        <v>1.002029176069998</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>41596</v>
+      </c>
+      <c r="B375">
+        <v>1.005258330333492</v>
+      </c>
+      <c r="C375">
+        <v>1.002851682510711</v>
+      </c>
+      <c r="D375">
+        <v>0.9988584430071372</v>
+      </c>
+      <c r="E375">
+        <v>1.002490337351995</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>41597</v>
+      </c>
+      <c r="B376">
+        <v>1.005220726457801</v>
+      </c>
+      <c r="C376">
+        <v>1.00276279364183</v>
+      </c>
+      <c r="D376">
+        <v>0.9991846284717512</v>
+      </c>
+      <c r="E376">
+        <v>1.002582995466289</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>41598</v>
+      </c>
+      <c r="B377">
+        <v>1.005216099934554</v>
+      </c>
+      <c r="C377">
+        <v>1.003685829550471</v>
+      </c>
+      <c r="D377">
+        <v>0.9988475647876904</v>
+      </c>
+      <c r="E377">
+        <v>1.002609272171594</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>41599</v>
+      </c>
+      <c r="B378">
+        <v>1.005172253573179</v>
+      </c>
+      <c r="C378">
+        <v>1.003692613339029</v>
+      </c>
+      <c r="D378">
+        <v>0.9984241248528876</v>
+      </c>
+      <c r="E378">
+        <v>1.002768628887735</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>41600</v>
+      </c>
+      <c r="B379">
+        <v>1.005133464858899</v>
+      </c>
+      <c r="C379">
+        <v>1.003988321478956</v>
+      </c>
+      <c r="D379">
+        <v>0.9982582690763149</v>
+      </c>
+      <c r="E379">
+        <v>1.002523901534739</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>41603</v>
+      </c>
+      <c r="B380">
+        <v>1.005085342988123</v>
+      </c>
+      <c r="C380">
+        <v>1.003825866905964</v>
+      </c>
+      <c r="D380">
+        <v>0.9984735077502396</v>
+      </c>
+      <c r="E380">
+        <v>1.002329361605416</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>41604</v>
+      </c>
+      <c r="B381">
+        <v>1.00506583993895</v>
+      </c>
+      <c r="C381">
+        <v>1.004676247701035</v>
+      </c>
+      <c r="D381">
+        <v>0.9987391479004004</v>
+      </c>
+      <c r="E381">
+        <v>1.001775308972608</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>41605</v>
+      </c>
+      <c r="B382">
+        <v>1.005008977361483</v>
+      </c>
+      <c r="C382">
+        <v>1.004332027279848</v>
+      </c>
+      <c r="D382">
+        <v>0.9990100084433805</v>
+      </c>
+      <c r="E382">
+        <v>1.001769611522353</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>41606</v>
+      </c>
+      <c r="B383">
+        <v>1.00493767785823</v>
+      </c>
+      <c r="C383">
+        <v>1.003974505886891</v>
+      </c>
+      <c r="D383">
+        <v>0.9990086481980551</v>
+      </c>
+      <c r="E383">
+        <v>1.001796976131266</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
+        <v>41607</v>
+      </c>
+      <c r="B384">
+        <v>1.004886322267256</v>
+      </c>
+      <c r="C384">
+        <v>1.003665925443442</v>
+      </c>
+      <c r="D384">
+        <v>0.9992298102287973</v>
+      </c>
+      <c r="E384">
+        <v>1.001718904513603</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
+        <v>41610</v>
+      </c>
+      <c r="B385">
+        <v>1.004903488773012</v>
+      </c>
+      <c r="C385">
+        <v>1.004954990194859</v>
+      </c>
+      <c r="D385">
+        <v>0.9982252350252792</v>
+      </c>
+      <c r="E385">
+        <v>1.00186960035254</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="2">
+        <v>41611</v>
+      </c>
+      <c r="B386">
+        <v>1.004892915164198</v>
+      </c>
+      <c r="C386">
+        <v>1.005417812669176</v>
+      </c>
+      <c r="D386">
+        <v>0.9985070056787904</v>
+      </c>
+      <c r="E386">
+        <v>1.001903229759775</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2">
+        <v>41612</v>
+      </c>
+      <c r="B387">
+        <v>1.004832488267298</v>
+      </c>
+      <c r="C387">
+        <v>1.004627777721726</v>
+      </c>
+      <c r="D387">
+        <v>0.9990266366882246</v>
+      </c>
+      <c r="E387">
+        <v>1.002027357626171</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
+        <v>41613</v>
+      </c>
+      <c r="B388">
+        <v>1.004818478818235</v>
+      </c>
+      <c r="C388">
+        <v>1.005593309598995</v>
+      </c>
+      <c r="D388">
+        <v>0.9992349925336103</v>
+      </c>
+      <c r="E388">
+        <v>1.002413472152205</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
+        <v>41614</v>
+      </c>
+      <c r="B389">
+        <v>1.004757667013457</v>
+      </c>
+      <c r="C389">
+        <v>1.005518446149094</v>
+      </c>
+      <c r="D389">
+        <v>0.9990065120244735</v>
+      </c>
+      <c r="E389">
+        <v>1.002481196412469</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="2">
+        <v>41617</v>
+      </c>
+      <c r="B390">
+        <v>1.004695860066182</v>
+      </c>
+      <c r="C390">
+        <v>1.004944786905211</v>
+      </c>
+      <c r="D390">
+        <v>0.9993806232848399</v>
+      </c>
+      <c r="E390">
+        <v>1.002673889998984</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
+        <v>41618</v>
+      </c>
+      <c r="B391">
+        <v>1.004627048035258</v>
+      </c>
+      <c r="C391">
+        <v>1.003900504591667</v>
+      </c>
+      <c r="D391">
+        <v>0.9999433618022249</v>
+      </c>
+      <c r="E391">
+        <v>1.002149916194313</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
+        <v>41619</v>
+      </c>
+      <c r="B392">
+        <v>1.004640410592327</v>
+      </c>
+      <c r="C392">
+        <v>1.005436250507191</v>
+      </c>
+      <c r="D392">
+        <v>1.000579247073315</v>
+      </c>
+      <c r="E392">
+        <v>1.00189189303613</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
+        <v>41620</v>
+      </c>
+      <c r="B393">
+        <v>1.00462731343539</v>
+      </c>
+      <c r="C393">
+        <v>1.005825062597915</v>
+      </c>
+      <c r="D393">
+        <v>1.000520658310178</v>
+      </c>
+      <c r="E393">
+        <v>1.001911617922822</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
+        <v>41621</v>
+      </c>
+      <c r="B394">
+        <v>1.004575545114315</v>
+      </c>
+      <c r="C394">
+        <v>1.005759068349187</v>
+      </c>
+      <c r="D394">
+        <v>1.000431087342843</v>
+      </c>
+      <c r="E394">
+        <v>1.001698690770097</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="2">
+        <v>41624</v>
+      </c>
+      <c r="B395">
+        <v>1.004500914739041</v>
+      </c>
+      <c r="C395">
+        <v>1.005477898605677</v>
+      </c>
+      <c r="D395">
+        <v>1.00023294287821</v>
+      </c>
+      <c r="E395">
+        <v>1.001531667260233</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2">
+        <v>41625</v>
+      </c>
+      <c r="B396">
+        <v>1.004455636369996</v>
+      </c>
+      <c r="C396">
+        <v>1.00555449942812</v>
+      </c>
+      <c r="D396">
+        <v>1.000267629762316</v>
+      </c>
+      <c r="E396">
+        <v>1.001602370777774</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2">
+        <v>41626</v>
+      </c>
+      <c r="B397">
+        <v>1.004389631398072</v>
+      </c>
+      <c r="C397">
+        <v>1.00545523211596</v>
+      </c>
+      <c r="D397">
+        <v>0.9993751320898685</v>
+      </c>
+      <c r="E397">
+        <v>1.001947500291036</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2">
+        <v>41627</v>
+      </c>
+      <c r="B398">
+        <v>1.00435776368852</v>
+      </c>
+      <c r="C398">
+        <v>1.005672507608392</v>
+      </c>
+      <c r="D398">
+        <v>0.9986984565633735</v>
+      </c>
+      <c r="E398">
+        <v>1.00185045902471</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2">
+        <v>41628</v>
+      </c>
+      <c r="B399">
+        <v>1.004301721700745</v>
+      </c>
+      <c r="C399">
+        <v>1.005567141385373</v>
+      </c>
+      <c r="D399">
+        <v>0.9981609201464559</v>
+      </c>
+      <c r="E399">
+        <v>1.000330603710136</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="2">
+        <v>41631</v>
+      </c>
+      <c r="B400">
+        <v>1.00426523754209</v>
+      </c>
+      <c r="C400">
+        <v>1.005579339820904</v>
+      </c>
+      <c r="D400">
+        <v>0.9978037451016932</v>
+      </c>
+      <c r="E400">
+        <v>1.000138456326568</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="2">
+        <v>41632</v>
+      </c>
+      <c r="B401">
+        <v>1.004185330791986</v>
+      </c>
+      <c r="C401">
+        <v>1.004555586628413</v>
+      </c>
+      <c r="D401">
+        <v>0.9978783403500747</v>
+      </c>
+      <c r="E401">
+        <v>0.9998080141167396</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2">
+        <v>41634</v>
+      </c>
+      <c r="B402">
+        <v>1.004143128999723</v>
+      </c>
+      <c r="C402">
+        <v>1.004555823050528</v>
+      </c>
+      <c r="D402">
+        <v>0.9979399814599852</v>
+      </c>
+      <c r="E402">
+        <v>0.9997910182486865</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="2">
+        <v>41635</v>
+      </c>
+      <c r="B403">
+        <v>1.004059893296955</v>
+      </c>
+      <c r="C403">
+        <v>1.00381715174949</v>
+      </c>
+      <c r="D403">
+        <v>0.9980384897797895</v>
+      </c>
+      <c r="E403">
+        <v>1.000321629661876</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="2">
+        <v>41638</v>
+      </c>
+      <c r="B404">
+        <v>1.004042922671518</v>
+      </c>
+      <c r="C404">
+        <v>1.004790777362226</v>
+      </c>
+      <c r="D404">
+        <v>0.9977296821508305</v>
+      </c>
+      <c r="E404">
+        <v>1.000517238126601</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B405">
+        <v>1.003986110907644</v>
+      </c>
+      <c r="C405">
+        <v>1.004233867778462</v>
+      </c>
+      <c r="D405">
+        <v>0.997960929600573</v>
+      </c>
+      <c r="E405">
+        <v>1.000229149845573</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="2">
+        <v>41641</v>
+      </c>
+      <c r="B406">
+        <v>1.003902120951198</v>
+      </c>
+      <c r="C406">
+        <v>1.002998444948499</v>
+      </c>
+      <c r="D406">
+        <v>0.9986897602835779</v>
+      </c>
+      <c r="E406">
+        <v>0.9996106424613492</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="2">
+        <v>41642</v>
+      </c>
+      <c r="B407">
+        <v>1.003874517841763</v>
+      </c>
+      <c r="C407">
+        <v>1.003504427542537</v>
+      </c>
+      <c r="D407">
+        <v>0.9989320526080276</v>
+      </c>
+      <c r="E407">
+        <v>0.999661571235901</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2">
+        <v>41645</v>
+      </c>
+      <c r="B408">
+        <v>1.003837511395166</v>
+      </c>
+      <c r="C408">
+        <v>1.00332352528576</v>
+      </c>
+      <c r="D408">
+        <v>0.9992381464693705</v>
+      </c>
+      <c r="E408">
+        <v>0.9990410360989782</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="2">
+        <v>41646</v>
+      </c>
+      <c r="B409">
+        <v>1.003778281794</v>
+      </c>
+      <c r="C409">
+        <v>1.002907032493564</v>
+      </c>
+      <c r="D409">
+        <v>0.9985268447949478</v>
+      </c>
+      <c r="E409">
+        <v>0.998490879811155</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="2">
+        <v>41647</v>
+      </c>
+      <c r="B410">
+        <v>1.003716475746502</v>
+      </c>
+      <c r="C410">
+        <v>1.002885197480892</v>
+      </c>
+      <c r="D410">
+        <v>0.9982522389269533</v>
+      </c>
+      <c r="E410">
+        <v>0.9985081793796641</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2">
+        <v>41648</v>
+      </c>
+      <c r="B411">
+        <v>1.003687416615138</v>
+      </c>
+      <c r="C411">
+        <v>1.00325782877279</v>
+      </c>
+      <c r="D411">
+        <v>0.9979868611174316</v>
+      </c>
+      <c r="E411">
+        <v>0.9982864708067599</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="2">
+        <v>41649</v>
+      </c>
+      <c r="B412">
+        <v>1.003600971814253</v>
+      </c>
+      <c r="C412">
+        <v>1.002044255504051</v>
+      </c>
+      <c r="D412">
+        <v>0.9978452671729978</v>
+      </c>
+      <c r="E412">
+        <v>0.9983010661750199</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2">
+        <v>41652</v>
+      </c>
+      <c r="B413">
+        <v>1.003528149060021</v>
+      </c>
+      <c r="C413">
+        <v>1.001473948721943</v>
+      </c>
+      <c r="D413">
+        <v>0.9988342595278399</v>
+      </c>
+      <c r="E413">
+        <v>0.9984742910886966</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="2">
+        <v>41653</v>
+      </c>
+      <c r="B414">
+        <v>1.003491459618692</v>
+      </c>
+      <c r="C414">
+        <v>1.001727543127609</v>
+      </c>
+      <c r="D414">
+        <v>0.9985324961324205</v>
+      </c>
+      <c r="E414">
+        <v>0.9985503606841741</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="2">
+        <v>41654</v>
+      </c>
+      <c r="B415">
+        <v>1.003412183491046</v>
+      </c>
+      <c r="C415">
+        <v>1.001029588654705</v>
+      </c>
+      <c r="D415">
+        <v>0.9980251451275868</v>
+      </c>
+      <c r="E415">
+        <v>0.9984384747995887</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="2">
+        <v>41655</v>
+      </c>
+      <c r="B416">
+        <v>1.003334650019359</v>
+      </c>
+      <c r="C416">
+        <v>1.000495000641035</v>
+      </c>
+      <c r="D416">
+        <v>0.9978129619795416</v>
+      </c>
+      <c r="E416">
+        <v>0.998485806826079</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="2">
+        <v>41656</v>
+      </c>
+      <c r="B417">
+        <v>1.0032658402881</v>
+      </c>
+      <c r="C417">
+        <v>0.9993701638298657</v>
+      </c>
+      <c r="D417">
+        <v>0.9981013957662097</v>
+      </c>
+      <c r="E417">
+        <v>0.99776691604774</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="2">
+        <v>41659</v>
+      </c>
+      <c r="B418">
+        <v>1.003187352252205</v>
+      </c>
+      <c r="C418">
+        <v>0.9985094271362899</v>
+      </c>
+      <c r="D418">
+        <v>0.9977901187636857</v>
+      </c>
+      <c r="E418">
+        <v>0.9970450717314777</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="2">
+        <v>41660</v>
+      </c>
+      <c r="B419">
+        <v>1.003170420165126</v>
+      </c>
+      <c r="C419">
+        <v>0.9988873320556694</v>
+      </c>
+      <c r="D419">
+        <v>0.9979870676374094</v>
+      </c>
+      <c r="E419">
+        <v>0.9969278743628509</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="2">
+        <v>41661</v>
+      </c>
+      <c r="B420">
+        <v>1.003167183377445</v>
+      </c>
+      <c r="C420">
+        <v>0.9996406253402523</v>
+      </c>
+      <c r="D420">
+        <v>0.9972737179246398</v>
+      </c>
+      <c r="E420">
+        <v>0.9960848660658451</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="2">
+        <v>41662</v>
+      </c>
+      <c r="B421">
+        <v>1.003111271779888</v>
+      </c>
+      <c r="C421">
+        <v>0.999129328738433</v>
+      </c>
+      <c r="D421">
+        <v>0.9981711372797785</v>
+      </c>
+      <c r="E421">
+        <v>0.9961292797910248</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="2">
+        <v>41663</v>
+      </c>
+      <c r="B422">
+        <v>1.003102388155366</v>
+      </c>
+      <c r="C422">
+        <v>0.9997258130253087</v>
+      </c>
+      <c r="D422">
+        <v>0.9992815078275747</v>
+      </c>
+      <c r="E422">
+        <v>0.9963475128044008</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2">
+        <v>41666</v>
+      </c>
+      <c r="B423">
+        <v>1.003092386803351</v>
+      </c>
+      <c r="C423">
+        <v>1.000569694271122</v>
+      </c>
+      <c r="D423">
+        <v>0.9993633276862098</v>
+      </c>
+      <c r="E423">
+        <v>0.9963637545797452</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="2">
+        <v>41667</v>
+      </c>
+      <c r="B424">
+        <v>1.00301632588034</v>
+      </c>
+      <c r="C424">
+        <v>0.9997272755062906</v>
+      </c>
+      <c r="D424">
+        <v>0.998946019277591</v>
+      </c>
+      <c r="E424">
+        <v>0.9962394760908821</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2">
+        <v>41668</v>
+      </c>
+      <c r="B425">
+        <v>1.002954301447495</v>
+      </c>
+      <c r="C425">
+        <v>0.9990070021418213</v>
+      </c>
+      <c r="D425">
+        <v>0.9998813083311945</v>
+      </c>
+      <c r="E425">
+        <v>0.9960252253173476</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2">
+        <v>41669</v>
+      </c>
+      <c r="B426">
+        <v>1.002913113379992</v>
+      </c>
+      <c r="C426">
+        <v>0.9994320951109228</v>
+      </c>
+      <c r="D426">
+        <v>0.9991134391614338</v>
+      </c>
+      <c r="E426">
+        <v>0.9964790869797818</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B427">
+        <v>1.002887189059706</v>
+      </c>
+      <c r="C427">
+        <v>0.9995238789458799</v>
+      </c>
+      <c r="D427">
+        <v>0.9995171634900428</v>
+      </c>
+      <c r="E427">
+        <v>0.9967697598001567</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2">
+        <v>41673</v>
+      </c>
+      <c r="B428">
+        <v>1.00290191584837</v>
+      </c>
+      <c r="C428">
+        <v>1.000385956535633</v>
+      </c>
+      <c r="D428">
+        <v>1.000931108669412</v>
+      </c>
+      <c r="E428">
+        <v>0.9967325247452464</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="2">
+        <v>41674</v>
+      </c>
+      <c r="B429">
+        <v>1.002852303438923</v>
+      </c>
+      <c r="C429">
+        <v>1.000010163572515</v>
+      </c>
+      <c r="D429">
+        <v>1.000624287460923</v>
+      </c>
+      <c r="E429">
+        <v>0.9962846749951302</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2">
+        <v>41675</v>
+      </c>
+      <c r="B430">
+        <v>1.002821021170924</v>
+      </c>
+      <c r="C430">
+        <v>1.000318373300839</v>
+      </c>
+      <c r="D430">
+        <v>1.000035785845041</v>
+      </c>
+      <c r="E430">
+        <v>0.9964009166718396</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2">
+        <v>41676</v>
+      </c>
+      <c r="B431">
+        <v>1.002757397485601</v>
+      </c>
+      <c r="C431">
+        <v>1.000066761468644</v>
+      </c>
+      <c r="D431">
+        <v>0.9991431305924882</v>
+      </c>
+      <c r="E431">
+        <v>0.9964791345002852</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B432">
+        <v>1.002659079100047</v>
+      </c>
+      <c r="C432">
+        <v>0.9990113315205155</v>
+      </c>
+      <c r="D432">
+        <v>0.9994725591873141</v>
+      </c>
+      <c r="E432">
+        <v>0.9965385279341141</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B433">
+        <v>1.002576730728861</v>
+      </c>
+      <c r="C433">
+        <v>0.9979173278435938</v>
+      </c>
+      <c r="D433">
+        <v>1.000179346046494</v>
+      </c>
+      <c r="E433">
+        <v>0.9962836013907788</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="2">
+        <v>41681</v>
+      </c>
+      <c r="B434">
+        <v>1.002489513911015</v>
+      </c>
+      <c r="C434">
+        <v>0.9969803386852107</v>
+      </c>
+      <c r="D434">
+        <v>1.00022480691625</v>
+      </c>
+      <c r="E434">
+        <v>0.9964577630391362</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="2">
+        <v>41682</v>
+      </c>
+      <c r="B435">
+        <v>1.002464663677698</v>
+      </c>
+      <c r="C435">
+        <v>0.9976969763273171</v>
+      </c>
+      <c r="D435">
+        <v>0.9994632656800373</v>
+      </c>
+      <c r="E435">
+        <v>0.9967487352913531</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2">
+        <v>41683</v>
+      </c>
+      <c r="B436">
+        <v>1.002382490742409</v>
+      </c>
+      <c r="C436">
+        <v>0.9968569483386617</v>
+      </c>
+      <c r="D436">
+        <v>0.9999740785426711</v>
+      </c>
+      <c r="E436">
+        <v>0.9970977244679587</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B437">
+        <v>1.002302105622137</v>
+      </c>
+      <c r="C437">
+        <v>0.9963597930116168</v>
+      </c>
+      <c r="D437">
+        <v>1.00019104068623</v>
+      </c>
+      <c r="E437">
+        <v>0.9973997133893837</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2">
+        <v>41688</v>
+      </c>
+      <c r="B438">
+        <v>1.00225999242239</v>
+      </c>
+      <c r="C438">
+        <v>0.9963027219196421</v>
+      </c>
+      <c r="D438">
+        <v>1.000093295001108</v>
+      </c>
+      <c r="E438">
+        <v>0.9969088684195787</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2">
+        <v>41689</v>
+      </c>
+      <c r="B439">
+        <v>1.002241387194714</v>
+      </c>
+      <c r="C439">
+        <v>0.9968097058357146</v>
+      </c>
+      <c r="D439">
+        <v>0.9997483007654222</v>
+      </c>
+      <c r="E439">
+        <v>0.9973721767196257</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="2">
+        <v>41690</v>
+      </c>
+      <c r="B440">
+        <v>1.002158150615943</v>
+      </c>
+      <c r="C440">
+        <v>0.9956323090504354</v>
+      </c>
+      <c r="D440">
+        <v>0.9999199911673322</v>
+      </c>
+      <c r="E440">
+        <v>0.9969211450142473</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B441">
+        <v>1.002132352158569</v>
+      </c>
+      <c r="C441">
+        <v>0.9958797976070248</v>
+      </c>
+      <c r="D441">
+        <v>1.000066862293541</v>
+      </c>
+      <c r="E441">
+        <v>0.9971246448294964</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2">
+        <v>41694</v>
+      </c>
+      <c r="B442">
+        <v>1.002106612895406</v>
+      </c>
+      <c r="C442">
+        <v>0.9959500196107069</v>
+      </c>
+      <c r="D442">
+        <v>0.9996999986243983</v>
+      </c>
+      <c r="E442">
+        <v>0.9965715018802322</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2">
+        <v>41695</v>
+      </c>
+      <c r="B443">
+        <v>1.002068312117859</v>
+      </c>
+      <c r="C443">
+        <v>0.9962621939017779</v>
+      </c>
+      <c r="D443">
+        <v>0.999463662614558</v>
+      </c>
+      <c r="E443">
+        <v>0.9957730103470696</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2">
+        <v>41696</v>
+      </c>
+      <c r="B444">
+        <v>1.002027142028862</v>
+      </c>
+      <c r="C444">
+        <v>0.9964546492565889</v>
+      </c>
+      <c r="D444">
+        <v>0.9992509813693755</v>
+      </c>
+      <c r="E444">
+        <v>0.9960456557490186</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2">
+        <v>41697</v>
+      </c>
+      <c r="B445">
+        <v>1.002014701537021</v>
+      </c>
+      <c r="C445">
+        <v>0.9966030180667046</v>
+      </c>
+      <c r="D445">
+        <v>0.9995029781425113</v>
+      </c>
+      <c r="E445">
+        <v>0.9958335267496095</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B446">
+        <v>1.002002595048211</v>
+      </c>
+      <c r="C446">
+        <v>0.9969266854352501</v>
+      </c>
+      <c r="D446">
+        <v>0.9995634145563206</v>
+      </c>
+      <c r="E446">
+        <v>0.9964333495386366</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2">
+        <v>41701</v>
+      </c>
+      <c r="B447">
+        <v>1.001959130746672</v>
+      </c>
+      <c r="C447">
+        <v>0.9966071830757358</v>
+      </c>
+      <c r="D447">
+        <v>0.999820831996756</v>
+      </c>
+      <c r="E447">
+        <v>0.9959317085173994</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2">
+        <v>41702</v>
+      </c>
+      <c r="B448">
+        <v>1.001898746580789</v>
+      </c>
+      <c r="C448">
+        <v>0.9965821748038892</v>
+      </c>
+      <c r="D448">
+        <v>0.9992777510889655</v>
+      </c>
+      <c r="E448">
+        <v>0.9961190783507428</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="2">
+        <v>41703</v>
+      </c>
+      <c r="B449">
+        <v>1.001848513587712</v>
+      </c>
+      <c r="C449">
+        <v>0.9965159767671169</v>
+      </c>
+      <c r="D449">
+        <v>0.999768100955168</v>
+      </c>
+      <c r="E449">
+        <v>0.9962409908812923</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="2">
+        <v>41704</v>
+      </c>
+      <c r="B450">
+        <v>1.001814055480571</v>
+      </c>
+      <c r="C450">
+        <v>0.9965163778737031</v>
+      </c>
+      <c r="D450">
+        <v>1.000097312054046</v>
+      </c>
+      <c r="E450">
+        <v>0.9962626872248345</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2">
+        <v>41705</v>
+      </c>
+      <c r="B451">
+        <v>1.001793306507101</v>
+      </c>
+      <c r="C451">
+        <v>0.9968772861160401</v>
+      </c>
+      <c r="D451">
+        <v>0.9996208857416119</v>
+      </c>
+      <c r="E451">
+        <v>0.996472929380655</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="2">
+        <v>41708</v>
+      </c>
+      <c r="B452">
+        <v>1.001765104768387</v>
+      </c>
+      <c r="C452">
+        <v>0.997097663777803</v>
+      </c>
+      <c r="D452">
+        <v>0.9995669226291845</v>
+      </c>
+      <c r="E452">
+        <v>0.9967337224592645</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2">
+        <v>41709</v>
+      </c>
+      <c r="B453">
+        <v>1.001728355126684</v>
+      </c>
+      <c r="C453">
+        <v>0.9974684967694174</v>
+      </c>
+      <c r="D453">
+        <v>1.000299566552307</v>
+      </c>
+      <c r="E453">
+        <v>0.9968598806466984</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="2">
+        <v>41710</v>
+      </c>
+      <c r="B454">
+        <v>1.001633190194383</v>
+      </c>
+      <c r="C454">
+        <v>0.9963879015636871</v>
+      </c>
+      <c r="D454">
+        <v>1.000621914011383</v>
+      </c>
+      <c r="E454">
+        <v>0.9968358907600845</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2">
+        <v>41711</v>
+      </c>
+      <c r="B455">
+        <v>1.001586118836738</v>
+      </c>
+      <c r="C455">
+        <v>0.995925223478468</v>
+      </c>
+      <c r="D455">
+        <v>1.001681024341811</v>
+      </c>
+      <c r="E455">
+        <v>0.9967895045320019</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="2">
+        <v>41712</v>
+      </c>
+      <c r="B456">
+        <v>1.001554080749613</v>
+      </c>
+      <c r="C456">
+        <v>0.9958285627811911</v>
+      </c>
+      <c r="D456">
+        <v>1.001704894580695</v>
+      </c>
+      <c r="E456">
+        <v>0.9964696039540288</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2">
+        <v>41715</v>
+      </c>
+      <c r="B457">
+        <v>1.001535082961761</v>
+      </c>
+      <c r="C457">
+        <v>0.9967477514956526</v>
+      </c>
+      <c r="D457">
+        <v>1.001035005735886</v>
+      </c>
+      <c r="E457">
+        <v>0.9968366129322893</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="2">
+        <v>41716</v>
+      </c>
+      <c r="B458">
+        <v>1.001472787165519</v>
+      </c>
+      <c r="C458">
+        <v>0.99645150170426</v>
+      </c>
+      <c r="D458">
+        <v>1.000126254455987</v>
+      </c>
+      <c r="E458">
+        <v>0.9970344478134254</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2">
+        <v>41717</v>
+      </c>
+      <c r="B459">
+        <v>1.001468593709517</v>
+      </c>
+      <c r="C459">
+        <v>0.997343563845964</v>
+      </c>
+      <c r="D459">
+        <v>0.9997277757185746</v>
+      </c>
+      <c r="E459">
+        <v>0.9966357271745518</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2">
+        <v>41718</v>
+      </c>
+      <c r="B460">
+        <v>1.001426303947111</v>
+      </c>
+      <c r="C460">
+        <v>0.9973121990794934</v>
+      </c>
+      <c r="D460">
+        <v>0.9996423180300248</v>
+      </c>
+      <c r="E460">
+        <v>0.9968011479758571</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="2">
+        <v>41719</v>
+      </c>
+      <c r="B461">
+        <v>1.001388136737768</v>
+      </c>
+      <c r="C461">
+        <v>0.9972424510544446</v>
+      </c>
+      <c r="D461">
+        <v>0.9996880958720253</v>
+      </c>
+      <c r="E461">
+        <v>0.9972239809232305</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2">
+        <v>41722</v>
+      </c>
+      <c r="B462">
+        <v>1.001407708335488</v>
+      </c>
+      <c r="C462">
+        <v>0.9986253725920337</v>
+      </c>
+      <c r="D462">
+        <v>0.9992962300680344</v>
+      </c>
+      <c r="E462">
+        <v>0.9969902903630897</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="2">
+        <v>41723</v>
+      </c>
+      <c r="B463">
+        <v>1.001350996152164</v>
+      </c>
+      <c r="C463">
+        <v>0.9984973656850006</v>
+      </c>
+      <c r="D463">
+        <v>0.9991946470526768</v>
+      </c>
+      <c r="E463">
+        <v>0.9970762535736558</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="2">
+        <v>41724</v>
+      </c>
+      <c r="B464">
+        <v>1.001376512969545</v>
+      </c>
+      <c r="C464">
+        <v>0.9999747912210842</v>
+      </c>
+      <c r="D464">
+        <v>0.9993125631766453</v>
+      </c>
+      <c r="E464">
+        <v>0.9972982052125834</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2">
+        <v>41725</v>
+      </c>
+      <c r="B465">
+        <v>1.001343975220016</v>
+      </c>
+      <c r="C465">
+        <v>0.9999354542387739</v>
+      </c>
+      <c r="D465">
+        <v>0.9994644004890869</v>
+      </c>
+      <c r="E465">
+        <v>0.9974768608614241</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="2">
+        <v>41726</v>
+      </c>
+      <c r="B466">
+        <v>1.001274180354489</v>
+      </c>
+      <c r="C466">
+        <v>0.999191031254137</v>
+      </c>
+      <c r="D466">
+        <v>0.9995509964878925</v>
+      </c>
+      <c r="E466">
+        <v>0.9982080110901262</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B467">
+        <v>1.00124874743052</v>
+      </c>
+      <c r="C467">
+        <v>0.9997273907514228</v>
+      </c>
+      <c r="D467">
+        <v>0.9989527579892529</v>
+      </c>
+      <c r="E467">
+        <v>0.9988170792663653</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B468">
+        <v>1.001191644208784</v>
+      </c>
+      <c r="C468">
+        <v>0.9997018436537075</v>
+      </c>
+      <c r="D468">
+        <v>0.9987614269904644</v>
+      </c>
+      <c r="E468">
+        <v>0.9988731943627587</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2">
+        <v>41731</v>
+      </c>
+      <c r="B469">
+        <v>1.001132426877402</v>
+      </c>
+      <c r="C469">
+        <v>0.9990819908889472</v>
+      </c>
+      <c r="D469">
+        <v>0.9987297543386704</v>
+      </c>
+      <c r="E469">
+        <v>0.9987806762722405</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2">
+        <v>41732</v>
+      </c>
+      <c r="B470">
+        <v>1.001128381699722</v>
+      </c>
+      <c r="C470">
+        <v>0.999407913387717</v>
+      </c>
+      <c r="D470">
+        <v>0.9989860206662436</v>
+      </c>
+      <c r="E470">
+        <v>0.9986708283786131</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="2">
+        <v>41733</v>
+      </c>
+      <c r="B471">
+        <v>1.001093591497117</v>
+      </c>
+      <c r="C471">
+        <v>0.9992747667778564</v>
+      </c>
+      <c r="D471">
+        <v>0.9995010630622206</v>
+      </c>
+      <c r="E471">
+        <v>0.9988755250173446</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2">
+        <v>41736</v>
+      </c>
+      <c r="B472">
+        <v>1.001080792921676</v>
+      </c>
+      <c r="C472">
+        <v>0.9997202455185553</v>
+      </c>
+      <c r="D472">
+        <v>1.000250199140676</v>
+      </c>
+      <c r="E472">
+        <v>0.9988239964740416</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="2">
+        <v>41737</v>
+      </c>
+      <c r="B473">
+        <v>1.001033613025799</v>
+      </c>
+      <c r="C473">
+        <v>0.9991668569739697</v>
+      </c>
+      <c r="D473">
+        <v>1.000092234952338</v>
+      </c>
+      <c r="E473">
+        <v>0.9987982538810235</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="2">
+        <v>41738</v>
+      </c>
+      <c r="B474">
+        <v>1.000967110739886</v>
+      </c>
+      <c r="C474">
+        <v>0.9989926861414161</v>
+      </c>
+      <c r="D474">
+        <v>0.9997949930066111</v>
+      </c>
+      <c r="E474">
+        <v>0.9989680984505616</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
+        <v>41739</v>
+      </c>
+      <c r="B475">
+        <v>1.000969559917173</v>
+      </c>
+      <c r="C475">
+        <v>0.9994699391527772</v>
+      </c>
+      <c r="D475">
+        <v>1.000553596764864</v>
+      </c>
+      <c r="E475">
+        <v>0.9990865604259785</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="2">
+        <v>41740</v>
+      </c>
+      <c r="B476">
+        <v>1.000951159179734</v>
+      </c>
+      <c r="C476">
+        <v>0.9998185395856218</v>
+      </c>
+      <c r="D476">
+        <v>1.000913423007823</v>
+      </c>
+      <c r="E476">
+        <v>0.9994472741049306</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="2">
+        <v>41743</v>
+      </c>
+      <c r="B477">
+        <v>1.000884184566714</v>
+      </c>
+      <c r="C477">
+        <v>0.9993323635650602</v>
+      </c>
+      <c r="D477">
+        <v>1.000958209063138</v>
+      </c>
+      <c r="E477">
+        <v>0.9996746737576845</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="2">
+        <v>41744</v>
+      </c>
+      <c r="B478">
+        <v>1.000857720179097</v>
+      </c>
+      <c r="C478">
+        <v>0.9999013793409022</v>
+      </c>
+      <c r="D478">
+        <v>1.000441687814762</v>
+      </c>
+      <c r="E478">
+        <v>0.9996523363918047</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="2">
+        <v>41745</v>
+      </c>
+      <c r="B479">
+        <v>1.000821609604678</v>
+      </c>
+      <c r="C479">
+        <v>0.9999635915555762</v>
+      </c>
+      <c r="D479">
+        <v>0.9996501222958423</v>
+      </c>
+      <c r="E479">
+        <v>1.000053361422254</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2">
+        <v>41746</v>
+      </c>
+      <c r="B480">
+        <v>1.000793581335811</v>
+      </c>
+      <c r="C480">
+        <v>1.000011955092903</v>
+      </c>
+      <c r="D480">
+        <v>0.9994438067911031</v>
+      </c>
+      <c r="E480">
+        <v>1.000128015993759</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2">
+        <v>41750</v>
+      </c>
+      <c r="B481">
+        <v>1.000754107403718</v>
+      </c>
+      <c r="C481">
+        <v>1.000396995975676</v>
+      </c>
+      <c r="D481">
+        <v>0.9993494854096989</v>
+      </c>
+      <c r="E481">
+        <v>1.000080256188548</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="2">
+        <v>41751</v>
+      </c>
+      <c r="B482">
+        <v>1.000683250850295</v>
+      </c>
+      <c r="C482">
+        <v>0.9997654538607857</v>
+      </c>
+      <c r="D482">
+        <v>0.9991490764463605</v>
+      </c>
+      <c r="E482">
+        <v>0.9998964599369959</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="2">
+        <v>41752</v>
+      </c>
+      <c r="B483">
+        <v>1.000641716949916</v>
+      </c>
+      <c r="C483">
+        <v>0.9993513955980909</v>
+      </c>
+      <c r="D483">
+        <v>0.9994731306508107</v>
+      </c>
+      <c r="E483">
+        <v>0.9997710602240623</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="2">
+        <v>41753</v>
+      </c>
+      <c r="B484">
+        <v>1.000592368382682</v>
+      </c>
+      <c r="C484">
+        <v>0.9996726795941335</v>
+      </c>
+      <c r="D484">
+        <v>0.9991131257345162</v>
+      </c>
+      <c r="E484">
+        <v>0.999877475321884</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="2">
+        <v>41754</v>
+      </c>
+      <c r="B485">
+        <v>1.000531026111651</v>
+      </c>
+      <c r="C485">
+        <v>0.9992983916050918</v>
+      </c>
+      <c r="D485">
+        <v>0.9997170086015141</v>
+      </c>
+      <c r="E485">
+        <v>0.9997559374025204</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="2">
+        <v>41757</v>
+      </c>
+      <c r="B486">
+        <v>1.000510507526597</v>
+      </c>
+      <c r="C486">
+        <v>0.9998296888937073</v>
+      </c>
+      <c r="D486">
+        <v>0.9995953626080664</v>
+      </c>
+      <c r="E486">
+        <v>0.9994775225174939</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="2">
+        <v>41758</v>
+      </c>
+      <c r="B487">
+        <v>1.000456068328545</v>
+      </c>
+      <c r="C487">
+        <v>0.999296504506625</v>
+      </c>
+      <c r="D487">
+        <v>0.9996709383942401</v>
+      </c>
+      <c r="E487">
+        <v>0.9993997082467057</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B488">
+        <v>1.000407919400374</v>
+      </c>
+      <c r="C488">
+        <v>0.9994051820160487</v>
+      </c>
+      <c r="D488">
+        <v>0.9992309872167118</v>
+      </c>
+      <c r="E488">
+        <v>0.9995879850746078</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B489">
+        <v>1.000314031641496</v>
+      </c>
+      <c r="C489">
+        <v>0.9995251082900746</v>
+      </c>
+      <c r="D489">
+        <v>0.9986591221998692</v>
+      </c>
+      <c r="E489">
+        <v>0.9991963749703413</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="2">
+        <v>41761</v>
+      </c>
+      <c r="B490">
+        <v>1.000236662458545</v>
+      </c>
+      <c r="C490">
+        <v>0.998510619950308</v>
+      </c>
+      <c r="D490">
+        <v>0.9985182284406533</v>
+      </c>
+      <c r="E490">
+        <v>0.9990780148247745</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="2">
+        <v>41764</v>
+      </c>
+      <c r="B491">
+        <v>1.000226562944344</v>
+      </c>
+      <c r="C491">
+        <v>0.9989564139030239</v>
+      </c>
+      <c r="D491">
+        <v>0.9991401863077801</v>
+      </c>
+      <c r="E491">
+        <v>0.9992256393094802</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2">
+        <v>41765</v>
+      </c>
+      <c r="B492">
+        <v>1.000216652912448</v>
+      </c>
+      <c r="C492">
+        <v>0.999337620997947</v>
+      </c>
+      <c r="D492">
+        <v>0.999839926295686</v>
+      </c>
+      <c r="E492">
+        <v>0.9993968543228008</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="2">
+        <v>41766</v>
+      </c>
+      <c r="B493">
+        <v>1.000226444252571</v>
+      </c>
+      <c r="C493">
+        <v>0.9998280537017047</v>
+      </c>
+      <c r="D493">
+        <v>0.99960373741349</v>
+      </c>
+      <c r="E493">
+        <v>0.9999928546853174</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="2">
+        <v>41767</v>
+      </c>
+      <c r="B494">
+        <v>1.000189844040591</v>
+      </c>
+      <c r="C494">
+        <v>1.000224864900595</v>
+      </c>
+      <c r="D494">
+        <v>1.0002551357372</v>
+      </c>
+      <c r="E494">
+        <v>0.9997516071214303</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="2">
+        <v>41768</v>
+      </c>
+      <c r="B495">
+        <v>1.000119386086737</v>
+      </c>
+      <c r="C495">
+        <v>1.000074470451071</v>
+      </c>
+      <c r="D495">
+        <v>1.000335186663998</v>
+      </c>
+      <c r="E495">
+        <v>0.9996940598717344</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2">
+        <v>41771</v>
+      </c>
+      <c r="B496">
+        <v>1.000040048314456</v>
+      </c>
+      <c r="C496">
+        <v>0.9993461693030696</v>
+      </c>
+      <c r="D496">
+        <v>0.999554759716109</v>
+      </c>
+      <c r="E496">
+        <v>0.9997973350026239</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2">
+        <v>41772</v>
+      </c>
+      <c r="B497">
+        <v>1.000002725656853</v>
+      </c>
+      <c r="C497">
+        <v>0.9994529256302439</v>
+      </c>
+      <c r="D497">
+        <v>0.9993166387355654</v>
+      </c>
+      <c r="E497">
+        <v>0.9998358182016464</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2">
+        <v>41773</v>
+      </c>
+      <c r="B498">
+        <v>0.9999489696623359</v>
+      </c>
+      <c r="C498">
+        <v>0.9990397112032933</v>
+      </c>
+      <c r="D498">
+        <v>0.9996904724704573</v>
+      </c>
+      <c r="E498">
+        <v>0.9999210421175406</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B499">
+        <v>0.9999403276539555</v>
+      </c>
+      <c r="C499">
+        <v>0.9998018718276074</v>
+      </c>
+      <c r="D499">
+        <v>1.000102237755328</v>
+      </c>
+      <c r="E499">
+        <v>0.999703531128964</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2">
+        <v>41775</v>
+      </c>
+      <c r="B500">
+        <v>0.9999113488983571</v>
+      </c>
+      <c r="C500">
+        <v>1.000296713574288</v>
+      </c>
+      <c r="D500">
+        <v>1.000292706645037</v>
+      </c>
+      <c r="E500">
+        <v>0.9997920800213669</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="2">
+        <v>41778</v>
+      </c>
+      <c r="B501">
+        <v>0.9998691946465976</v>
+      </c>
+      <c r="C501">
+        <v>1.000298917843343</v>
+      </c>
+      <c r="D501">
+        <v>1.00035798750096</v>
+      </c>
+      <c r="E501">
+        <v>0.9997730503101175</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2">
+        <v>41779</v>
+      </c>
+      <c r="B502">
+        <v>0.9998253485504389</v>
+      </c>
+      <c r="C502">
+        <v>1.000125268324874</v>
+      </c>
+      <c r="D502">
+        <v>1.00048901311191</v>
+      </c>
+      <c r="E502">
+        <v>0.9997049906956667</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="2">
+        <v>41780</v>
+      </c>
+      <c r="B503">
+        <v>0.9997599224092134</v>
+      </c>
+      <c r="C503">
+        <v>0.9997232237525064</v>
+      </c>
+      <c r="D503">
+        <v>0.9999179166021402</v>
+      </c>
+      <c r="E503">
+        <v>0.9998155295579402</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="2">
+        <v>41781</v>
+      </c>
+      <c r="B504">
+        <v>0.9996946014192006</v>
+      </c>
+      <c r="C504">
+        <v>0.9996097202500742</v>
+      </c>
+      <c r="D504">
+        <v>0.9999980545612469</v>
+      </c>
+      <c r="E504">
+        <v>0.999894709526144</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="2">
         <v>41782</v>
       </c>
-      <c r="B253">
-        <v>0.9999156468697202</v>
-      </c>
-      <c r="C253">
-        <v>0.9999691121776593</v>
-      </c>
-      <c r="D253">
-        <v>0.9999827066546244</v>
-      </c>
-      <c r="E253">
-        <v>0.9999889756834134</v>
+      <c r="B505">
+        <v>0.9996541330223646</v>
+      </c>
+      <c r="C505">
+        <v>0.99984814426994</v>
+      </c>
+      <c r="D505">
+        <v>0.9999337634902918</v>
+      </c>
+      <c r="E505">
+        <v>0.9999601355718376</v>
       </c>
     </row>
   </sheetData>
